--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3041" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B20A7BF-EB66-4B51-AA9A-A097B1B306C4}"/>
+  <xr:revisionPtr revIDLastSave="3063" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06449700-E868-4C1B-A2E1-8045A1C1F472}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="597">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1860,6 +1860,15 @@
   </si>
   <si>
     <t>haListPriceBinural2</t>
+  </si>
+  <si>
+    <t>Beltone Envision 17 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Envision 9 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Envision 6 62S-DRWC Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2316,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2447,41 +2456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2529,6 +2504,41 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3271,6 +3281,9 @@
         <filter val="Beltone RIE Digital Envision 17 62S-DRWC"/>
         <filter val="Beltone RIE Digital Envision 6 62S-DRWC"/>
         <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
+        <filter val="Beltone Serene 17 62SDRWC Digital RIE"/>
+        <filter val="Beltone Serene 6 62SDRWC Digital RIE"/>
+        <filter val="Beltone Serene 9 62SDRWC Digital RIE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3694,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B380E-1396-4B6E-A468-8A3D9AA81345}">
   <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3711,32 +3724,32 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84"/>
+      <c r="B5" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="101"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="98" t="s">
         <v>575</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="44" t="s">
         <v>3</v>
       </c>
@@ -3758,10 +3771,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="104"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3771,27 +3784,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="94" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3804,28 +3817,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="92" t="str" cm="1">
+      <c r="J11" s="83" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>()</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="85"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="94" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3838,25 +3851,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="103" t="str" cm="1">
+      <c r="B13" s="94" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3869,26 +3882,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="103" t="str" cm="1">
+      <c r="B14" s="94" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3898,26 +3911,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="103" t="str">
+      <c r="B15" s="94" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3927,46 +3940,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="100" cm="1">
+      <c r="J16" s="91" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="99" t="str" cm="1">
+      <c r="B17" s="90" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -3979,11 +3992,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -3993,9 +4006,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4007,12 +4020,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="92" t="e" cm="1" vm="1">
+      <c r="L20" s="83" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4026,9 +4039,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="88"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4046,9 +4059,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4064,9 +4077,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4085,9 +4098,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4095,9 +4108,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4124,6 +4137,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4138,11 +4156,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4182,11 +4195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q317"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4274,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4312,7 +4325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4363,7 +4376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="4" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -6772,7 +6785,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="57" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -6868,7 +6881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="59" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7164,7 +7177,7 @@
       <c r="P65" s="74"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="66" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7214,7 +7227,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="67" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7264,7 +7277,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="68" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7362,7 +7375,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="70" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7413,7 +7426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="71" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7464,7 +7477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7568,7 +7581,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="74" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7620,7 +7633,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="75" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7672,7 +7685,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="76" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7776,7 +7789,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="78" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -7828,7 +7841,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="79" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -7880,7 +7893,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="80" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -7984,7 +7997,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="82" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8036,7 +8049,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="83" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8088,7 +8101,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="84" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8192,7 +8205,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="86" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8244,7 +8257,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="87" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8296,7 +8309,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="88" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8404,8 +8417,8 @@
       <c r="A90" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="B90" s="72" t="s">
-        <v>575</v>
+      <c r="B90" s="81" t="s">
+        <v>594</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="26" t="str">
@@ -8454,8 +8467,8 @@
       <c r="A91" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="B91" s="72" t="s">
-        <v>576</v>
+      <c r="B91" s="81" t="s">
+        <v>595</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="26" t="str">
@@ -8504,8 +8517,8 @@
       <c r="A92" s="72" t="s">
         <v>577</v>
       </c>
-      <c r="B92" s="72" t="s">
-        <v>577</v>
+      <c r="B92" s="81" t="s">
+        <v>596</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="26" t="str">
@@ -10834,7 +10847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="141" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -10885,7 +10898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="142" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -10936,7 +10949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="143" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11251,7 +11264,7 @@
       <c r="O149" s="78"/>
       <c r="P149" s="74"/>
     </row>
-    <row r="150" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="150" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11302,7 +11315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="151" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11353,7 +11366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="152" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11451,7 +11464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="154" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11502,7 +11515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="155" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11553,7 +11566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="156" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11651,7 +11664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="158" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11702,7 +11715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="159" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11753,7 +11766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="160" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -11804,7 +11817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="161" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="72" t="s">
         <v>579</v>
       </c>
@@ -11851,7 +11864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="162" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -11862,7 +11875,7 @@
         <v>476</v>
       </c>
       <c r="D162" s="26" t="str">
-        <f t="shared" ref="D162:D165" si="11">"("&amp;C162&amp;")"</f>
+        <f t="shared" ref="D162:D168" si="11">"("&amp;C162&amp;")"</f>
         <v>(CWC-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E162" s="5" t="s">
@@ -11878,7 +11891,7 @@
         <v>250</v>
       </c>
       <c r="I162" s="2">
-        <f t="shared" ref="I162:I165" si="12">F162-J162</f>
+        <f t="shared" ref="I162:I168" si="12">F162-J162</f>
         <v>2364</v>
       </c>
       <c r="J162" s="2">
@@ -11902,7 +11915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="163" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -11953,7 +11966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="164" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12004,7 +12017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="165" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="72" t="s">
         <v>579</v>
       </c>
@@ -12051,61 +12064,156 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
+    <row r="166" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+      <c r="A166" s="72" t="s">
+        <v>575</v>
+      </c>
+      <c r="B166" s="81" t="s">
+        <v>594</v>
+      </c>
       <c r="C166" s="4"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="16"/>
-      <c r="O166" s="16"/>
-      <c r="P166" s="2"/>
-    </row>
-    <row r="167" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="D166" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>()</v>
+      </c>
+      <c r="E166" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="74">
+        <v>5819</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" s="9">
+        <v>250</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1019</v>
+      </c>
+      <c r="J166" s="9">
+        <v>4800</v>
+      </c>
+      <c r="K166" s="9">
+        <f>J166*2</f>
+        <v>9600</v>
+      </c>
+      <c r="L166" s="9"/>
+      <c r="M166" s="53">
+        <v>1</v>
+      </c>
+      <c r="N166" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O166" s="41">
+        <v>0</v>
+      </c>
+      <c r="P166" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q166" s="2"/>
+    </row>
+    <row r="167" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+      <c r="A167" s="72" t="s">
+        <v>576</v>
+      </c>
+      <c r="B167" s="81" t="s">
+        <v>595</v>
+      </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="16"/>
-      <c r="P167" s="2"/>
-    </row>
-    <row r="168" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="D167" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>()</v>
+      </c>
+      <c r="E167" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167" s="74">
+        <v>4679</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167" s="9">
+        <v>250</v>
+      </c>
+      <c r="I167" s="9">
+        <f t="shared" si="12"/>
+        <v>1504</v>
+      </c>
+      <c r="J167" s="9">
+        <f>(K167-H167-O167)/2</f>
+        <v>3175</v>
+      </c>
+      <c r="K167" s="9">
+        <v>6600</v>
+      </c>
+      <c r="L167" s="9"/>
+      <c r="M167" s="53">
+        <v>1</v>
+      </c>
+      <c r="N167" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O167" s="41">
+        <v>0</v>
+      </c>
+      <c r="P167" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q167" s="2"/>
+    </row>
+    <row r="168" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
+      <c r="A168" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="B168" s="81" t="s">
+        <v>596</v>
+      </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="16"/>
-      <c r="O168" s="16"/>
-      <c r="P168" s="9"/>
-    </row>
-    <row r="169" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+      <c r="D168" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>()</v>
+      </c>
+      <c r="E168" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="74">
+        <v>3689</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H168" s="9">
+        <v>250</v>
+      </c>
+      <c r="I168" s="9">
+        <f t="shared" si="12"/>
+        <v>914</v>
+      </c>
+      <c r="J168" s="9">
+        <f>(K168-H168)/2</f>
+        <v>2775</v>
+      </c>
+      <c r="K168" s="9">
+        <v>5800</v>
+      </c>
+      <c r="L168" s="9"/>
+      <c r="M168" s="53">
+        <v>1</v>
+      </c>
+      <c r="N168" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O168" s="41">
+        <v>0</v>
+      </c>
+      <c r="P168" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q168" s="2"/>
+    </row>
+    <row r="169" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -12123,7 +12231,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="170" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -12141,7 +12249,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="171" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -12159,7 +12267,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="172" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -12177,7 +12285,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="9"/>
     </row>
-    <row r="173" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="173" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -12195,7 +12303,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="9"/>
     </row>
-    <row r="174" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="174" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -12213,7 +12321,7 @@
       <c r="O174" s="16"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="175" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -12231,7 +12339,7 @@
       <c r="O175" s="16"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
+    <row r="176" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3063" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06449700-E868-4C1B-A2E1-8045A1C1F472}"/>
+  <xr:revisionPtr revIDLastSave="3064" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9625EBD5-7AE0-47DD-B615-268B687614D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -3346,7 +3346,10 @@
   <autoFilter ref="A1:H74" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}">
     <filterColumn colId="3">
       <filters>
+        <filter val="Desktop"/>
+        <filter val="Premium"/>
         <filter val="Remote Control 2"/>
+        <filter val="Standard"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4195,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22240,9 +22243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -22280,7 +22283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -22308,7 +22311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -22336,7 +22339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -22364,7 +22367,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -22392,7 +22395,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -22420,7 +22423,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -22476,7 +22479,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -22504,7 +22507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -22532,7 +22535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22560,7 +22563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -22588,7 +22591,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -22644,7 +22647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -22672,7 +22675,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -22700,7 +22703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -22728,7 +22731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -22756,7 +22759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -22784,7 +22787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -22812,7 +22815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -22840,7 +22843,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -22868,7 +22871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -22896,7 +22899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -22924,7 +22927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -22952,7 +22955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -22980,7 +22983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -23008,7 +23011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -23036,7 +23039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -23064,7 +23067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -23092,7 +23095,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -23120,7 +23123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -23148,7 +23151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -23176,7 +23179,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>382</v>
       </c>
@@ -23204,7 +23207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>383</v>
       </c>
@@ -23232,7 +23235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -23260,7 +23263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -23288,7 +23291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -23512,7 +23515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -23540,7 +23543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -23568,7 +23571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -23596,7 +23599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -23624,7 +23627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -23764,7 +23767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>468</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3132" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82403B9-EAA3-4C79-93CB-B66FF191078F}"/>
+  <xr:revisionPtr revIDLastSave="3158" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C4C5D4-A8D7-45A5-A583-DB49934DE360}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="1710" yWindow="1080" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="600">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1875,6 +1875,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2360,7 +2363,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2498,6 +2501,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2512,11 +2523,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,16 +2586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3747,47 +3751,47 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1">
-      <c r="B5" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84"/>
+    <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="87"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="82" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B6" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="82"/>
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="85"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="106" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="81" t="s">
         <v>598</v>
       </c>
       <c r="H6" s="44" t="s">
@@ -3798,7 +3802,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3810,11 +3814,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
-      <c r="B10" s="86" t="s">
+    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3824,27 +3828,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1">
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="101" t="str">
+      <c r="B11" s="105" t="str">
         <f>IF($B$6="","",$B$6)</f>
-        <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+        <v>Beltone RIE Digital Achieve 17 62DRWC</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3857,28 +3861,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="90" t="str" cm="1">
+      <c r="J11" s="94" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
-        <v>()</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1">
+        <v>(REG-HI-ACH17-62DRWC)</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="101" t="str">
+      <c r="B12" s="105" t="str">
         <f>IF($D$6=1,"",B11)</f>
-        <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
+        <v>Beltone RIE Digital Achieve 17 62DRWC</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3891,25 +3895,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1">
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="101" t="str" cm="1">
+      <c r="B13" s="105" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3922,26 +3926,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="101" t="str" cm="1">
+      <c r="B14" s="105" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3951,26 +3955,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="101" t="str">
+      <c r="B15" s="105" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3980,46 +3984,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="97" t="s">
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="98" cm="1">
+      <c r="J16" s="102" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-    </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1">
-      <c r="B17" s="97" t="str" cm="1">
+        <v>REG-HI-ACH17-62DRWC</v>
+      </c>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
+    </row>
+    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="101" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4031,12 +4035,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1">
-      <c r="B18" s="96" t="s">
+    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4045,50 +4049,50 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="90" t="e" cm="1" vm="1">
+      <c r="L20" s="94" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1">
+    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4099,16 +4103,16 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="93"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="95"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1">
+    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="3.8">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4117,16 +4121,16 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="93"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="3.85">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4138,19 +4142,19 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="104"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4161,7 +4165,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4239,34 +4243,34 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14:I15"/>
+      <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" customWidth="1"/>
+    <col min="8" max="8" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" customWidth="1"/>
+    <col min="10" max="10" width="16.8984375" customWidth="1"/>
+    <col min="11" max="12" width="23.8984375" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -4317,7 +4321,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75">
+    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4334,8 +4338,8 @@
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9">
-        <v>5584</v>
+      <c r="F2" s="73">
+        <v>5819</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -4344,8 +4348,8 @@
         <v>250</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" si="1">F2-J2</f>
-        <v>2364</v>
+        <f t="shared" ref="I2" si="1">F2-J2</f>
+        <v>2599</v>
       </c>
       <c r="J2" s="2">
         <f>(K2-H2-O2)/2</f>
@@ -4368,7 +4372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75">
+    <row r="3" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4385,8 +4389,8 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
-        <v>3556</v>
+      <c r="F3" s="73">
+        <v>3689</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -4396,7 +4400,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="2">F3-J3</f>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="3">(K3-H3-O3)/2</f>
@@ -4419,7 +4423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75">
+    <row r="4" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4436,8 +4440,8 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9">
-        <v>4492</v>
+      <c r="F4" s="73">
+        <v>4679</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -4447,7 +4451,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
@@ -4470,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75">
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4518,11 +4522,13 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75">
+    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4565,11 +4571,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4612,11 +4620,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75">
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4659,7 +4669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12.75">
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4671,8 +4681,8 @@
       <c r="E9" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="9">
-        <v>5584</v>
+      <c r="F9" s="73">
+        <v>5819</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>16</v>
@@ -4682,7 +4692,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
@@ -4706,7 +4716,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75">
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4718,8 +4728,8 @@
       <c r="E10" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="9">
-        <v>3556</v>
+      <c r="F10" s="73">
+        <v>3689</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>16</v>
@@ -4729,7 +4739,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
@@ -4753,7 +4763,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75">
+    <row r="11" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4765,8 +4775,8 @@
       <c r="E11" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="9">
-        <v>4492</v>
+      <c r="F11" s="73">
+        <v>4679</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>16</v>
@@ -4776,7 +4786,7 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
@@ -4800,7 +4810,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="12.75">
+    <row r="12" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4812,8 +4822,8 @@
       <c r="E12" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="9">
-        <v>5584</v>
+      <c r="F12" s="73">
+        <v>5819</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
@@ -4823,7 +4833,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
@@ -4847,7 +4857,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75">
+    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4859,8 +4869,8 @@
       <c r="E13" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="9">
-        <v>5584</v>
+      <c r="F13" s="73">
+        <v>5819</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
@@ -4870,7 +4880,7 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
@@ -4894,7 +4904,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75">
+    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4906,8 +4916,8 @@
       <c r="E14" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="9">
-        <v>3556</v>
+      <c r="F14" s="73">
+        <v>3689</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>24</v>
@@ -4917,7 +4927,7 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
@@ -4941,7 +4951,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75">
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4953,8 +4963,8 @@
       <c r="E15" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="9">
-        <v>3556</v>
+      <c r="F15" s="73">
+        <v>3689</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
@@ -4964,7 +4974,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
@@ -4988,7 +4998,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75">
+    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5000,8 +5010,8 @@
       <c r="E16" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="9">
-        <v>4492</v>
+      <c r="F16" s="73">
+        <v>4679</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -5011,7 +5021,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
@@ -5035,7 +5045,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75">
+    <row r="17" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5047,8 +5057,8 @@
       <c r="E17" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="9">
-        <v>4492</v>
+      <c r="F17" s="73">
+        <v>4679</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -5058,7 +5068,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
@@ -5082,7 +5092,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="12.75">
+    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5133,7 +5143,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75">
+    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5184,7 +5194,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75">
+    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5235,7 +5245,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75">
+    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5251,8 +5261,8 @@
       <c r="E21" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="9">
-        <v>2595</v>
+      <c r="F21" s="73">
+        <v>3029</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -5262,7 +5272,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>804</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
@@ -5286,7 +5296,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75">
+    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5332,7 +5342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75">
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5378,7 +5388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75">
+    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5424,7 +5434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12.75">
+    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5471,7 +5481,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75">
+    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5518,7 +5528,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75">
+    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5565,7 +5575,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75">
+    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5612,7 +5622,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75">
+    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5659,7 +5669,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75">
+    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5671,8 +5681,8 @@
       <c r="E30" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="9">
-        <v>5584</v>
+      <c r="F30" s="73">
+        <v>5819</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>24</v>
@@ -5682,7 +5692,7 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
@@ -5706,7 +5716,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75">
+    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5718,8 +5728,8 @@
       <c r="E31" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="9">
-        <v>3556</v>
+      <c r="F31" s="73">
+        <v>3689</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>24</v>
@@ -5729,7 +5739,7 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
@@ -5753,7 +5763,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75">
+    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5765,8 +5775,8 @@
       <c r="E32" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="9">
-        <v>4492</v>
+      <c r="F32" s="73">
+        <v>4679</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>24</v>
@@ -5776,7 +5786,7 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
@@ -5800,7 +5810,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75">
+    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5812,8 +5822,8 @@
       <c r="E33" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="9">
-        <v>2695</v>
+      <c r="F33" s="73">
+        <v>3029</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>24</v>
@@ -5823,7 +5833,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
@@ -5847,7 +5857,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75">
+    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5859,8 +5869,8 @@
       <c r="E34" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="9">
-        <v>2695</v>
+      <c r="F34" s="73">
+        <v>3029</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
@@ -5870,7 +5880,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -5894,7 +5904,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75">
+    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5906,8 +5916,8 @@
       <c r="E35" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="9">
-        <v>5584</v>
+      <c r="F35" s="73">
+        <v>5819</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -5917,7 +5927,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
@@ -5941,7 +5951,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75">
+    <row r="36" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5953,8 +5963,8 @@
       <c r="E36" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="9">
-        <v>3556</v>
+      <c r="F36" s="73">
+        <v>3689</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>19</v>
@@ -5964,7 +5974,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
@@ -5988,7 +5998,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75">
+    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6000,8 +6010,8 @@
       <c r="E37" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="9">
-        <v>4492</v>
+      <c r="F37" s="73">
+        <v>4679</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>19</v>
@@ -6011,7 +6021,7 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
@@ -6035,7 +6045,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75">
+    <row r="38" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6047,8 +6057,8 @@
       <c r="E38" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="9">
-        <v>2695</v>
+      <c r="F38" s="73">
+        <v>3029</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>24</v>
@@ -6058,7 +6068,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
@@ -6082,7 +6092,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75">
+    <row r="39" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6094,8 +6104,8 @@
       <c r="E39" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="9">
-        <v>2695</v>
+      <c r="F39" s="73">
+        <v>3029</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>24</v>
@@ -6105,7 +6115,7 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="3"/>
@@ -6129,7 +6139,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75">
+    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6174,7 +6184,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75">
+    <row r="41" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6186,8 +6196,8 @@
       <c r="E41" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="9">
-        <v>5584</v>
+      <c r="F41" s="73">
+        <v>5819</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>19</v>
@@ -6197,7 +6207,7 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="3"/>
@@ -6221,7 +6231,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75">
+    <row r="42" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6233,8 +6243,8 @@
       <c r="E42" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="9">
-        <v>3556</v>
+      <c r="F42" s="73">
+        <v>3689</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>19</v>
@@ -6244,7 +6254,7 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="3"/>
@@ -6268,7 +6278,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75">
+    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6280,8 +6290,8 @@
       <c r="E43" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F43" s="9">
-        <v>4492</v>
+      <c r="F43" s="73">
+        <v>4679</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>19</v>
@@ -6291,7 +6301,7 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="3"/>
@@ -6315,7 +6325,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75">
+    <row r="44" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6327,8 +6337,8 @@
       <c r="E44" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="9">
-        <v>2695</v>
+      <c r="F44" s="73">
+        <v>3029</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>24</v>
@@ -6338,7 +6348,7 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="3"/>
@@ -6360,7 +6370,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75">
+    <row r="45" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6405,7 +6415,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75">
+    <row r="46" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6450,7 +6460,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75">
+    <row r="47" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6466,8 +6476,8 @@
       <c r="E47" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="9">
-        <v>5584</v>
+      <c r="F47" s="73">
+        <v>5819</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -6477,7 +6487,7 @@
       </c>
       <c r="I47" s="2">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="3"/>
@@ -6501,7 +6511,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75">
+    <row r="48" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6517,8 +6527,8 @@
       <c r="E48" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="9">
-        <v>3556</v>
+      <c r="F48" s="73">
+        <v>3689</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -6528,7 +6538,7 @@
       </c>
       <c r="I48" s="2">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="3"/>
@@ -6552,7 +6562,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75">
+    <row r="49" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6568,8 +6578,8 @@
       <c r="E49" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="9">
-        <v>4492</v>
+      <c r="F49" s="73">
+        <v>4679</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -6579,7 +6589,7 @@
       </c>
       <c r="I49" s="2">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="3"/>
@@ -6603,7 +6613,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75">
+    <row r="50" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6615,8 +6625,8 @@
       <c r="E50" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="9">
-        <v>2695</v>
+      <c r="F50" s="73">
+        <v>3029</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>24</v>
@@ -6626,7 +6636,7 @@
       </c>
       <c r="I50" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
@@ -6648,7 +6658,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75">
+    <row r="51" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6693,7 +6703,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75">
+    <row r="52" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6738,7 +6748,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75">
+    <row r="53" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6750,8 +6760,8 @@
       <c r="E53" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="9">
-        <v>2695</v>
+      <c r="F53" s="73">
+        <v>3029</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>24</v>
@@ -6761,7 +6771,7 @@
       </c>
       <c r="I53" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
@@ -6783,7 +6793,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75">
+    <row r="54" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6830,7 +6840,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75">
+    <row r="55" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6877,7 +6887,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75">
+    <row r="56" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6889,8 +6899,8 @@
       <c r="E56" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="9">
-        <v>2695</v>
+      <c r="F56" s="73">
+        <v>3029</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>24</v>
@@ -6900,7 +6910,7 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="3"/>
@@ -6924,7 +6934,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75">
+    <row r="57" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6940,8 +6950,8 @@
       <c r="E57" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F57" s="9">
-        <v>5584</v>
+      <c r="F57" s="73">
+        <v>5819</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -6951,7 +6961,7 @@
       </c>
       <c r="I57" s="2">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="3"/>
@@ -6974,7 +6984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12.75">
+    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -6990,8 +7000,8 @@
       <c r="E58" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="9">
-        <v>3556</v>
+      <c r="F58" s="73">
+        <v>3689</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -7001,7 +7011,7 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="3"/>
@@ -7024,7 +7034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12.75">
+    <row r="59" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7040,8 +7050,8 @@
       <c r="E59" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="9">
-        <v>4492</v>
+      <c r="F59" s="73">
+        <v>4679</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>21</v>
@@ -7051,7 +7061,7 @@
       </c>
       <c r="I59" s="2">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="3"/>
@@ -7074,11 +7084,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12.75">
+    <row r="60" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B60" s="71"/>
+      <c r="B60" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C60" s="71"/>
       <c r="D60" s="26" t="s">
         <v>582</v>
@@ -7120,11 +7132,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="12.75">
+    <row r="61" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B61" s="71"/>
+      <c r="B61" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C61" s="71"/>
       <c r="D61" s="26" t="s">
         <v>582</v>
@@ -7166,11 +7180,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12.75">
+    <row r="62" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A62" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B62" s="71"/>
+      <c r="B62" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C62" s="71"/>
       <c r="D62" s="26" t="s">
         <v>582</v>
@@ -7212,11 +7228,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12.75">
+    <row r="63" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="B63" s="71"/>
+      <c r="B63" s="83" t="s">
+        <v>599</v>
+      </c>
       <c r="C63" s="71"/>
       <c r="D63" s="26" t="s">
         <v>582</v>
@@ -7252,7 +7270,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75">
+    <row r="64" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7293,7 +7311,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75">
+    <row r="65" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7334,7 +7352,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75">
+    <row r="66" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7349,8 +7367,8 @@
       <c r="E66" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F66" s="9">
-        <v>5584</v>
+      <c r="F66" s="73">
+        <v>5819</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -7360,7 +7378,7 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" si="2"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="3"/>
@@ -7384,7 +7402,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75">
+    <row r="67" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7399,8 +7417,8 @@
       <c r="E67" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F67" s="9">
-        <v>3556</v>
+      <c r="F67" s="73">
+        <v>3689</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -7410,7 +7428,7 @@
       </c>
       <c r="I67" s="2">
         <f t="shared" ref="I67:I130" si="5">F67-J67</f>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J130" si="6">(K67-H67-O67)/2</f>
@@ -7434,7 +7452,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75">
+    <row r="68" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7449,8 +7467,8 @@
       <c r="E68" s="78" t="s">
         <v>581</v>
       </c>
-      <c r="F68" s="9">
-        <v>4492</v>
+      <c r="F68" s="73">
+        <v>4679</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -7460,7 +7478,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="6"/>
@@ -7484,7 +7502,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75">
+    <row r="69" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7532,7 +7550,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75">
+    <row r="70" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7549,8 +7567,8 @@
       <c r="E70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="9">
-        <v>5584</v>
+      <c r="F70" s="73">
+        <v>5819</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -7560,7 +7578,7 @@
       </c>
       <c r="I70" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="6"/>
@@ -7583,7 +7601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12.75">
+    <row r="71" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7600,8 +7618,8 @@
       <c r="E71" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="9">
-        <v>3556</v>
+      <c r="F71" s="73">
+        <v>3689</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -7611,7 +7629,7 @@
       </c>
       <c r="I71" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="6"/>
@@ -7634,7 +7652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75">
+    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7651,8 +7669,8 @@
       <c r="E72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="9">
-        <v>4492</v>
+      <c r="F72" s="73">
+        <v>4679</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -7662,7 +7680,7 @@
       </c>
       <c r="I72" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="6"/>
@@ -7686,7 +7704,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75">
+    <row r="73" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7738,7 +7756,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75">
+    <row r="74" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7755,8 +7773,8 @@
       <c r="E74" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="9">
-        <v>5584</v>
+      <c r="F74" s="73">
+        <v>5819</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -7766,7 +7784,7 @@
       </c>
       <c r="I74" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="6"/>
@@ -7790,7 +7808,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75">
+    <row r="75" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7807,8 +7825,8 @@
       <c r="E75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="9">
-        <v>3556</v>
+      <c r="F75" s="73">
+        <v>3689</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -7818,7 +7836,7 @@
       </c>
       <c r="I75" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="6"/>
@@ -7842,7 +7860,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75">
+    <row r="76" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7859,8 +7877,8 @@
       <c r="E76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="9">
-        <v>4492</v>
+      <c r="F76" s="73">
+        <v>4679</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -7870,7 +7888,7 @@
       </c>
       <c r="I76" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="6"/>
@@ -7894,7 +7912,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75">
+    <row r="77" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7946,7 +7964,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75">
+    <row r="78" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -7963,8 +7981,8 @@
       <c r="E78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="9">
-        <v>5584</v>
+      <c r="F78" s="73">
+        <v>5819</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -7974,7 +7992,7 @@
       </c>
       <c r="I78" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="6"/>
@@ -7998,7 +8016,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75">
+    <row r="79" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8015,8 +8033,8 @@
       <c r="E79" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="9">
-        <v>3556</v>
+      <c r="F79" s="73">
+        <v>3689</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -8026,7 +8044,7 @@
       </c>
       <c r="I79" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="6"/>
@@ -8050,7 +8068,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75">
+    <row r="80" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8067,8 +8085,8 @@
       <c r="E80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="9">
-        <v>4492</v>
+      <c r="F80" s="73">
+        <v>4679</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -8078,7 +8096,7 @@
       </c>
       <c r="I80" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="6"/>
@@ -8102,7 +8120,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75">
+    <row r="81" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8154,7 +8172,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75">
+    <row r="82" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8171,8 +8189,8 @@
       <c r="E82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="9">
-        <v>5584</v>
+      <c r="F82" s="73">
+        <v>5819</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>
@@ -8182,7 +8200,7 @@
       </c>
       <c r="I82" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="6"/>
@@ -8206,7 +8224,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75">
+    <row r="83" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8223,8 +8241,8 @@
       <c r="E83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="9">
-        <v>3556</v>
+      <c r="F83" s="73">
+        <v>3689</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -8234,7 +8252,7 @@
       </c>
       <c r="I83" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="6"/>
@@ -8258,7 +8276,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75">
+    <row r="84" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8275,8 +8293,8 @@
       <c r="E84" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="9">
-        <v>4492</v>
+      <c r="F84" s="73">
+        <v>4679</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -8286,7 +8304,7 @@
       </c>
       <c r="I84" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="6"/>
@@ -8310,7 +8328,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75">
+    <row r="85" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8362,7 +8380,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75">
+    <row r="86" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8379,8 +8397,8 @@
       <c r="E86" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="9">
-        <v>5584</v>
+      <c r="F86" s="73">
+        <v>5819</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -8390,7 +8408,7 @@
       </c>
       <c r="I86" s="2">
         <f t="shared" si="5"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="6"/>
@@ -8414,7 +8432,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75">
+    <row r="87" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8431,8 +8449,8 @@
       <c r="E87" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="9">
-        <v>3556</v>
+      <c r="F87" s="73">
+        <v>3689</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -8442,7 +8460,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" si="5"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="6"/>
@@ -8466,7 +8484,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75">
+    <row r="88" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8483,8 +8501,8 @@
       <c r="E88" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="9">
-        <v>4492</v>
+      <c r="F88" s="73">
+        <v>4679</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -8494,7 +8512,7 @@
       </c>
       <c r="I88" s="2">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="6"/>
@@ -8518,7 +8536,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75">
+    <row r="89" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8570,7 +8588,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75">
+    <row r="90" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8620,7 +8638,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75">
+    <row r="91" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A91" s="71" t="s">
         <v>576</v>
       </c>
@@ -8670,7 +8688,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75">
+    <row r="92" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8720,7 +8738,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75">
+    <row r="93" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8733,8 +8751,8 @@
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="9">
-        <v>5584</v>
+      <c r="F93" s="73">
+        <v>5819</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>16</v>
@@ -8744,7 +8762,7 @@
       </c>
       <c r="I93" s="2">
         <f t="shared" si="5"/>
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="6"/>
@@ -8768,7 +8786,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75">
+    <row r="94" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8781,8 +8799,8 @@
       <c r="E94" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="9">
-        <v>3556</v>
+      <c r="F94" s="73">
+        <v>3689</v>
       </c>
       <c r="G94" s="38" t="s">
         <v>16</v>
@@ -8792,7 +8810,7 @@
       </c>
       <c r="I94" s="2">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="6"/>
@@ -8816,7 +8834,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75">
+    <row r="95" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8829,8 +8847,8 @@
       <c r="E95" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="9">
-        <v>4492</v>
+      <c r="F95" s="73">
+        <v>4679</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>16</v>
@@ -8840,7 +8858,7 @@
       </c>
       <c r="I95" s="2">
         <f t="shared" si="5"/>
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="6"/>
@@ -8864,7 +8882,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="12.75">
+    <row r="96" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8877,8 +8895,8 @@
       <c r="E96" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="9">
-        <v>5584</v>
+      <c r="F96" s="73">
+        <v>5819</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -8888,7 +8906,7 @@
       </c>
       <c r="I96" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="6"/>
@@ -8912,7 +8930,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="12.75">
+    <row r="97" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8925,8 +8943,8 @@
       <c r="E97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="9">
-        <v>5584</v>
+      <c r="F97" s="73">
+        <v>5819</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -8936,7 +8954,7 @@
       </c>
       <c r="I97" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="6"/>
@@ -8960,7 +8978,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="12.75">
+    <row r="98" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -8973,8 +8991,8 @@
       <c r="E98" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="9">
-        <v>3556</v>
+      <c r="F98" s="73">
+        <v>3689</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>24</v>
@@ -8984,7 +9002,7 @@
       </c>
       <c r="I98" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="6"/>
@@ -9008,7 +9026,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="12.75">
+    <row r="99" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9021,8 +9039,8 @@
       <c r="E99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F99" s="9">
-        <v>3556</v>
+      <c r="F99" s="73">
+        <v>3689</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>24</v>
@@ -9032,7 +9050,7 @@
       </c>
       <c r="I99" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="6"/>
@@ -9056,7 +9074,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75">
+    <row r="100" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9069,8 +9087,8 @@
       <c r="E100" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="9">
-        <v>4492</v>
+      <c r="F100" s="73">
+        <v>4679</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>24</v>
@@ -9080,7 +9098,7 @@
       </c>
       <c r="I100" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="6"/>
@@ -9104,7 +9122,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75">
+    <row r="101" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9117,8 +9135,8 @@
       <c r="E101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F101" s="9">
-        <v>4492</v>
+      <c r="F101" s="73">
+        <v>4679</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>24</v>
@@ -9128,7 +9146,7 @@
       </c>
       <c r="I101" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="6"/>
@@ -9152,7 +9170,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="12.75">
+    <row r="102" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9204,7 +9222,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="12.75">
+    <row r="103" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9256,7 +9274,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="12.75">
+    <row r="104" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9308,7 +9326,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="12.75">
+    <row r="105" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9325,8 +9343,8 @@
       <c r="E105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="9">
-        <v>2595</v>
+      <c r="F105" s="73">
+        <v>3029</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>16</v>
@@ -9336,7 +9354,7 @@
       </c>
       <c r="I105" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>804</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="6"/>
@@ -9360,7 +9378,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="12.75">
+    <row r="106" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9408,7 +9426,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="12.75">
+    <row r="107" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9456,7 +9474,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75">
+    <row r="108" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9504,7 +9522,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="12.75">
+    <row r="109" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9551,7 +9569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12.75">
+    <row r="110" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9598,7 +9616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12.75">
+    <row r="111" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9645,7 +9663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12.75">
+    <row r="112" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9692,7 +9710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75">
+    <row r="113" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9739,7 +9757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75">
+    <row r="114" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9752,8 +9770,8 @@
       <c r="E114" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="9">
-        <v>5584</v>
+      <c r="F114" s="73">
+        <v>5819</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>24</v>
@@ -9763,7 +9781,7 @@
       </c>
       <c r="I114" s="2">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>894</v>
       </c>
       <c r="J114" s="2">
         <f t="shared" si="6"/>
@@ -9786,7 +9804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75">
+    <row r="115" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9799,8 +9817,8 @@
       <c r="E115" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="9">
-        <v>3556</v>
+      <c r="F115" s="73">
+        <v>3689</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>24</v>
@@ -9810,7 +9828,7 @@
       </c>
       <c r="I115" s="2">
         <f t="shared" si="5"/>
-        <v>-39</v>
+        <v>94</v>
       </c>
       <c r="J115" s="2">
         <f t="shared" si="6"/>
@@ -9833,7 +9851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75">
+    <row r="116" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9846,8 +9864,8 @@
       <c r="E116" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F116" s="9">
-        <v>4492</v>
+      <c r="F116" s="73">
+        <v>4679</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>24</v>
@@ -9857,7 +9875,7 @@
       </c>
       <c r="I116" s="2">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" si="6"/>
@@ -9880,7 +9898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75">
+    <row r="117" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9893,8 +9911,8 @@
       <c r="E117" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F117" s="9">
-        <v>2695</v>
+      <c r="F117" s="73">
+        <v>3029</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>24</v>
@@ -9904,7 +9922,7 @@
       </c>
       <c r="I117" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="6"/>
@@ -9927,7 +9945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75">
+    <row r="118" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9940,8 +9958,8 @@
       <c r="E118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="9">
-        <v>2695</v>
+      <c r="F118" s="73">
+        <v>3029</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>24</v>
@@ -9951,7 +9969,7 @@
       </c>
       <c r="I118" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" si="6"/>
@@ -9974,7 +9992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75">
+    <row r="119" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -9987,8 +10005,8 @@
       <c r="E119" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F119" s="9">
-        <v>5584</v>
+      <c r="F119" s="73">
+        <v>5819</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>19</v>
@@ -9998,7 +10016,7 @@
       </c>
       <c r="I119" s="2">
         <f t="shared" si="5"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" si="6"/>
@@ -10021,7 +10039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75">
+    <row r="120" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10034,8 +10052,8 @@
       <c r="E120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F120" s="9">
-        <v>3556</v>
+      <c r="F120" s="73">
+        <v>3689</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>19</v>
@@ -10045,7 +10063,7 @@
       </c>
       <c r="I120" s="2">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="6"/>
@@ -10068,7 +10086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75">
+    <row r="121" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10081,8 +10099,8 @@
       <c r="E121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="9">
-        <v>4492</v>
+      <c r="F121" s="73">
+        <v>4679</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>19</v>
@@ -10092,7 +10110,7 @@
       </c>
       <c r="I121" s="2">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J121" s="2">
         <f t="shared" si="6"/>
@@ -10115,7 +10133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75">
+    <row r="122" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10128,8 +10146,8 @@
       <c r="E122" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F122" s="9">
-        <v>2695</v>
+      <c r="F122" s="73">
+        <v>3029</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>24</v>
@@ -10139,7 +10157,7 @@
       </c>
       <c r="I122" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" si="6"/>
@@ -10162,7 +10180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75">
+    <row r="123" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10175,8 +10193,8 @@
       <c r="E123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F123" s="9">
-        <v>2695</v>
+      <c r="F123" s="73">
+        <v>3029</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>24</v>
@@ -10186,7 +10204,7 @@
       </c>
       <c r="I123" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="6"/>
@@ -10209,7 +10227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75">
+    <row r="124" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10254,7 +10272,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="12.75">
+    <row r="125" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10267,8 +10285,8 @@
       <c r="E125" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F125" s="9">
-        <v>5584</v>
+      <c r="F125" s="73">
+        <v>5819</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>19</v>
@@ -10278,7 +10296,7 @@
       </c>
       <c r="I125" s="2">
         <f t="shared" si="5"/>
-        <v>884</v>
+        <v>1119</v>
       </c>
       <c r="J125" s="2">
         <f t="shared" si="6"/>
@@ -10301,7 +10319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75">
+    <row r="126" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10314,8 +10332,8 @@
       <c r="E126" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F126" s="9">
-        <v>3556</v>
+      <c r="F126" s="73">
+        <v>3689</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>19</v>
@@ -10325,7 +10343,7 @@
       </c>
       <c r="I126" s="2">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" si="6"/>
@@ -10348,7 +10366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75">
+    <row r="127" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10361,8 +10379,8 @@
       <c r="E127" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F127" s="9">
-        <v>4492</v>
+      <c r="F127" s="73">
+        <v>4679</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
@@ -10372,7 +10390,7 @@
       </c>
       <c r="I127" s="2">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>579</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" si="6"/>
@@ -10395,7 +10413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75">
+    <row r="128" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10408,8 +10426,8 @@
       <c r="E128" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F128" s="9">
-        <v>2695</v>
+      <c r="F128" s="73">
+        <v>3029</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>24</v>
@@ -10419,7 +10437,7 @@
       </c>
       <c r="I128" s="2">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" si="6"/>
@@ -10440,7 +10458,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="12.75">
+    <row r="129" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10485,7 +10503,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="12.75">
+    <row r="130" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10530,7 +10548,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="12.75">
+    <row r="131" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10547,8 +10565,8 @@
       <c r="E131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F131" s="9">
-        <v>5584</v>
+      <c r="F131" s="73">
+        <v>5819</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>21</v>
@@ -10558,7 +10576,7 @@
       </c>
       <c r="I131" s="2">
         <f t="shared" ref="I131:I165" si="9">F131-J131</f>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ref="J131:J165" si="10">(K131-H131-O131)/2</f>
@@ -10581,7 +10599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75">
+    <row r="132" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10598,8 +10616,8 @@
       <c r="E132" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F132" s="9">
-        <v>3556</v>
+      <c r="F132" s="73">
+        <v>3689</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>21</v>
@@ -10609,7 +10627,7 @@
       </c>
       <c r="I132" s="2">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" si="10"/>
@@ -10632,7 +10650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75">
+    <row r="133" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10649,8 +10667,8 @@
       <c r="E133" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F133" s="9">
-        <v>4492</v>
+      <c r="F133" s="73">
+        <v>4679</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>21</v>
@@ -10660,7 +10678,7 @@
       </c>
       <c r="I133" s="2">
         <f t="shared" si="9"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" si="10"/>
@@ -10683,7 +10701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75">
+    <row r="134" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10696,8 +10714,8 @@
       <c r="E134" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="9">
-        <v>2695</v>
+      <c r="F134" s="73">
+        <v>3029</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>24</v>
@@ -10707,7 +10725,7 @@
       </c>
       <c r="I134" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J134" s="2">
         <f t="shared" si="10"/>
@@ -10728,7 +10746,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="12.75">
+    <row r="135" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10773,7 +10791,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="12.75">
+    <row r="136" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10818,7 +10836,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="12.75">
+    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10831,8 +10849,8 @@
       <c r="E137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="9">
-        <v>2695</v>
+      <c r="F137" s="73">
+        <v>3029</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>24</v>
@@ -10842,7 +10860,7 @@
       </c>
       <c r="I137" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J137" s="2">
         <f t="shared" si="10"/>
@@ -10863,7 +10881,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="12.75">
+    <row r="138" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10910,7 +10928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75">
+    <row r="139" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10957,7 +10975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75">
+    <row r="140" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -10970,8 +10988,8 @@
       <c r="E140" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F140" s="9">
-        <v>2695</v>
+      <c r="F140" s="73">
+        <v>3029</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>24</v>
@@ -10981,7 +10999,7 @@
       </c>
       <c r="I140" s="2">
         <f t="shared" si="9"/>
-        <v>370</v>
+        <v>704</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" si="10"/>
@@ -11004,7 +11022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75">
+    <row r="141" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11021,8 +11039,8 @@
       <c r="E141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F141" s="9">
-        <v>5584</v>
+      <c r="F141" s="73">
+        <v>5819</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>21</v>
@@ -11032,7 +11050,7 @@
       </c>
       <c r="I141" s="2">
         <f t="shared" si="9"/>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="J141" s="2">
         <f t="shared" si="10"/>
@@ -11055,7 +11073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75">
+    <row r="142" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11072,8 +11090,8 @@
       <c r="E142" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F142" s="9">
-        <v>3556</v>
+      <c r="F142" s="73">
+        <v>3689</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>21</v>
@@ -11083,7 +11101,7 @@
       </c>
       <c r="I142" s="2">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" si="10"/>
@@ -11106,7 +11124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75">
+    <row r="143" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11123,8 +11141,8 @@
       <c r="E143" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F143" s="9">
-        <v>4492</v>
+      <c r="F143" s="73">
+        <v>4679</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>21</v>
@@ -11134,7 +11152,7 @@
       </c>
       <c r="I143" s="2">
         <f t="shared" si="9"/>
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" si="10"/>
@@ -11157,11 +11175,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75">
+    <row r="144" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B144" s="71"/>
+      <c r="B144" s="80" t="s">
+        <v>594</v>
+      </c>
       <c r="C144" s="71"/>
       <c r="D144" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11204,11 +11224,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75">
+    <row r="145" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B145" s="71"/>
+      <c r="B145" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C145" s="71"/>
       <c r="D145" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11251,11 +11273,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75">
+    <row r="146" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B146" s="71"/>
+      <c r="B146" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11298,11 +11322,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75">
+    <row r="147" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="B147" s="71"/>
+      <c r="B147" s="83" t="s">
+        <v>599</v>
+      </c>
       <c r="C147" s="71"/>
       <c r="D147" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11339,11 +11365,13 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="12.75">
+    <row r="148" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="B148" s="71"/>
+      <c r="B148" s="80" t="s">
+        <v>595</v>
+      </c>
       <c r="C148" s="71"/>
       <c r="D148" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11380,11 +11408,13 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="12.75">
+    <row r="149" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B149" s="71"/>
+      <c r="B149" s="80" t="s">
+        <v>596</v>
+      </c>
       <c r="C149" s="71"/>
       <c r="D149" s="26" t="str">
         <f t="shared" si="8"/>
@@ -11421,7 +11451,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="12.75">
+    <row r="150" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11438,8 +11468,8 @@
       <c r="E150" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F150" s="9">
-        <v>5584</v>
+      <c r="F150" s="73">
+        <v>5819</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>21</v>
@@ -11449,7 +11479,7 @@
       </c>
       <c r="I150" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J150" s="2">
         <f t="shared" si="10"/>
@@ -11472,7 +11502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75">
+    <row r="151" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11489,8 +11519,8 @@
       <c r="E151" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F151" s="9">
-        <v>3556</v>
+      <c r="F151" s="73">
+        <v>3689</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>21</v>
@@ -11500,7 +11530,7 @@
       </c>
       <c r="I151" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J151" s="2">
         <f t="shared" si="10"/>
@@ -11523,7 +11553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75">
+    <row r="152" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11540,8 +11570,8 @@
       <c r="E152" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F152" s="9">
-        <v>4492</v>
+      <c r="F152" s="73">
+        <v>4679</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>21</v>
@@ -11551,7 +11581,7 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J152" s="2">
         <f t="shared" si="10"/>
@@ -11574,7 +11604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75">
+    <row r="153" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11621,7 +11651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75">
+    <row r="154" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11638,8 +11668,8 @@
       <c r="E154" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F154" s="9">
-        <v>5584</v>
+      <c r="F154" s="73">
+        <v>5819</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>21</v>
@@ -11649,7 +11679,7 @@
       </c>
       <c r="I154" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J154" s="2">
         <f t="shared" si="10"/>
@@ -11672,7 +11702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75">
+    <row r="155" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11689,8 +11719,8 @@
       <c r="E155" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F155" s="9">
-        <v>3556</v>
+      <c r="F155" s="73">
+        <v>3689</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>21</v>
@@ -11700,7 +11730,7 @@
       </c>
       <c r="I155" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J155" s="2">
         <f t="shared" si="10"/>
@@ -11723,7 +11753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75">
+    <row r="156" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11740,8 +11770,8 @@
       <c r="E156" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F156" s="9">
-        <v>4492</v>
+      <c r="F156" s="73">
+        <v>4679</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>21</v>
@@ -11751,7 +11781,7 @@
       </c>
       <c r="I156" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J156" s="2">
         <f t="shared" si="10"/>
@@ -11774,7 +11804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75">
+    <row r="157" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11821,7 +11851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75">
+    <row r="158" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11838,8 +11868,8 @@
       <c r="E158" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F158" s="9">
-        <v>5584</v>
+      <c r="F158" s="73">
+        <v>5819</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>21</v>
@@ -11849,7 +11879,7 @@
       </c>
       <c r="I158" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" si="10"/>
@@ -11872,7 +11902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75">
+    <row r="159" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11889,8 +11919,8 @@
       <c r="E159" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F159" s="9">
-        <v>3556</v>
+      <c r="F159" s="73">
+        <v>3689</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>21</v>
@@ -11900,7 +11930,7 @@
       </c>
       <c r="I159" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" si="10"/>
@@ -11923,7 +11953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75">
+    <row r="160" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -11940,8 +11970,8 @@
       <c r="E160" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F160" s="9">
-        <v>4492</v>
+      <c r="F160" s="73">
+        <v>4679</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>21</v>
@@ -11951,7 +11981,7 @@
       </c>
       <c r="I160" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J160" s="2">
         <f t="shared" si="10"/>
@@ -11974,7 +12004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75">
+    <row r="161" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12021,7 +12051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75">
+    <row r="162" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12038,8 +12068,8 @@
       <c r="E162" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F162" s="9">
-        <v>5584</v>
+      <c r="F162" s="73">
+        <v>5819</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>21</v>
@@ -12049,7 +12079,7 @@
       </c>
       <c r="I162" s="2">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2599</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" si="10"/>
@@ -12072,7 +12102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75">
+    <row r="163" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12089,8 +12119,8 @@
       <c r="E163" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F163" s="9">
-        <v>3556</v>
+      <c r="F163" s="73">
+        <v>3689</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>21</v>
@@ -12100,7 +12130,7 @@
       </c>
       <c r="I163" s="2">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" si="10"/>
@@ -12123,7 +12153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75">
+    <row r="164" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12140,8 +12170,8 @@
       <c r="E164" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F164" s="9">
-        <v>4492</v>
+      <c r="F164" s="73">
+        <v>4679</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>21</v>
@@ -12151,7 +12181,7 @@
       </c>
       <c r="I164" s="2">
         <f t="shared" si="9"/>
-        <v>1772</v>
+        <v>1959</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" si="10"/>
@@ -12174,7 +12204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75">
+    <row r="165" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>
@@ -12221,7 +12251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75">
+    <row r="166" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -12239,7 +12269,7 @@
       <c r="O166" s="16"/>
       <c r="P166" s="9"/>
     </row>
-    <row r="167" spans="1:16" ht="12.75">
+    <row r="167" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -12257,7 +12287,7 @@
       <c r="O167" s="16"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="12.75">
+    <row r="168" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -12275,7 +12305,7 @@
       <c r="O168" s="16"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="12.75">
+    <row r="169" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -12293,7 +12323,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="12.75">
+    <row r="170" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -12311,7 +12341,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="9"/>
     </row>
-    <row r="171" spans="1:16" ht="12.75">
+    <row r="171" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -12329,7 +12359,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="12.75">
+    <row r="172" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -12347,7 +12377,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="12.75">
+    <row r="173" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -12365,7 +12395,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="12.75">
+    <row r="174" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -12383,7 +12413,7 @@
       <c r="O174" s="16"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="12.75">
+    <row r="175" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -12401,7 +12431,7 @@
       <c r="O175" s="16"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="12.75">
+    <row r="176" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -12419,7 +12449,7 @@
       <c r="O176" s="16"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="12.75">
+    <row r="177" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -12437,7 +12467,7 @@
       <c r="O177" s="16"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:16" ht="12.75">
+    <row r="178" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -12455,7 +12485,7 @@
       <c r="O178" s="16"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" ht="12.75">
+    <row r="179" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -12473,7 +12503,7 @@
       <c r="O179" s="16"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:16" ht="12.75">
+    <row r="180" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -12491,7 +12521,7 @@
       <c r="O180" s="16"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:16" ht="12.75">
+    <row r="181" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -12509,7 +12539,7 @@
       <c r="O181" s="16"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:16" ht="12.75">
+    <row r="182" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -12527,7 +12557,7 @@
       <c r="O182" s="16"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:16" ht="12.75">
+    <row r="183" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -12545,7 +12575,7 @@
       <c r="O183" s="16"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:16" ht="12.75">
+    <row r="184" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="55"/>
@@ -12563,7 +12593,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="12.75">
+    <row r="185" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="55"/>
@@ -12581,7 +12611,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" ht="12.75">
+    <row r="186" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="55"/>
@@ -12599,7 +12629,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="20"/>
     </row>
-    <row r="187" spans="1:16" ht="12.75">
+    <row r="187" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -12617,7 +12647,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="20"/>
     </row>
-    <row r="188" spans="1:16" ht="12.75">
+    <row r="188" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -12635,7 +12665,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="1:16" ht="12.75">
+    <row r="189" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -12653,7 +12683,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="20"/>
     </row>
-    <row r="190" spans="1:16" ht="12.75">
+    <row r="190" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -12671,7 +12701,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="12.75">
+    <row r="191" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -12689,7 +12719,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="12.75">
+    <row r="192" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -12707,7 +12737,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:16" ht="12.75">
+    <row r="193" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -12725,7 +12755,7 @@
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" ht="12.75">
+    <row r="194" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -12743,7 +12773,7 @@
       <c r="O194" s="16"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:16" ht="12.75">
+    <row r="195" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -12761,7 +12791,7 @@
       <c r="O195" s="16"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:16" ht="12.75">
+    <row r="196" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -12779,7 +12809,7 @@
       <c r="O196" s="16"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="12.75">
+    <row r="197" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -12797,7 +12827,7 @@
       <c r="O197" s="16"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="12.75">
+    <row r="198" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -12815,7 +12845,7 @@
       <c r="O198" s="16"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:16" ht="12.75">
+    <row r="199" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12833,7 +12863,7 @@
       <c r="O199" s="16"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:16" ht="12.75">
+    <row r="200" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12851,7 +12881,7 @@
       <c r="O200" s="16"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="12.75">
+    <row r="201" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12869,7 +12899,7 @@
       <c r="O201" s="16"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="12.75">
+    <row r="202" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12887,7 +12917,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:16" ht="12.75">
+    <row r="203" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12905,7 +12935,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:16" ht="12.75">
+    <row r="204" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12923,7 +12953,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16" ht="12.75">
+    <row r="205" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12941,7 +12971,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16" ht="12.75">
+    <row r="206" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12959,7 +12989,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16" ht="12.75">
+    <row r="207" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12977,7 +13007,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="12.75">
+    <row r="208" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12995,7 +13025,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="12.75">
+    <row r="209" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -13013,7 +13043,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16" ht="12.75">
+    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -13031,7 +13061,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16" ht="12.75">
+    <row r="211" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -13049,7 +13079,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16" ht="12.75">
+    <row r="212" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -13067,7 +13097,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="12.75">
+    <row r="213" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -13085,7 +13115,7 @@
       <c r="O213" s="16"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="12.75">
+    <row r="214" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -13103,7 +13133,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" ht="12.75">
+    <row r="215" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -13121,7 +13151,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" ht="12.75">
+    <row r="216" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13139,7 +13169,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="12.75">
+    <row r="217" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -13157,7 +13187,7 @@
       <c r="O217" s="16"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" ht="12.75">
+    <row r="218" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -13175,7 +13205,7 @@
       <c r="O218" s="16"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" ht="12.75">
+    <row r="219" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -13193,7 +13223,7 @@
       <c r="O219" s="16"/>
       <c r="P219" s="9"/>
     </row>
-    <row r="220" spans="1:16" ht="12.75">
+    <row r="220" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -13211,7 +13241,7 @@
       <c r="O220" s="16"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:16" ht="12.75">
+    <row r="221" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -13229,7 +13259,7 @@
       <c r="O221" s="16"/>
       <c r="P221" s="9"/>
     </row>
-    <row r="222" spans="1:16" ht="12.75">
+    <row r="222" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -13247,7 +13277,7 @@
       <c r="O222" s="16"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" ht="12.75">
+    <row r="223" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -13265,7 +13295,7 @@
       <c r="O223" s="16"/>
       <c r="P223" s="9"/>
     </row>
-    <row r="224" spans="1:16" ht="12.75">
+    <row r="224" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -13283,7 +13313,7 @@
       <c r="O224" s="16"/>
       <c r="P224" s="9"/>
     </row>
-    <row r="225" spans="1:17" ht="12.75">
+    <row r="225" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -13302,7 +13332,7 @@
       <c r="P225" s="9"/>
       <c r="Q225" s="41"/>
     </row>
-    <row r="226" spans="1:17" ht="12.75">
+    <row r="226" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="55"/>
@@ -13321,7 +13351,7 @@
       <c r="P226" s="20"/>
       <c r="Q226" s="41"/>
     </row>
-    <row r="227" spans="1:17" ht="12.75">
+    <row r="227" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="55"/>
@@ -13340,7 +13370,7 @@
       <c r="P227" s="20"/>
       <c r="Q227" s="41"/>
     </row>
-    <row r="228" spans="1:17" ht="12.75">
+    <row r="228" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="55"/>
@@ -13358,7 +13388,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="1:17" ht="12.75">
+    <row r="229" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13376,7 +13406,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="1:17" ht="12.75">
+    <row r="230" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13394,7 +13424,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="1:17" ht="12.75">
+    <row r="231" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13412,7 +13442,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="1:17" ht="12.75">
+    <row r="232" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13430,7 +13460,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:17" ht="12.75">
+    <row r="233" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13448,7 +13478,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:17" ht="12.75">
+    <row r="234" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13466,7 +13496,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:17" ht="12.75">
+    <row r="235" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13484,7 +13514,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:17" ht="12.75">
+    <row r="236" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13502,7 +13532,7 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:17" ht="12.75">
+    <row r="237" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13520,7 +13550,7 @@
       <c r="O237" s="16"/>
       <c r="P237" s="9"/>
     </row>
-    <row r="238" spans="1:17" ht="12.75">
+    <row r="238" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13538,7 +13568,7 @@
       <c r="O238" s="16"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:17" ht="12.75">
+    <row r="239" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13556,7 +13586,7 @@
       <c r="O239" s="16"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:17" ht="12.75">
+    <row r="240" spans="1:17" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13574,7 +13604,7 @@
       <c r="O240" s="16"/>
       <c r="P240" s="9"/>
     </row>
-    <row r="241" spans="1:16" ht="12.75">
+    <row r="241" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13592,7 +13622,7 @@
       <c r="O241" s="16"/>
       <c r="P241" s="9"/>
     </row>
-    <row r="242" spans="1:16" ht="12.75">
+    <row r="242" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13610,7 +13640,7 @@
       <c r="O242" s="16"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" ht="12.75">
+    <row r="243" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13628,7 +13658,7 @@
       <c r="O243" s="16"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" ht="12.75">
+    <row r="244" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13646,7 +13676,7 @@
       <c r="O244" s="16"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" ht="12.75">
+    <row r="245" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13664,7 +13694,7 @@
       <c r="O245" s="16"/>
       <c r="P245" s="9"/>
     </row>
-    <row r="246" spans="1:16" ht="12.75">
+    <row r="246" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13682,7 +13712,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="1:16" ht="12.75">
+    <row r="247" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13700,7 +13730,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="1:16" ht="12.75">
+    <row r="248" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13718,7 +13748,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="1:16" ht="12.75">
+    <row r="249" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13736,7 +13766,7 @@
       <c r="O249" s="16"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" ht="12.75">
+    <row r="250" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13754,7 +13784,7 @@
       <c r="O250" s="16"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16" ht="12.75">
+    <row r="251" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13772,7 +13802,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="1:16" ht="12.75">
+    <row r="252" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13790,7 +13820,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="1:16" ht="12.75">
+    <row r="253" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13808,7 +13838,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="1:16" ht="12.75">
+    <row r="254" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13826,7 +13856,7 @@
       <c r="O254" s="16"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" ht="12.75">
+    <row r="255" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13844,7 +13874,7 @@
       <c r="O255" s="16"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" ht="12.75">
+    <row r="256" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13862,7 +13892,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="1:16" ht="12.75">
+    <row r="257" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13880,7 +13910,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="1:16" ht="12.75">
+    <row r="258" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13898,7 +13928,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="1:16" ht="12.75">
+    <row r="259" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13916,7 +13946,7 @@
       <c r="O259" s="16"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16" ht="12.75">
+    <row r="260" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13934,7 +13964,7 @@
       <c r="O260" s="16"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16" ht="12.75">
+    <row r="261" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13952,7 +13982,7 @@
       <c r="O261" s="16"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:16" ht="12.75">
+    <row r="262" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13970,7 +14000,7 @@
       <c r="O262" s="16"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:16" ht="12.75">
+    <row r="263" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13988,7 +14018,7 @@
       <c r="O263" s="16"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:16" ht="12.75">
+    <row r="264" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14006,7 +14036,7 @@
       <c r="O264" s="16"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:16" ht="12.75">
+    <row r="265" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14024,7 +14054,7 @@
       <c r="O265" s="16"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:16" ht="12.75">
+    <row r="266" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14042,7 +14072,7 @@
       <c r="O266" s="16"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" ht="12.75">
+    <row r="267" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14060,7 +14090,7 @@
       <c r="O267" s="16"/>
       <c r="P267" s="9"/>
     </row>
-    <row r="268" spans="1:16" ht="12.75">
+    <row r="268" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14078,7 +14108,7 @@
       <c r="O268" s="16"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:16" ht="12.75">
+    <row r="269" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="55"/>
@@ -14096,7 +14126,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="1:16" ht="12.75">
+    <row r="270" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="55"/>
@@ -14114,7 +14144,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="1:16" ht="12.75">
+    <row r="271" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="55"/>
@@ -14132,7 +14162,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="1:16" ht="12.75">
+    <row r="272" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14150,7 +14180,7 @@
       <c r="O272" s="41"/>
       <c r="P272" s="41"/>
     </row>
-    <row r="273" spans="1:16" ht="12.75">
+    <row r="273" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -14168,7 +14198,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="12.75">
+    <row r="274" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -14186,7 +14216,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="12.75">
+    <row r="275" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -14204,7 +14234,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="12.75">
+    <row r="276" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -14222,7 +14252,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="12.75">
+    <row r="277" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -14240,7 +14270,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="12.75">
+    <row r="278" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -14258,7 +14288,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="12.75">
+    <row r="279" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -14276,7 +14306,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="12.75">
+    <row r="280" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -14294,7 +14324,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="12.75">
+    <row r="281" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -14312,7 +14342,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="12.75">
+    <row r="282" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -14330,7 +14360,7 @@
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
     </row>
-    <row r="283" spans="1:16" ht="12.75">
+    <row r="283" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A283" s="59"/>
       <c r="B283" s="59"/>
       <c r="C283" s="59"/>
@@ -14348,7 +14378,7 @@
       <c r="O283" s="63"/>
       <c r="P283" s="61"/>
     </row>
-    <row r="284" spans="1:16" ht="12.75">
+    <row r="284" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A284" s="59"/>
       <c r="B284" s="59"/>
       <c r="C284" s="59"/>
@@ -14366,7 +14396,7 @@
       <c r="O284" s="63"/>
       <c r="P284" s="61"/>
     </row>
-    <row r="285" spans="1:16" ht="12.75">
+    <row r="285" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A285" s="59"/>
       <c r="B285" s="59"/>
       <c r="C285" s="59"/>
@@ -14384,7 +14414,7 @@
       <c r="O285" s="63"/>
       <c r="P285" s="61"/>
     </row>
-    <row r="286" spans="1:16" ht="12.75">
+    <row r="286" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A286" s="59"/>
       <c r="B286" s="59"/>
       <c r="C286" s="59"/>
@@ -14402,7 +14432,7 @@
       <c r="O286" s="63"/>
       <c r="P286" s="61"/>
     </row>
-    <row r="287" spans="1:16" ht="12.75">
+    <row r="287" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A287" s="59"/>
       <c r="B287" s="59"/>
       <c r="C287" s="59"/>
@@ -14420,7 +14450,7 @@
       <c r="O287" s="63"/>
       <c r="P287" s="61"/>
     </row>
-    <row r="288" spans="1:16" ht="12.75">
+    <row r="288" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A288" s="59"/>
       <c r="B288" s="59"/>
       <c r="C288" s="59"/>
@@ -14438,7 +14468,7 @@
       <c r="O288" s="63"/>
       <c r="P288" s="61"/>
     </row>
-    <row r="289" spans="1:16" ht="12.75">
+    <row r="289" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A289" s="59"/>
       <c r="B289" s="59"/>
       <c r="C289" s="59"/>
@@ -14456,7 +14486,7 @@
       <c r="O289" s="63"/>
       <c r="P289" s="61"/>
     </row>
-    <row r="290" spans="1:16" ht="12.75">
+    <row r="290" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A290" s="59"/>
       <c r="B290" s="59"/>
       <c r="C290" s="59"/>
@@ -14474,7 +14504,7 @@
       <c r="O290" s="63"/>
       <c r="P290" s="61"/>
     </row>
-    <row r="291" spans="1:16" ht="12.75">
+    <row r="291" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A291" s="59"/>
       <c r="B291" s="59"/>
       <c r="C291" s="59"/>
@@ -14492,7 +14522,7 @@
       <c r="O291" s="63"/>
       <c r="P291" s="61"/>
     </row>
-    <row r="292" spans="1:16" ht="12.75">
+    <row r="292" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A292" s="59"/>
       <c r="B292" s="59"/>
       <c r="C292" s="59"/>
@@ -14510,7 +14540,7 @@
       <c r="O292" s="63"/>
       <c r="P292" s="61"/>
     </row>
-    <row r="293" spans="1:16" ht="12.75">
+    <row r="293" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A293" s="59"/>
       <c r="B293" s="59"/>
       <c r="C293" s="59"/>
@@ -14528,7 +14558,7 @@
       <c r="O293" s="63"/>
       <c r="P293" s="61"/>
     </row>
-    <row r="294" spans="1:16" ht="12.75">
+    <row r="294" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A294" s="59"/>
       <c r="B294" s="59"/>
       <c r="C294" s="59"/>
@@ -14546,7 +14576,7 @@
       <c r="O294" s="63"/>
       <c r="P294" s="61"/>
     </row>
-    <row r="295" spans="1:16" ht="12.75">
+    <row r="295" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A295" s="59"/>
       <c r="B295" s="59"/>
       <c r="C295" s="59"/>
@@ -14564,7 +14594,7 @@
       <c r="O295" s="63"/>
       <c r="P295" s="61"/>
     </row>
-    <row r="296" spans="1:16" ht="12.75">
+    <row r="296" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A296" s="59"/>
       <c r="B296" s="59"/>
       <c r="C296" s="59"/>
@@ -14582,7 +14612,7 @@
       <c r="O296" s="63"/>
       <c r="P296" s="61"/>
     </row>
-    <row r="297" spans="1:16" ht="12.75">
+    <row r="297" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A297" s="59"/>
       <c r="B297" s="59"/>
       <c r="C297" s="59"/>
@@ -14600,7 +14630,7 @@
       <c r="O297" s="63"/>
       <c r="P297" s="61"/>
     </row>
-    <row r="298" spans="1:16" ht="12.75">
+    <row r="298" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A298" s="59"/>
       <c r="B298" s="59"/>
       <c r="C298" s="59"/>
@@ -14618,7 +14648,7 @@
       <c r="O298" s="63"/>
       <c r="P298" s="61"/>
     </row>
-    <row r="299" spans="1:16" ht="12.75">
+    <row r="299" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A299" s="59"/>
       <c r="B299" s="59"/>
       <c r="C299" s="59"/>
@@ -14636,7 +14666,7 @@
       <c r="O299" s="63"/>
       <c r="P299" s="61"/>
     </row>
-    <row r="300" spans="1:16" ht="12.75">
+    <row r="300" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A300" s="59"/>
       <c r="B300" s="59"/>
       <c r="C300" s="59"/>
@@ -14654,7 +14684,7 @@
       <c r="O300" s="63"/>
       <c r="P300" s="61"/>
     </row>
-    <row r="301" spans="1:16" ht="12.75">
+    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A301" s="59"/>
       <c r="B301" s="59"/>
       <c r="C301" s="59"/>
@@ -14672,7 +14702,7 @@
       <c r="O301" s="63"/>
       <c r="P301" s="61"/>
     </row>
-    <row r="302" spans="1:16" ht="12.75">
+    <row r="302" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A302" s="59"/>
       <c r="B302" s="59"/>
       <c r="C302" s="59"/>
@@ -14690,7 +14720,7 @@
       <c r="O302" s="63"/>
       <c r="P302" s="61"/>
     </row>
-    <row r="303" spans="1:16" ht="12.75">
+    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A303" s="59"/>
       <c r="B303" s="59"/>
       <c r="C303" s="59"/>
@@ -14708,7 +14738,7 @@
       <c r="O303" s="63"/>
       <c r="P303" s="61"/>
     </row>
-    <row r="304" spans="1:16" ht="12.75">
+    <row r="304" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A304" s="59"/>
       <c r="B304" s="59"/>
       <c r="C304" s="59"/>
@@ -14726,7 +14756,7 @@
       <c r="O304" s="63"/>
       <c r="P304" s="61"/>
     </row>
-    <row r="305" spans="1:16" ht="12.75">
+    <row r="305" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A305" s="59"/>
       <c r="B305" s="59"/>
       <c r="C305" s="59"/>
@@ -14744,7 +14774,7 @@
       <c r="O305" s="63"/>
       <c r="P305" s="61"/>
     </row>
-    <row r="306" spans="1:16" ht="12.75">
+    <row r="306" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A306" s="59"/>
       <c r="B306" s="59"/>
       <c r="C306" s="59"/>
@@ -14762,7 +14792,7 @@
       <c r="O306" s="63"/>
       <c r="P306" s="61"/>
     </row>
-    <row r="307" spans="1:16" ht="12.75">
+    <row r="307" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A307" s="59"/>
       <c r="B307" s="59"/>
       <c r="C307" s="59"/>
@@ -14780,7 +14810,7 @@
       <c r="O307" s="63"/>
       <c r="P307" s="61"/>
     </row>
-    <row r="308" spans="1:16" ht="12.75">
+    <row r="308" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A308" s="59"/>
       <c r="B308" s="59"/>
       <c r="C308" s="59"/>
@@ -14798,7 +14828,7 @@
       <c r="O308" s="63"/>
       <c r="P308" s="61"/>
     </row>
-    <row r="309" spans="1:16" ht="12.75">
+    <row r="309" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A309" s="59"/>
       <c r="B309" s="59"/>
       <c r="C309" s="59"/>
@@ -14816,7 +14846,7 @@
       <c r="O309" s="63"/>
       <c r="P309" s="61"/>
     </row>
-    <row r="310" spans="1:16" ht="12.75">
+    <row r="310" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A310" s="59"/>
       <c r="B310" s="59"/>
       <c r="C310" s="59"/>
@@ -14834,7 +14864,7 @@
       <c r="O310" s="63"/>
       <c r="P310" s="61"/>
     </row>
-    <row r="311" spans="1:16" ht="12.75">
+    <row r="311" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A311" s="59"/>
       <c r="B311" s="59"/>
       <c r="C311" s="59"/>
@@ -14852,7 +14882,7 @@
       <c r="O311" s="63"/>
       <c r="P311" s="61"/>
     </row>
-    <row r="312" spans="1:16" ht="12.75">
+    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A312" s="59"/>
       <c r="B312" s="59"/>
       <c r="C312" s="59"/>
@@ -14870,7 +14900,7 @@
       <c r="O312" s="63"/>
       <c r="P312" s="61"/>
     </row>
-    <row r="313" spans="1:16" ht="12.75">
+    <row r="313" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A313" s="59"/>
       <c r="B313" s="59"/>
       <c r="C313" s="59"/>
@@ -14888,7 +14918,7 @@
       <c r="O313" s="63"/>
       <c r="P313" s="61"/>
     </row>
-    <row r="314" spans="1:16" ht="12.75">
+    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A314" s="59"/>
       <c r="B314" s="59"/>
       <c r="C314" s="59"/>
@@ -14923,20 +14953,20 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.8984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.296875" customWidth="1"/>
+    <col min="10" max="10" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -14965,7 +14995,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="32" t="s">
         <v>316</v>
       </c>
@@ -14995,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="32" t="s">
         <v>317</v>
       </c>
@@ -15025,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A4" s="32" t="s">
         <v>318</v>
       </c>
@@ -15055,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="32" t="s">
         <v>319</v>
       </c>
@@ -15085,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A6" s="32" t="s">
         <v>320</v>
       </c>
@@ -15115,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A7" s="32" t="s">
         <v>321</v>
       </c>
@@ -15145,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="32" t="s">
         <v>322</v>
       </c>
@@ -15175,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="32" t="s">
         <v>323</v>
       </c>
@@ -15205,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="32" t="s">
         <v>324</v>
       </c>
@@ -15235,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="32" t="s">
         <v>325</v>
       </c>
@@ -15265,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A12" s="32" t="s">
         <v>326</v>
       </c>
@@ -15295,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="32" t="s">
         <v>327</v>
       </c>
@@ -15325,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -15355,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A15" s="32" t="s">
         <v>329</v>
       </c>
@@ -15385,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="32" t="s">
         <v>330</v>
       </c>
@@ -15415,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A17" s="32" t="s">
         <v>239</v>
       </c>
@@ -15445,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="32" t="s">
         <v>240</v>
       </c>
@@ -15475,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A19" s="32" t="s">
         <v>241</v>
       </c>
@@ -15505,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A20" s="32" t="s">
         <v>242</v>
       </c>
@@ -15535,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A21" s="32" t="s">
         <v>243</v>
       </c>
@@ -15565,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -15595,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A23" s="32" t="s">
         <v>245</v>
       </c>
@@ -15625,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="32" t="s">
         <v>246</v>
       </c>
@@ -15655,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A25" s="32" t="s">
         <v>247</v>
       </c>
@@ -15685,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A26" s="32" t="s">
         <v>248</v>
       </c>
@@ -15715,7 +15745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A27" s="32" t="s">
         <v>249</v>
       </c>
@@ -15745,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A28" s="32" t="s">
         <v>250</v>
       </c>
@@ -15775,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A29" s="32" t="s">
         <v>251</v>
       </c>
@@ -15805,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A30" s="32" t="s">
         <v>252</v>
       </c>
@@ -15835,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="32" t="s">
         <v>197</v>
       </c>
@@ -15865,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A32" s="32" t="s">
         <v>198</v>
       </c>
@@ -15895,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="32" t="s">
         <v>199</v>
       </c>
@@ -15925,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A34" s="32" t="s">
         <v>200</v>
       </c>
@@ -15955,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A35" s="32" t="s">
         <v>201</v>
       </c>
@@ -15985,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A36" s="32" t="s">
         <v>202</v>
       </c>
@@ -16015,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A37" s="32" t="s">
         <v>203</v>
       </c>
@@ -16045,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A38" s="32" t="s">
         <v>204</v>
       </c>
@@ -16075,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A39" s="32" t="s">
         <v>205</v>
       </c>
@@ -16105,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A40" s="32" t="s">
         <v>206</v>
       </c>
@@ -16135,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A41" s="32" t="s">
         <v>207</v>
       </c>
@@ -16165,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A42" s="32" t="s">
         <v>208</v>
       </c>
@@ -16195,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A43" s="32" t="s">
         <v>209</v>
       </c>
@@ -16225,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A44" s="32" t="s">
         <v>210</v>
       </c>
@@ -16255,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A45" s="32" t="s">
         <v>211</v>
       </c>
@@ -16285,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A46" s="32" t="s">
         <v>212</v>
       </c>
@@ -16315,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A47" s="32" t="s">
         <v>213</v>
       </c>
@@ -16345,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A48" s="32" t="s">
         <v>214</v>
       </c>
@@ -16375,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A49" s="32" t="s">
         <v>215</v>
       </c>
@@ -16405,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A50" s="32" t="s">
         <v>216</v>
       </c>
@@ -16435,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A51" s="32" t="s">
         <v>217</v>
       </c>
@@ -16465,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A52" s="32" t="s">
         <v>218</v>
       </c>
@@ -16495,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A53" s="32" t="s">
         <v>219</v>
       </c>
@@ -16525,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A54" s="32" t="s">
         <v>220</v>
       </c>
@@ -16555,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A55" s="32" t="s">
         <v>221</v>
       </c>
@@ -16585,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A56" s="32" t="s">
         <v>222</v>
       </c>
@@ -16615,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A57" s="32" t="s">
         <v>223</v>
       </c>
@@ -16645,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A58" s="32" t="s">
         <v>224</v>
       </c>
@@ -16675,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A59" s="32" t="s">
         <v>225</v>
       </c>
@@ -16705,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A60" s="32" t="s">
         <v>226</v>
       </c>
@@ -16735,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A61" s="32" t="s">
         <v>227</v>
       </c>
@@ -16765,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A62" s="32" t="s">
         <v>228</v>
       </c>
@@ -16795,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A63" s="32" t="s">
         <v>229</v>
       </c>
@@ -16825,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A64" s="32" t="s">
         <v>230</v>
       </c>
@@ -16855,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A65" s="32" t="s">
         <v>231</v>
       </c>
@@ -16885,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A66" s="32" t="s">
         <v>232</v>
       </c>
@@ -16915,7 +16945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A67" s="32" t="s">
         <v>233</v>
       </c>
@@ -16945,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A68" s="32" t="s">
         <v>234</v>
       </c>
@@ -16975,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A69" s="32" t="s">
         <v>508</v>
       </c>
@@ -17005,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A70" s="32" t="s">
         <v>509</v>
       </c>
@@ -17035,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A71" s="32" t="s">
         <v>510</v>
       </c>
@@ -17065,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A72" s="32" t="s">
         <v>511</v>
       </c>
@@ -17095,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A73" s="32" t="s">
         <v>512</v>
       </c>
@@ -17125,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A74" s="32" t="s">
         <v>513</v>
       </c>
@@ -17155,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A75" s="32" t="s">
         <v>514</v>
       </c>
@@ -17185,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A76" s="32" t="s">
         <v>515</v>
       </c>
@@ -17215,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A77" s="32" t="s">
         <v>516</v>
       </c>
@@ -17245,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A78" s="32" t="s">
         <v>517</v>
       </c>
@@ -17275,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A79" s="32" t="s">
         <v>518</v>
       </c>
@@ -17305,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A80" s="32" t="s">
         <v>519</v>
       </c>
@@ -17335,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A81" s="32" t="s">
         <v>520</v>
       </c>
@@ -17365,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A82" s="32" t="s">
         <v>521</v>
       </c>
@@ -17395,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A83" s="32" t="s">
         <v>522</v>
       </c>
@@ -17425,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A84" s="32" t="s">
         <v>282</v>
       </c>
@@ -17455,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A85" s="32" t="s">
         <v>283</v>
       </c>
@@ -17485,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A86" s="32" t="s">
         <v>284</v>
       </c>
@@ -17515,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A87" s="32" t="s">
         <v>285</v>
       </c>
@@ -17545,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A88" s="32" t="s">
         <v>286</v>
       </c>
@@ -17575,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A89" s="32" t="s">
         <v>287</v>
       </c>
@@ -17605,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A90" s="32" t="s">
         <v>288</v>
       </c>
@@ -17635,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A91" s="32" t="s">
         <v>289</v>
       </c>
@@ -17665,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A92" s="32" t="s">
         <v>290</v>
       </c>
@@ -17695,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A93" s="32" t="s">
         <v>291</v>
       </c>
@@ -17725,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A94" s="32" t="s">
         <v>292</v>
       </c>
@@ -17755,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A95" s="32" t="s">
         <v>293</v>
       </c>
@@ -17785,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A96" s="32" t="s">
         <v>294</v>
       </c>
@@ -17815,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A97" s="32" t="s">
         <v>295</v>
       </c>
@@ -17845,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A98" s="32" t="s">
         <v>296</v>
       </c>
@@ -17875,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A99" s="32" t="s">
         <v>301</v>
       </c>
@@ -17905,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A100" s="32" t="s">
         <v>302</v>
       </c>
@@ -17935,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A101" s="32" t="s">
         <v>303</v>
       </c>
@@ -17965,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A102" s="32" t="s">
         <v>304</v>
       </c>
@@ -17995,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A103" s="32" t="s">
         <v>305</v>
       </c>
@@ -18025,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A104" s="32" t="s">
         <v>306</v>
       </c>
@@ -18055,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A105" s="32" t="s">
         <v>307</v>
       </c>
@@ -18085,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A106" s="32" t="s">
         <v>308</v>
       </c>
@@ -18115,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A107" s="32" t="s">
         <v>309</v>
       </c>
@@ -18145,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A108" s="32" t="s">
         <v>310</v>
       </c>
@@ -18175,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A109" s="32" t="s">
         <v>311</v>
       </c>
@@ -18205,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A110" s="32" t="s">
         <v>312</v>
       </c>
@@ -18235,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A111" s="32" t="s">
         <v>313</v>
       </c>
@@ -18265,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A112" s="32" t="s">
         <v>314</v>
       </c>
@@ -18295,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A113" s="32" t="s">
         <v>315</v>
       </c>
@@ -18325,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A114" s="32" t="s">
         <v>265</v>
       </c>
@@ -18355,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A115" s="32" t="s">
         <v>266</v>
       </c>
@@ -18385,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A116" s="32" t="s">
         <v>267</v>
       </c>
@@ -18415,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A117" s="32" t="s">
         <v>268</v>
       </c>
@@ -18445,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A118" s="32" t="s">
         <v>269</v>
       </c>
@@ -18475,7 +18505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A119" s="32" t="s">
         <v>270</v>
       </c>
@@ -18505,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A120" s="32" t="s">
         <v>271</v>
       </c>
@@ -18535,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A121" s="32" t="s">
         <v>272</v>
       </c>
@@ -18565,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A122" s="32" t="s">
         <v>273</v>
       </c>
@@ -18595,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A123" s="32" t="s">
         <v>274</v>
       </c>
@@ -18625,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A124" s="32" t="s">
         <v>275</v>
       </c>
@@ -18655,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A125" s="32" t="s">
         <v>276</v>
       </c>
@@ -18685,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A126" s="32" t="s">
         <v>277</v>
       </c>
@@ -18715,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A127" s="32" t="s">
         <v>278</v>
       </c>
@@ -18745,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A128" s="32" t="s">
         <v>279</v>
       </c>
@@ -18775,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A129" s="32" t="s">
         <v>352</v>
       </c>
@@ -18805,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A130" s="32" t="s">
         <v>353</v>
       </c>
@@ -18835,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A131" s="32" t="s">
         <v>354</v>
       </c>
@@ -18865,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A132" s="32" t="s">
         <v>355</v>
       </c>
@@ -18895,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A133" s="32" t="s">
         <v>356</v>
       </c>
@@ -18925,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A134" s="32" t="s">
         <v>357</v>
       </c>
@@ -18955,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A135" s="32" t="s">
         <v>358</v>
       </c>
@@ -18985,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A136" s="32" t="s">
         <v>359</v>
       </c>
@@ -19015,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A137" s="32" t="s">
         <v>360</v>
       </c>
@@ -19045,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A138" s="32" t="s">
         <v>361</v>
       </c>
@@ -19075,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A139" s="32" t="s">
         <v>362</v>
       </c>
@@ -19105,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A140" s="32" t="s">
         <v>363</v>
       </c>
@@ -19135,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A141" s="32" t="s">
         <v>364</v>
       </c>
@@ -19165,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A142" s="32" t="s">
         <v>365</v>
       </c>
@@ -19195,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A143" s="32" t="s">
         <v>366</v>
       </c>
@@ -19225,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A144" s="32" t="s">
         <v>333</v>
       </c>
@@ -19255,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A145" s="32" t="s">
         <v>334</v>
       </c>
@@ -19285,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A146" s="32" t="s">
         <v>335</v>
       </c>
@@ -19315,7 +19345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A147" s="32" t="s">
         <v>336</v>
       </c>
@@ -19345,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A148" s="32" t="s">
         <v>337</v>
       </c>
@@ -19375,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A149" s="32" t="s">
         <v>338</v>
       </c>
@@ -19405,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A150" s="32" t="s">
         <v>339</v>
       </c>
@@ -19435,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A151" s="32" t="s">
         <v>340</v>
       </c>
@@ -19465,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A152" s="32" t="s">
         <v>341</v>
       </c>
@@ -19495,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A153" s="32" t="s">
         <v>342</v>
       </c>
@@ -19525,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A154" s="32" t="s">
         <v>343</v>
       </c>
@@ -19555,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A155" s="32" t="s">
         <v>344</v>
       </c>
@@ -19585,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A156" s="32" t="s">
         <v>345</v>
       </c>
@@ -19615,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A157" s="32" t="s">
         <v>346</v>
       </c>
@@ -19645,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A158" s="32" t="s">
         <v>347</v>
       </c>
@@ -19675,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A159" s="32" t="s">
         <v>367</v>
       </c>
@@ -19705,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A160" s="32" t="s">
         <v>368</v>
       </c>
@@ -19735,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A161" s="32" t="s">
         <v>369</v>
       </c>
@@ -19765,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A162" s="32" t="s">
         <v>370</v>
       </c>
@@ -19795,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A163" s="32" t="s">
         <v>371</v>
       </c>
@@ -19825,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A164" s="32" t="s">
         <v>372</v>
       </c>
@@ -19855,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A165" s="32" t="s">
         <v>373</v>
       </c>
@@ -19885,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A166" s="32" t="s">
         <v>374</v>
       </c>
@@ -19915,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A167" s="32" t="s">
         <v>375</v>
       </c>
@@ -19945,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A168" s="32" t="s">
         <v>376</v>
       </c>
@@ -19975,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A169" s="32" t="s">
         <v>377</v>
       </c>
@@ -20005,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A170" s="32" t="s">
         <v>378</v>
       </c>
@@ -20035,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A171" s="32" t="s">
         <v>379</v>
       </c>
@@ -20065,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A172" s="32" t="s">
         <v>380</v>
       </c>
@@ -20095,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A173" s="32" t="s">
         <v>381</v>
       </c>
@@ -20125,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A174" s="32" t="s">
         <v>135</v>
       </c>
@@ -20155,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A175" s="32" t="s">
         <v>137</v>
       </c>
@@ -20185,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -20215,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A177" s="32" t="s">
         <v>138</v>
       </c>
@@ -20245,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A178" s="32" t="s">
         <v>139</v>
       </c>
@@ -20275,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A179" s="32" t="s">
         <v>140</v>
       </c>
@@ -20305,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A180" s="32" t="s">
         <v>141</v>
       </c>
@@ -20335,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A181" s="32" t="s">
         <v>142</v>
       </c>
@@ -20365,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A182" s="32" t="s">
         <v>143</v>
       </c>
@@ -20395,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A183" s="32" t="s">
         <v>144</v>
       </c>
@@ -20425,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A184" s="32" t="s">
         <v>146</v>
       </c>
@@ -20455,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A185" s="32" t="s">
         <v>148</v>
       </c>
@@ -20485,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A186" s="32" t="s">
         <v>153</v>
       </c>
@@ -20515,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A187" s="32" t="s">
         <v>145</v>
       </c>
@@ -20545,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A188" s="32" t="s">
         <v>149</v>
       </c>
@@ -20575,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A189" s="32" t="s">
         <v>147</v>
       </c>
@@ -20605,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A190" s="32" t="s">
         <v>150</v>
       </c>
@@ -20635,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A191" s="32" t="s">
         <v>151</v>
       </c>
@@ -20665,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A192" s="32" t="s">
         <v>152</v>
       </c>
@@ -20695,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A193" s="32" t="s">
         <v>386</v>
       </c>
@@ -20725,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A194" s="32" t="s">
         <v>387</v>
       </c>
@@ -20755,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A195" s="32" t="s">
         <v>388</v>
       </c>
@@ -20785,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A196" s="32" t="s">
         <v>389</v>
       </c>
@@ -20815,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A197" s="32" t="s">
         <v>390</v>
       </c>
@@ -20845,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A198" s="32" t="s">
         <v>391</v>
       </c>
@@ -20875,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A199" s="32" t="s">
         <v>392</v>
       </c>
@@ -20905,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A200" s="32" t="s">
         <v>393</v>
       </c>
@@ -20935,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A201" s="32" t="s">
         <v>394</v>
       </c>
@@ -20965,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A202" s="32" t="s">
         <v>395</v>
       </c>
@@ -20995,7 +21025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A203" s="32" t="s">
         <v>396</v>
       </c>
@@ -21025,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A204" s="32" t="s">
         <v>397</v>
       </c>
@@ -21055,7 +21085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A205" s="32" t="s">
         <v>398</v>
       </c>
@@ -21085,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A206" s="32" t="s">
         <v>399</v>
       </c>
@@ -21115,7 +21145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A207" s="32" t="s">
         <v>400</v>
       </c>
@@ -21145,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A208" s="32" t="s">
         <v>403</v>
       </c>
@@ -21175,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A209" s="32" t="s">
         <v>404</v>
       </c>
@@ -21205,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A210" s="32" t="s">
         <v>405</v>
       </c>
@@ -21235,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A211" s="32" t="s">
         <v>406</v>
       </c>
@@ -21265,7 +21295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A212" s="32" t="s">
         <v>407</v>
       </c>
@@ -21295,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A213" s="32" t="s">
         <v>408</v>
       </c>
@@ -21325,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A214" s="32" t="s">
         <v>409</v>
       </c>
@@ -21355,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A215" s="32" t="s">
         <v>410</v>
       </c>
@@ -21385,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A216" s="32" t="s">
         <v>411</v>
       </c>
@@ -21415,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A217" s="32" t="s">
         <v>412</v>
       </c>
@@ -21445,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A218" s="32" t="s">
         <v>413</v>
       </c>
@@ -21475,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A219" s="32" t="s">
         <v>414</v>
       </c>
@@ -21505,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A220" s="32" t="s">
         <v>415</v>
       </c>
@@ -21535,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A221" s="32" t="s">
         <v>416</v>
       </c>
@@ -21565,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A222" s="32" t="s">
         <v>417</v>
       </c>
@@ -21595,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -21605,7 +21635,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -21615,7 +21645,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -21625,7 +21655,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -21635,7 +21665,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -21645,7 +21675,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -21655,7 +21685,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -21665,7 +21695,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -21675,7 +21705,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -21685,7 +21715,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -21695,7 +21725,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -21705,7 +21735,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -21715,7 +21745,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -21725,7 +21755,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -21735,7 +21765,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -21745,7 +21775,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -21755,7 +21785,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -21765,7 +21795,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -21775,7 +21805,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -21785,7 +21815,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21795,7 +21825,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21805,7 +21835,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21815,7 +21845,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21825,7 +21855,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21835,7 +21865,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21845,7 +21875,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21855,7 +21885,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21865,7 +21895,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21875,7 +21905,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21885,7 +21915,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21895,7 +21925,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21905,7 +21935,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21915,7 +21945,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21925,7 +21955,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -21935,7 +21965,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -21945,7 +21975,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -21955,7 +21985,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -21965,7 +21995,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -21975,7 +22005,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -21985,7 +22015,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -21995,7 +22025,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -22005,7 +22035,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -22015,7 +22045,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -22025,7 +22055,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -22035,7 +22065,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -22045,7 +22075,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -22055,7 +22085,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -22065,7 +22095,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -22075,7 +22105,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -22085,7 +22115,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -22095,7 +22125,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -22105,7 +22135,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -22115,7 +22145,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -22125,7 +22155,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -22135,7 +22165,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -22145,7 +22175,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -22155,7 +22185,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -22165,7 +22195,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -22175,7 +22205,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -22185,7 +22215,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -22195,7 +22225,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -22205,7 +22235,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -22215,7 +22245,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -22225,7 +22255,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -22253,16 +22283,16 @@
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.296875" customWidth="1"/>
+    <col min="6" max="7" width="23.296875" customWidth="1"/>
+    <col min="8" max="8" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -22288,7 +22318,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -22316,7 +22346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -22344,7 +22374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -22372,7 +22402,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -22400,7 +22430,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -22428,7 +22458,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -22456,7 +22486,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -22484,7 +22514,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -22512,7 +22542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -22540,7 +22570,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22568,7 +22598,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -22596,7 +22626,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -22624,7 +22654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -22652,7 +22682,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -22680,7 +22710,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -22708,7 +22738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -22736,7 +22766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -22764,7 +22794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -22792,7 +22822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -22820,7 +22850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -22848,7 +22878,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -22876,7 +22906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -22904,7 +22934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -22932,7 +22962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -22960,7 +22990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -22988,7 +23018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -23016,7 +23046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -23044,7 +23074,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -23072,7 +23102,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -23100,7 +23130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -23128,7 +23158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -23156,7 +23186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -23184,7 +23214,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>382</v>
       </c>
@@ -23212,7 +23242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>383</v>
       </c>
@@ -23240,7 +23270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -23268,7 +23298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -23296,7 +23326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -23324,7 +23354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>529</v>
       </c>
@@ -23352,7 +23382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -23380,7 +23410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -23408,7 +23438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -23436,7 +23466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -23464,7 +23494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -23492,7 +23522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -23520,7 +23550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -23548,7 +23578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -23576,7 +23606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -23604,7 +23634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -23632,7 +23662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -23660,7 +23690,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -23688,7 +23718,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -23716,7 +23746,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>451</v>
       </c>
@@ -23744,7 +23774,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>464</v>
       </c>
@@ -23772,7 +23802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -23800,7 +23830,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>470</v>
       </c>
@@ -23828,7 +23858,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>553</v>
       </c>
@@ -23856,7 +23886,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>471</v>
       </c>
@@ -23884,7 +23914,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>472</v>
       </c>
@@ -23912,7 +23942,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -23941,7 +23971,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -23970,7 +24000,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -23999,7 +24029,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -24028,7 +24058,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -24057,7 +24087,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -24086,7 +24116,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -24115,7 +24145,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -24144,7 +24174,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -24172,7 +24202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -24200,7 +24230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -24228,7 +24258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -24256,7 +24286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24281,7 +24311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24306,7 +24336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -24348,18 +24378,18 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>80</v>
       </c>
@@ -24385,7 +24415,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>176</v>
       </c>
@@ -24412,7 +24442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>177</v>
       </c>
@@ -24456,16 +24486,16 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -24488,7 +24518,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>179</v>
       </c>
@@ -24512,7 +24542,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>180</v>
       </c>
@@ -24553,16 +24583,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -24575,7 +24605,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A59">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Achieve 17 86DWC</v>
@@ -24588,7 +24618,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Achieve 6 86DWC</v>
       </c>
@@ -24599,7 +24629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Achieve 9 86DWC</v>
       </c>
@@ -24610,7 +24640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
       </c>
@@ -24621,7 +24651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -24632,7 +24662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -24640,7 +24670,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -24648,7 +24678,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -24656,7 +24686,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -24664,7 +24694,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -24672,7 +24702,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -24680,7 +24710,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -24688,7 +24718,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -24696,7 +24726,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -24704,7 +24734,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -24712,212 +24742,212 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>Beltone CIC Digital Achieve 17 CIC</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>Beltone CIC Digital Achieve 6 CIC</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>Beltone CIC Digital Achieve 9 CIC</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>Beltone ITC Digital Achieve 17 ITC-DWC</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>Beltone ITC Digital Achieve 6 ITC-DWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>Beltone ITC Digital Achieve 9 ITC-DWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>Beltone ITE Digital Achieve 17 ITE-DWC</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>Beltone ITE Digital Achieve 6 ITE-DWC</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>Beltone ITE Digital Achieve 9 ITE-DWC</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Achieve 6 62DRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Achieve 9 62DRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3161" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE5CE4-AC76-44F9-98C8-2E98CF791CFD}"/>
+  <xr:revisionPtr revIDLastSave="3177" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9974DB61-F4A6-445B-9E69-B0AC11063800}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28500" yWindow="690" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="602">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1878,6 +1878,12 @@
   </si>
   <si>
     <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Commence 3 62S-DRWC Digital RIE</t>
+  </si>
+  <si>
+    <t>Beltone Commence 2 63S-DRWC Digital RIE</t>
   </si>
 </sst>
 </file>
@@ -3323,13 +3329,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P165" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Beltone RIE Digital Envision 9 62S-DRWC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P165" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P165">
     <sortCondition ref="E2:E165"/>
   </sortState>
@@ -4240,10 +4240,10 @@
   <dimension ref="A1:Q314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K146" sqref="K146"/>
+      <selection pane="bottomRight" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>455</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>456</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A5" s="71" t="s">
         <v>579</v>
       </c>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A6" s="71" t="s">
         <v>575</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A8" s="71" t="s">
         <v>577</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>436</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>422</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>437</v>
       </c>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>443</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>440</v>
       </c>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>444</v>
       </c>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>439</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>445</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>442</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>426</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>428</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>429</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>32</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>454</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>455</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>575</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A61" s="71" t="s">
         <v>577</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>578</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="O63" s="77"/>
       <c r="P63" s="73"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>579</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="P64" s="73"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>580</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="P65" s="73"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A66" s="4" t="s">
         <v>454</v>
       </c>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A67" s="4" t="s">
         <v>455</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A68" s="4" t="s">
         <v>456</v>
       </c>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
         <v>579</v>
       </c>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A70" s="4" t="s">
         <v>454</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>456</v>
       </c>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
         <v>579</v>
       </c>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>454</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A77" s="71" t="s">
         <v>579</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A78" s="4" t="s">
         <v>454</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A80" s="4" t="s">
         <v>456</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
         <v>579</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>454</v>
       </c>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A85" s="71" t="s">
         <v>579</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>454</v>
       </c>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>455</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A89" s="71" t="s">
         <v>579</v>
       </c>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A90" s="71" t="s">
         <v>575</v>
       </c>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A92" s="71" t="s">
         <v>577</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>434</v>
       </c>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>436</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A96" s="4" t="s">
         <v>59</v>
       </c>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>61</v>
       </c>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>62</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>422</v>
       </c>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>38</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>42</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>43</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>44</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>437</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>443</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>440</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>23</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>27</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>438</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>444</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>441</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>29</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>45</v>
       </c>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>439</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>445</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>442</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>30</v>
       </c>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>46</v>
       </c>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>47</v>
       </c>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>426</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>428</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>429</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>48</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A136" s="4" t="s">
         <v>49</v>
       </c>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A138" s="4" t="s">
         <v>51</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A139" s="4" t="s">
         <v>53</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A141" s="4" t="s">
         <v>454</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A142" s="4" t="s">
         <v>455</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A143" s="4" t="s">
         <v>456</v>
       </c>
@@ -11172,11 +11172,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A144" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="B144" s="80" t="s">
+      <c r="B144" s="83" t="s">
         <v>594</v>
       </c>
       <c r="C144" s="71"/>
@@ -11221,12 +11221,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A145" s="71" t="s">
         <v>577</v>
       </c>
       <c r="B145" s="80" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="26" t="str">
@@ -11274,8 +11274,8 @@
       <c r="A146" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B146" s="80" t="s">
-        <v>596</v>
+      <c r="B146" s="83" t="s">
+        <v>595</v>
       </c>
       <c r="C146" s="71"/>
       <c r="D146" s="26" t="str">
@@ -11319,7 +11319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A147" s="71" t="s">
         <v>578</v>
       </c>
@@ -11362,12 +11362,12 @@
       <c r="O147" s="77"/>
       <c r="P147" s="73"/>
     </row>
-    <row r="148" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A148" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="B148" s="80" t="s">
-        <v>595</v>
+      <c r="B148" s="83" t="s">
+        <v>600</v>
       </c>
       <c r="C148" s="71"/>
       <c r="D148" s="26" t="str">
@@ -11405,12 +11405,12 @@
       <c r="O148" s="77"/>
       <c r="P148" s="73"/>
     </row>
-    <row r="149" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A149" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B149" s="80" t="s">
-        <v>596</v>
+      <c r="B149" s="83" t="s">
+        <v>601</v>
       </c>
       <c r="C149" s="71"/>
       <c r="D149" s="26" t="str">
@@ -11448,7 +11448,7 @@
       <c r="O149" s="77"/>
       <c r="P149" s="73"/>
     </row>
-    <row r="150" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A150" s="4" t="s">
         <v>454</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A151" s="4" t="s">
         <v>455</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A152" s="4" t="s">
         <v>456</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A153" s="71" t="s">
         <v>579</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A157" s="71" t="s">
         <v>579</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A158" s="4" t="s">
         <v>454</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A159" s="4" t="s">
         <v>455</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A160" s="4" t="s">
         <v>456</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A161" s="71" t="s">
         <v>579</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A162" s="4" t="s">
         <v>454</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A163" s="4" t="s">
         <v>455</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A164" s="4" t="s">
         <v>456</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A165" s="71" t="s">
         <v>579</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3251" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5E7BE7-F204-48F7-89AC-C60644DCFEA2}"/>
+  <xr:revisionPtr revIDLastSave="3257" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6290AD76-6C7D-4A71-B7E2-A6732501C7F7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1893,7 +1893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2518,37 +2518,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2596,6 +2565,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3693,7 +3693,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -3704,35 +3704,35 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="88"/>
+    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1">
+      <c r="B5" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="104"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="82" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B6" s="101" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="81" t="s">
         <v>574</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3756,11 +3756,11 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89" t="s">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+      <c r="B10" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="105"/>
       <c r="E10" s="12" t="s">
         <v>431</v>
       </c>
@@ -3770,27 +3770,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="106" t="str">
+      <c r="B11" s="97" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="50" t="e" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>#N/A</v>
@@ -3803,28 +3803,28 @@
         <f>E11-F11</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="95" t="e" cm="1">
+      <c r="J11" s="86" t="e" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="106" t="str">
+      <c r="B12" s="97" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Achieve 17 62DRWC</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="64" t="e" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>#N/A</v>
@@ -3837,25 +3837,25 @@
         <f>E12-F12</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="106" t="e" cm="1">
+      <c r="B13" s="97" t="e" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="13" t="e" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>#N/A</v>
@@ -3868,26 +3868,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="106" t="e" cm="1">
+      <c r="B14" s="97" t="e" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="e" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3897,26 +3897,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="e">
+      <c r="B15" s="97" t="e">
         <f>IF($D$6=1,"",B14)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="e" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3926,46 +3926,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13" t="e">
         <f>SUM(G11:G15)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="103" t="e" cm="1">
+      <c r="J16" s="94" t="e" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
-    </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="e" cm="1">
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96"/>
+    </row>
+    <row r="17" spans="2:19" ht="18" customHeight="1">
+      <c r="B17" s="93" t="e" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" t="e" cm="1">
@@ -3977,12 +3977,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+    <row r="18" spans="2:19" ht="18" customHeight="1">
+      <c r="B18" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14" t="e">
@@ -3991,50 +3991,50 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="95" t="e" cm="1">
+      <c r="L20" s="86" t="e" cm="1">
         <f t="array" ref="L20">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="91"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="22" spans="2:19" ht="18" customHeight="1">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4045,16 +4045,16 @@
       <c r="H22" t="s">
         <v>432</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="91"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="23" spans="2:19" ht="18" customHeight="1">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4063,16 +4063,16 @@
       <c r="H23" t="s">
         <v>432</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4084,19 +4084,19 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="100"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4107,7 +4107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4123,6 +4123,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4137,11 +4142,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4184,14 +4184,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -4212,7 +4212,7 @@
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -4287,11 +4287,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>F2-J2</f>
+        <f t="shared" ref="I2:I33" si="0">F2-J2</f>
         <v>894</v>
       </c>
       <c r="J2" s="2">
-        <f>(K2-H2-O2)/2</f>
+        <f t="shared" ref="J2:J33" si="1">(K2-H2-O2)/2</f>
         <v>4925</v>
       </c>
       <c r="K2" s="2">
@@ -4311,7 +4311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -4336,11 +4336,11 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>F3-J3</f>
+        <f t="shared" si="0"/>
         <v>894</v>
       </c>
       <c r="J3" s="2">
-        <f>(K3-H3-O3)/2</f>
+        <f t="shared" si="1"/>
         <v>4925</v>
       </c>
       <c r="K3" s="2">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4385,11 +4385,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>F4-J4</f>
+        <f t="shared" si="0"/>
         <v>894</v>
       </c>
       <c r="J4" s="2">
-        <f>(K4-H4-O4)/2</f>
+        <f t="shared" si="1"/>
         <v>4925</v>
       </c>
       <c r="K4" s="2">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="12.75">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
@@ -4435,11 +4435,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f>F5-J5</f>
+        <f t="shared" si="0"/>
         <v>894</v>
       </c>
       <c r="J5" s="2">
-        <f>(K5-H5-O5)/2</f>
+        <f t="shared" si="1"/>
         <v>4925</v>
       </c>
       <c r="K5" s="2">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="12.75">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -4484,11 +4484,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>F6-J6</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="J6" s="2">
-        <f>(K6-H6-O6)/2</f>
+        <f t="shared" si="1"/>
         <v>3595</v>
       </c>
       <c r="K6" s="2">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -4534,11 +4534,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f>F7-J7</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="J7" s="2">
-        <f>(K7-H7-O7)/2</f>
+        <f t="shared" si="1"/>
         <v>3595</v>
       </c>
       <c r="K7" s="2">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -4583,11 +4583,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>F8-J8</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="J8" s="2">
-        <f>(K8-H8-O8)/2</f>
+        <f t="shared" si="1"/>
         <v>3595</v>
       </c>
       <c r="K8" s="2">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4633,11 +4633,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>F9-J9</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="J9" s="2">
-        <f>(K9-H9-O9)/2</f>
+        <f t="shared" si="1"/>
         <v>3595</v>
       </c>
       <c r="K9" s="2">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -4682,11 +4682,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>F10-J10</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="J10" s="2">
-        <f>(K10-H10-O10)/2</f>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="K10" s="2">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -4732,11 +4732,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>F11-J11</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="J11" s="2">
-        <f>(K11-H11-O11)/2</f>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="K11" s="2">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -4781,11 +4781,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>F12-J12</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="J12" s="2">
-        <f>(K12-H12-O12)/2</f>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="K12" s="2">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -4831,11 +4831,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>F13-J13</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="J13" s="2">
-        <f>(K13-H13-O13)/2</f>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="K13" s="2">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4880,11 +4880,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>F14-J14</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J14" s="2">
-        <f>(K14-H14-O14)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K14" s="74">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4930,11 +4930,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>F15-J15</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J15" s="2">
-        <f>(K15-H15-O15)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K15" s="74">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="12.75">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -4979,11 +4979,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f>F16-J16</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J16" s="2">
-        <f>(K16-H16-O16)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K16" s="74">
@@ -5003,7 +5003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="12.75">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -5028,11 +5028,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>F17-J17</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J17" s="2">
-        <f>(K17-H17-O17)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K17" s="74">
@@ -5052,7 +5052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="12.75">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -5076,11 +5076,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>F18-J18</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J18" s="2">
-        <f>(K18-H18-O18)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K18" s="74">
@@ -5100,7 +5100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -5125,11 +5125,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>F19-J19</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J19" s="2">
-        <f>(K19-H19-O19)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K19" s="74">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="12.75">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -5174,11 +5174,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>F20-J20</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J20" s="2">
-        <f>(K20-H20-O20)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K20" s="74">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="12.75">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -5224,11 +5224,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>F21-J21</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="J21" s="2">
-        <f>(K21-H21-O21)/2</f>
+        <f t="shared" si="1"/>
         <v>1550</v>
       </c>
       <c r="K21" s="74">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="12.75">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -5273,11 +5273,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>F22-J22</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J22" s="2">
-        <f>(K22-H22-O22)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K22" s="74">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="12.75">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -5323,11 +5323,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>F23-J23</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J23" s="2">
-        <f>(K23-H23-O23)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K23" s="74">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="12.75">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -5372,11 +5372,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>F24-J24</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J24" s="2">
-        <f>(K24-H24-O24)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K24" s="74">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="12.75">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -5422,11 +5422,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>F25-J25</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J25" s="2">
-        <f>(K25-H25-O25)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K25" s="74">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="12.75">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5471,11 +5471,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>F26-J26</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J26" s="2">
-        <f>(K26-H26-O26)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K26" s="74">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="12.75">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -5521,11 +5521,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>F27-J27</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J27" s="2">
-        <f>(K27-H27-O27)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K27" s="74">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="12.75">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -5570,11 +5570,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>F28-J28</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J28" s="2">
-        <f>(K28-H28-O28)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K28" s="74">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="12.75">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
@@ -5620,11 +5620,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>F29-J29</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="J29" s="2">
-        <f>(K29-H29-O29)/2</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="K29" s="74">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="12.75">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -5669,11 +5669,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>F30-J30</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="J30" s="2">
-        <f>(K30-H30-O30)/2</f>
+        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="K30" s="74">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="12.75">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -5719,11 +5719,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>F31-J31</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="J31" s="2">
-        <f>(K31-H31-O31)/2</f>
+        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="K31" s="74">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="12.75">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -5768,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>F32-J32</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="J32" s="2">
-        <f>(K32-H32-O32)/2</f>
+        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="K32" s="74">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="12.75">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -5818,11 +5818,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>F33-J33</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="J33" s="2">
-        <f>(K33-H33-O33)/2</f>
+        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="K33" s="74">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="12.75">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -5867,11 +5867,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>F34-J34</f>
+        <f t="shared" ref="I34:I65" si="2">F34-J34</f>
         <v>704</v>
       </c>
       <c r="J34" s="2">
-        <f>(K34-H34-O34)/2</f>
+        <f t="shared" ref="J34:J65" si="3">(K34-H34-O34)/2</f>
         <v>2325</v>
       </c>
       <c r="K34" s="74">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="12.75">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -5917,11 +5917,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>F35-J35</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J35" s="2">
-        <f>(K35-H35-O35)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K35" s="74">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="12.75">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -5966,11 +5966,11 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>F36-J36</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J36" s="2">
-        <f>(K36-H36-O36)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K36" s="74">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="12.75">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -6016,11 +6016,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>F37-J37</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J37" s="2">
-        <f>(K37-H37-O37)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K37" s="74">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="12.75">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -6065,11 +6065,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>F38-J38</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J38" s="2">
-        <f>(K38-H38-O38)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K38" s="74">
@@ -6088,7 +6088,7 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="12.75">
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
@@ -6113,11 +6113,11 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>F39-J39</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J39" s="2">
-        <f>(K39-H39-O39)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K39" s="74">
@@ -6136,7 +6136,7 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="12.75">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -6160,11 +6160,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>F40-J40</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J40" s="2">
-        <f>(K40-H40-O40)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K40" s="74">
@@ -6183,7 +6183,7 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="12.75">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -6208,11 +6208,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>F41-J41</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J41" s="2">
-        <f>(K41-H41-O41)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K41" s="74">
@@ -6231,7 +6231,7 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="12.75">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -6255,11 +6255,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>F42-J42</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="J42" s="2">
-        <f>(K42-H42-O42)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K42" s="74">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="12.75">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -6302,11 +6302,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>F43-J43</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="J43" s="2">
-        <f>(K43-H43-O43)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K43" s="74">
@@ -6325,7 +6325,7 @@
       <c r="P43" s="2"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="12.75">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -6349,11 +6349,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>F44-J44</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J44" s="2">
-        <f>(K44-H44-O44)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K44" s="74">
@@ -6372,7 +6372,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="12.75">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6397,11 +6397,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>F45-J45</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J45" s="2">
-        <f>(K45-H45-O45)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K45" s="74">
@@ -6420,7 +6420,7 @@
       <c r="P45" s="2"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="12.75">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -6444,11 +6444,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>F46-J46</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J46" s="2">
-        <f>(K46-H46-O46)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K46" s="74">
@@ -6467,7 +6467,7 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="12.75">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -6492,11 +6492,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>F47-J47</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J47" s="2">
-        <f>(K47-H47-O47)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K47" s="74">
@@ -6515,7 +6515,7 @@
       <c r="P47" s="2"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="12.75">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -6539,11 +6539,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>F48-J48</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="J48" s="2">
-        <f>(K48-H48-O48)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K48" s="74">
@@ -6562,7 +6562,7 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="12.75">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -6587,11 +6587,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>F49-J49</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="J49" s="2">
-        <f>(K49-H49-O49)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K49" s="74">
@@ -6610,7 +6610,7 @@
       <c r="P49" s="2"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="12.75">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -6634,11 +6634,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>F50-J50</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J50" s="2">
-        <f>(K50-H50-O50)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K50" s="74">
@@ -6657,7 +6657,7 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="12.75">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -6682,11 +6682,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>F51-J51</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="J51" s="2">
-        <f>(K51-H51-O51)/2</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="K51" s="74">
@@ -6705,7 +6705,7 @@
       <c r="P51" s="2"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="12.75">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -6729,11 +6729,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>F52-J52</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J52" s="2">
-        <f>(K52-H52-O52)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K52" s="74">
@@ -6752,7 +6752,7 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="12.75">
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
@@ -6777,11 +6777,11 @@
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>F53-J53</f>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
       <c r="J53" s="2">
-        <f>(K53-H53-O53)/2</f>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
       <c r="K53" s="74">
@@ -6800,7 +6800,7 @@
       <c r="P53" s="2"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="12.75">
       <c r="A54" s="71" t="s">
         <v>559</v>
       </c>
@@ -6825,11 +6825,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>F54-J54</f>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="J54" s="2">
-        <f>(K54-H54-O54)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K54" s="74">
@@ -6844,7 +6844,7 @@
       <c r="P54" s="73"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="12.75">
       <c r="A55" s="71" t="s">
         <v>559</v>
       </c>
@@ -6868,11 +6868,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>F55-J55</f>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="J55" s="2">
-        <f>(K55-H55-O55)/2</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="K55" s="74">
@@ -6887,7 +6887,7 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="12.75">
       <c r="A56" s="71" t="s">
         <v>558</v>
       </c>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C56" s="71"/>
       <c r="D56" s="26" t="str">
-        <f>"("&amp;C56&amp;")"</f>
+        <f t="shared" ref="D56:D62" si="4">"("&amp;C56&amp;")"</f>
         <v>()</v>
       </c>
       <c r="E56" s="72" t="s">
@@ -6912,11 +6912,11 @@
         <v>200</v>
       </c>
       <c r="I56" s="2">
-        <f>F56-J56</f>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="J56" s="2">
-        <f>(K56-H56-O56)/2</f>
+        <f t="shared" si="3"/>
         <v>1650</v>
       </c>
       <c r="K56" s="74">
@@ -6931,7 +6931,7 @@
       <c r="P56" s="73"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="12.75">
       <c r="A57" s="71" t="s">
         <v>558</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>516</v>
       </c>
       <c r="D57" s="26" t="str">
-        <f>"("&amp;C57&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>(CHS-HI-REL4-63DRWC)</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -6958,11 +6958,11 @@
         <v>200</v>
       </c>
       <c r="I57" s="2">
-        <f>F57-J57</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J57" s="2">
-        <f>(K57-H57-O57)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K57" s="38">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="12.75">
       <c r="A58" s="71" t="s">
         <v>558</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>517</v>
       </c>
       <c r="D58" s="26" t="str">
-        <f>"("&amp;C58&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>(CHU-HI-REL4-63DRWC)</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -7010,11 +7010,11 @@
         <v>200</v>
       </c>
       <c r="I58" s="2">
-        <f>F58-J58</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J58" s="2">
-        <f>(K58-H58-O58)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K58" s="38">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="12.75">
       <c r="A59" s="71" t="s">
         <v>558</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>518</v>
       </c>
       <c r="D59" s="26" t="str">
-        <f>"("&amp;C59&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>(HUM-HI-REL4-63DRWC)</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -7062,11 +7062,11 @@
         <v>200</v>
       </c>
       <c r="I59" s="2">
-        <f>F59-J59</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J59" s="2">
-        <f>(K59-H59-O59)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K59" s="38">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="12.75">
       <c r="A60" s="71" t="s">
         <v>558</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>519</v>
       </c>
       <c r="D60" s="26" t="str">
-        <f>"("&amp;C60&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>(CMP-HI-REL4-63DRWC)</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -7114,11 +7114,11 @@
         <v>200</v>
       </c>
       <c r="I60" s="2">
-        <f>F60-J60</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J60" s="2">
-        <f>(K60-H60-O60)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K60" s="38">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="12.75">
       <c r="A61" s="71" t="s">
         <v>558</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>520</v>
       </c>
       <c r="D61" s="26" t="str">
-        <f>"("&amp;C61&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>(CNH-HI-REL4-63DRWC)</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -7166,11 +7166,11 @@
         <v>200</v>
       </c>
       <c r="I61" s="2">
-        <f>F61-J61</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J61" s="2">
-        <f>(K61-H61-O61)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K61" s="38">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="12.75">
       <c r="A62" s="71" t="s">
         <v>558</v>
       </c>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="26" t="str">
-        <f>"("&amp;C62&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>()</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -7216,11 +7216,11 @@
         <v>200</v>
       </c>
       <c r="I62" s="2">
-        <f>F62-J62</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J62" s="2">
-        <f>(K62-H62-O62)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K62" s="38">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="12.75">
       <c r="A63" s="71" t="s">
         <v>558</v>
       </c>
@@ -7265,11 +7265,11 @@
         <v>200</v>
       </c>
       <c r="I63" s="2">
-        <f>F63-J63</f>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="J63" s="2">
-        <f>(K63-H63-O63)/2</f>
+        <f t="shared" si="3"/>
         <v>1650</v>
       </c>
       <c r="K63" s="74">
@@ -7284,7 +7284,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="71" t="s">
         <v>558</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="26" t="str">
-        <f>"("&amp;C64&amp;")"</f>
+        <f t="shared" ref="D64:D69" si="5">"("&amp;C64&amp;")"</f>
         <v>()</v>
       </c>
       <c r="E64" s="78" t="s">
@@ -7309,11 +7309,11 @@
         <v>200</v>
       </c>
       <c r="I64" s="2">
-        <f>F64-J64</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J64" s="2">
-        <f>(K64-H64-O64)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K64" s="38">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="12.75">
       <c r="A65" s="71" t="s">
         <v>558</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="26" t="str">
-        <f>"("&amp;C65&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>()</v>
       </c>
       <c r="E65" s="57" t="s">
@@ -7359,11 +7359,11 @@
         <v>200</v>
       </c>
       <c r="I65" s="2">
-        <f>F65-J65</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="J65" s="2">
-        <f>(K65-H65-O65)/2</f>
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
       <c r="K65" s="38">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="12.75">
       <c r="A66" s="71" t="s">
         <v>558</v>
       </c>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="26" t="str">
-        <f>"("&amp;C66&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>()</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -7409,11 +7409,11 @@
         <v>200</v>
       </c>
       <c r="I66" s="2">
-        <f>F66-J66</f>
+        <f t="shared" ref="I66:I97" si="6">F66-J66</f>
         <v>744</v>
       </c>
       <c r="J66" s="2">
-        <f>(K66-H66-O66)/2</f>
+        <f t="shared" ref="J66:J97" si="7">(K66-H66-O66)/2</f>
         <v>1595</v>
       </c>
       <c r="K66" s="38">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="12.75">
       <c r="A67" s="71" t="s">
         <v>558</v>
       </c>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="26" t="str">
-        <f>"("&amp;C67&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>()</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -7459,11 +7459,11 @@
         <v>200</v>
       </c>
       <c r="I67" s="2">
-        <f>F67-J67</f>
+        <f t="shared" si="6"/>
         <v>744</v>
       </c>
       <c r="J67" s="2">
-        <f>(K67-H67-O67)/2</f>
+        <f t="shared" si="7"/>
         <v>1595</v>
       </c>
       <c r="K67" s="38">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="71" t="s">
         <v>558</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="26" t="str">
-        <f>"("&amp;C68&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>()</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -7509,11 +7509,11 @@
         <v>200</v>
       </c>
       <c r="I68" s="2">
-        <f>F68-J68</f>
+        <f t="shared" si="6"/>
         <v>744</v>
       </c>
       <c r="J68" s="2">
-        <f>(K68-H68-O68)/2</f>
+        <f t="shared" si="7"/>
         <v>1595</v>
       </c>
       <c r="K68" s="38">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="12.75">
       <c r="A69" s="71" t="s">
         <v>554</v>
       </c>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="26" t="str">
-        <f>"("&amp;C69&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>()</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -7559,11 +7559,11 @@
         <v>250</v>
       </c>
       <c r="I69" s="2">
-        <f>F69-J69</f>
+        <f t="shared" si="6"/>
         <v>1019</v>
       </c>
       <c r="J69" s="2">
-        <f>(K69-H69-O69)/2</f>
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
       <c r="K69" s="2">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="12.75">
       <c r="A70" s="71" t="s">
         <v>554</v>
       </c>
@@ -7608,11 +7608,11 @@
         <v>250</v>
       </c>
       <c r="I70" s="2">
-        <f>F70-J70</f>
+        <f t="shared" si="6"/>
         <v>1019</v>
       </c>
       <c r="J70" s="2">
-        <f>(K70-H70-O70)/2</f>
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
       <c r="K70" s="2">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="12.75">
       <c r="A71" s="71" t="s">
         <v>554</v>
       </c>
@@ -7658,11 +7658,11 @@
         <v>250</v>
       </c>
       <c r="I71" s="2">
-        <f>F71-J71</f>
+        <f t="shared" si="6"/>
         <v>2144</v>
       </c>
       <c r="J71" s="2">
-        <f>(K71-H71-O71)/2</f>
+        <f t="shared" si="7"/>
         <v>3675</v>
       </c>
       <c r="K71" s="9">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="12.75">
       <c r="A72" s="71" t="s">
         <v>554</v>
       </c>
@@ -7708,11 +7708,11 @@
         <v>250</v>
       </c>
       <c r="I72" s="2">
-        <f>F72-J72</f>
+        <f t="shared" si="6"/>
         <v>1019</v>
       </c>
       <c r="J72" s="2">
-        <f>(K72-H72-O72)/2</f>
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
       <c r="K72" s="2">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="12.75">
       <c r="A73" s="71" t="s">
         <v>557</v>
       </c>
@@ -7757,11 +7757,11 @@
         <v>200</v>
       </c>
       <c r="I73" s="2">
-        <f>F73-J73</f>
+        <f t="shared" si="6"/>
         <v>804</v>
       </c>
       <c r="J73" s="2">
-        <f>(K73-H73-O73)/2</f>
+        <f t="shared" si="7"/>
         <v>2225</v>
       </c>
       <c r="K73" s="74">
@@ -7776,7 +7776,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="12.75">
       <c r="A74" s="71" t="s">
         <v>557</v>
       </c>
@@ -7801,11 +7801,11 @@
         <v>200</v>
       </c>
       <c r="I74" s="2">
-        <f>F74-J74</f>
+        <f t="shared" si="6"/>
         <v>804</v>
       </c>
       <c r="J74" s="2">
-        <f>(K74-H74-O74)/2</f>
+        <f t="shared" si="7"/>
         <v>2225</v>
       </c>
       <c r="K74" s="74">
@@ -7820,7 +7820,7 @@
       <c r="P74" s="73"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="12.75">
       <c r="A75" s="71" t="s">
         <v>556</v>
       </c>
@@ -7845,11 +7845,11 @@
         <v>250</v>
       </c>
       <c r="I75" s="2">
-        <f>F75-J75</f>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="J75" s="2">
-        <f>(K75-H75-O75)/2</f>
+        <f t="shared" si="7"/>
         <v>3470</v>
       </c>
       <c r="K75" s="2">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="12.75">
       <c r="A76" s="71" t="s">
         <v>556</v>
       </c>
@@ -7895,11 +7895,11 @@
         <v>250</v>
       </c>
       <c r="I76" s="2">
-        <f>F76-J76</f>
+        <f t="shared" si="6"/>
         <v>914</v>
       </c>
       <c r="J76" s="2">
-        <f>(K76-H76-O76)/2</f>
+        <f t="shared" si="7"/>
         <v>2775</v>
       </c>
       <c r="K76" s="9">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="12.75">
       <c r="A77" s="71" t="s">
         <v>556</v>
       </c>
@@ -7945,11 +7945,11 @@
         <v>250</v>
       </c>
       <c r="I77" s="2">
-        <f>F77-J77</f>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="J77" s="2">
-        <f>(K77-H77-O77)/2</f>
+        <f t="shared" si="7"/>
         <v>3470</v>
       </c>
       <c r="K77" s="2">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="12.75">
       <c r="A78" s="71" t="s">
         <v>556</v>
       </c>
@@ -7994,11 +7994,11 @@
         <v>250</v>
       </c>
       <c r="I78" s="2">
-        <f>F78-J78</f>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="J78" s="2">
-        <f>(K78-H78-O78)/2</f>
+        <f t="shared" si="7"/>
         <v>3470</v>
       </c>
       <c r="K78" s="2">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="12.75">
       <c r="A79" s="71" t="s">
         <v>555</v>
       </c>
@@ -8043,11 +8043,11 @@
         <v>250</v>
       </c>
       <c r="I79" s="2">
-        <f>F79-J79</f>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
       <c r="J79" s="2">
-        <f>(K79-H79-O79)/2</f>
+        <f t="shared" si="7"/>
         <v>4200</v>
       </c>
       <c r="K79" s="2">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="12.75">
       <c r="A80" s="71" t="s">
         <v>555</v>
       </c>
@@ -8093,11 +8093,11 @@
         <v>250</v>
       </c>
       <c r="I80" s="2">
-        <f>F80-J80</f>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
       <c r="J80" s="2">
-        <f>(K80-H80-O80)/2</f>
+        <f t="shared" si="7"/>
         <v>4200</v>
       </c>
       <c r="K80" s="2">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="12.75">
       <c r="A81" s="71" t="s">
         <v>555</v>
       </c>
@@ -8143,11 +8143,11 @@
         <v>250</v>
       </c>
       <c r="I81" s="2">
-        <f>F81-J81</f>
+        <f t="shared" si="6"/>
         <v>1504</v>
       </c>
       <c r="J81" s="2">
-        <f>(K81-H81-O81)/2</f>
+        <f t="shared" si="7"/>
         <v>3175</v>
       </c>
       <c r="K81" s="9">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="12.75">
       <c r="A82" s="71" t="s">
         <v>555</v>
       </c>
@@ -8193,11 +8193,11 @@
         <v>250</v>
       </c>
       <c r="I82" s="2">
-        <f>F82-J82</f>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
       <c r="J82" s="2">
-        <f>(K82-H82-O82)/2</f>
+        <f t="shared" si="7"/>
         <v>4200</v>
       </c>
       <c r="K82" s="2">
@@ -8217,7 +8217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="12.75">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8243,11 +8243,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="2">
-        <f>F83-J83</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="J83" s="2">
-        <f>(K83-H83-O83)/2</f>
+        <f t="shared" si="7"/>
         <v>1550</v>
       </c>
       <c r="K83" s="74">
@@ -8267,7 +8267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="12.75">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -8294,11 +8294,11 @@
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <f>F84-J84</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="J84" s="2">
-        <f>(K84-H84-O84)/2</f>
+        <f t="shared" si="7"/>
         <v>1550</v>
       </c>
       <c r="K84" s="74">
@@ -8318,7 +8318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="12.75">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
@@ -8342,11 +8342,11 @@
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <f>F85-J85</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="J85" s="2">
-        <f>(K85-H85-O85)/2</f>
+        <f t="shared" si="7"/>
         <v>1550</v>
       </c>
       <c r="K85" s="74">
@@ -8366,7 +8366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="12.75">
       <c r="A86" s="4" t="s">
         <v>50</v>
       </c>
@@ -8391,11 +8391,11 @@
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <f>F86-J86</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="J86" s="2">
-        <f>(K86-H86-O86)/2</f>
+        <f t="shared" si="7"/>
         <v>1550</v>
       </c>
       <c r="K86" s="74">
@@ -8415,7 +8415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="12.75">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8441,11 +8441,11 @@
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <f>F87-J87</f>
+        <f t="shared" si="6"/>
         <v>595</v>
       </c>
       <c r="J87" s="2">
-        <f>(K87-H87-O87)/2</f>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="K87" s="74">
@@ -8465,7 +8465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="12.75">
       <c r="A88" s="4" t="s">
         <v>51</v>
       </c>
@@ -8492,11 +8492,11 @@
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <f>F88-J88</f>
+        <f t="shared" si="6"/>
         <v>595</v>
       </c>
       <c r="J88" s="2">
-        <f>(K88-H88-O88)/2</f>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="K88" s="74">
@@ -8516,7 +8516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="12.75">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8542,11 +8542,11 @@
         <v>200</v>
       </c>
       <c r="I89" s="2">
-        <f>F89-J89</f>
+        <f t="shared" si="6"/>
         <v>695</v>
       </c>
       <c r="J89" s="2">
-        <f>(K89-H89-O89)/2</f>
+        <f t="shared" si="7"/>
         <v>1650</v>
       </c>
       <c r="K89" s="74">
@@ -8566,7 +8566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="12.75">
       <c r="A90" s="4" t="s">
         <v>421</v>
       </c>
@@ -8593,11 +8593,11 @@
         <v>200</v>
       </c>
       <c r="I90" s="2">
-        <f>F90-J90</f>
+        <f t="shared" si="6"/>
         <v>695</v>
       </c>
       <c r="J90" s="2">
-        <f>(K90-H90-O90)/2</f>
+        <f t="shared" si="7"/>
         <v>1650</v>
       </c>
       <c r="K90" s="74">
@@ -8617,7 +8617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="12.75">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
@@ -8641,11 +8641,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="2">
-        <f>F91-J91</f>
+        <f t="shared" si="6"/>
         <v>595</v>
       </c>
       <c r="J91" s="2">
-        <f>(K91-H91-O91)/2</f>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="K91" s="74">
@@ -8665,7 +8665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="12.75">
       <c r="A92" s="4" t="s">
         <v>52</v>
       </c>
@@ -8690,11 +8690,11 @@
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <f>F92-J92</f>
+        <f t="shared" si="6"/>
         <v>595</v>
       </c>
       <c r="J92" s="2">
-        <f>(K92-H92-O92)/2</f>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="K92" s="74">
@@ -8714,7 +8714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="12.75">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8740,11 +8740,11 @@
         <v>200</v>
       </c>
       <c r="I93" s="2">
-        <f>F93-J93</f>
+        <f t="shared" si="6"/>
         <v>804</v>
       </c>
       <c r="J93" s="2">
-        <f>(K93-H93-O93)/2</f>
+        <f t="shared" si="7"/>
         <v>2225</v>
       </c>
       <c r="K93" s="74">
@@ -8764,7 +8764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="12.75">
       <c r="A94" s="4" t="s">
         <v>32</v>
       </c>
@@ -8791,11 +8791,11 @@
         <v>200</v>
       </c>
       <c r="I94" s="2">
-        <f>F94-J94</f>
+        <f t="shared" si="6"/>
         <v>804</v>
       </c>
       <c r="J94" s="2">
-        <f>(K94-H94-O94)/2</f>
+        <f t="shared" si="7"/>
         <v>2225</v>
       </c>
       <c r="K94" s="74">
@@ -8815,7 +8815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="12.75">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -8839,11 +8839,11 @@
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <f>F95-J95</f>
+        <f t="shared" si="6"/>
         <v>704</v>
       </c>
       <c r="J95" s="2">
-        <f>(K95-H95-O95)/2</f>
+        <f t="shared" si="7"/>
         <v>2325</v>
       </c>
       <c r="K95" s="74">
@@ -8863,7 +8863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="12.75">
       <c r="A96" s="4" t="s">
         <v>34</v>
       </c>
@@ -8888,11 +8888,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <f>F96-J96</f>
+        <f t="shared" si="6"/>
         <v>704</v>
       </c>
       <c r="J96" s="2">
-        <f>(K96-H96-O96)/2</f>
+        <f t="shared" si="7"/>
         <v>2325</v>
       </c>
       <c r="K96" s="74">
@@ -8912,7 +8912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="12.75">
       <c r="A97" s="4" t="s">
         <v>433</v>
       </c>
@@ -8939,11 +8939,11 @@
         <v>250</v>
       </c>
       <c r="I97" s="2">
-        <f>F97-J97</f>
+        <f t="shared" si="6"/>
         <v>2599</v>
       </c>
       <c r="J97" s="2">
-        <f>(K97-H97-O97)/2</f>
+        <f t="shared" si="7"/>
         <v>3220</v>
       </c>
       <c r="K97" s="2">
@@ -8963,7 +8963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="12.75">
       <c r="A98" s="4" t="s">
         <v>433</v>
       </c>
@@ -8989,11 +8989,11 @@
         <v>250</v>
       </c>
       <c r="I98" s="2">
-        <f>F98-J98</f>
+        <f t="shared" ref="I98:I129" si="8">F98-J98</f>
         <v>1019</v>
       </c>
       <c r="J98" s="2">
-        <f>(K98-H98-O98)/2</f>
+        <f t="shared" ref="J98:J129" si="9">(K98-H98-O98)/2</f>
         <v>4800</v>
       </c>
       <c r="K98" s="2">
@@ -9013,7 +9013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="12.75">
       <c r="A99" s="4" t="s">
         <v>433</v>
       </c>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="26" t="str">
-        <f>"("&amp;C99&amp;")"</f>
+        <f t="shared" ref="D99:D110" si="10">"("&amp;C99&amp;")"</f>
         <v>()</v>
       </c>
       <c r="E99" s="78" t="s">
@@ -9038,11 +9038,11 @@
         <v>250</v>
       </c>
       <c r="I99" s="2">
-        <f>F99-J99</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J99" s="2">
-        <f>(K99-H99-O99)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K99" s="2">
@@ -9062,7 +9062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="12.75">
       <c r="A100" s="4" t="s">
         <v>433</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>461</v>
       </c>
       <c r="D100" s="26" t="str">
-        <f>"("&amp;C100&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CHS-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -9089,11 +9089,11 @@
         <v>250</v>
       </c>
       <c r="I100" s="2">
-        <f>F100-J100</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J100" s="2">
-        <f>(K100-H100-O100)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K100" s="2">
@@ -9113,7 +9113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="12.75">
       <c r="A101" s="4" t="s">
         <v>433</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>458</v>
       </c>
       <c r="D101" s="26" t="str">
-        <f>"("&amp;C101&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CHU-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -9140,11 +9140,11 @@
         <v>250</v>
       </c>
       <c r="I101" s="2">
-        <f>F101-J101</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J101" s="2">
-        <f>(K101-H101-O101)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K101" s="2">
@@ -9164,7 +9164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="12.75">
       <c r="A102" s="4" t="s">
         <v>433</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>473</v>
       </c>
       <c r="D102" s="26" t="str">
-        <f>"("&amp;C102&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(HUM-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -9191,11 +9191,11 @@
         <v>250</v>
       </c>
       <c r="I102" s="2">
-        <f>F102-J102</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J102" s="2">
-        <f>(K102-H102-O102)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K102" s="2">
@@ -9215,7 +9215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="12.75">
       <c r="A103" s="4" t="s">
         <v>433</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>467</v>
       </c>
       <c r="D103" s="26" t="str">
-        <f>"("&amp;C103&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CMP-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -9242,11 +9242,11 @@
         <v>250</v>
       </c>
       <c r="I103" s="2">
-        <f>F103-J103</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J103" s="2">
-        <f>(K103-H103-O103)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K103" s="2">
@@ -9266,7 +9266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="12.75">
       <c r="A104" s="4" t="s">
         <v>433</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>483</v>
       </c>
       <c r="D104" s="26" t="str">
-        <f>"("&amp;C104&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CNH-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -9293,11 +9293,11 @@
         <v>250</v>
       </c>
       <c r="I104" s="2">
-        <f>F104-J104</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J104" s="2">
-        <f>(K104-H104-O104)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K104" s="2">
@@ -9317,7 +9317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="12.75">
       <c r="A105" s="4" t="s">
         <v>433</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>436</v>
       </c>
       <c r="D105" s="26" t="str">
-        <f>"("&amp;C105&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -9344,11 +9344,11 @@
         <v>250</v>
       </c>
       <c r="I105" s="2">
-        <f>F105-J105</f>
+        <f t="shared" si="8"/>
         <v>1019</v>
       </c>
       <c r="J105" s="2">
-        <f>(K105-H105-O105)/2</f>
+        <f t="shared" si="9"/>
         <v>4800</v>
       </c>
       <c r="K105" s="2">
@@ -9368,7 +9368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="12.75">
       <c r="A106" s="4" t="s">
         <v>433</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>477</v>
       </c>
       <c r="D106" s="26" t="str">
-        <f>"("&amp;C106&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(TRI-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E106" s="57" t="s">
@@ -9395,11 +9395,11 @@
         <v>250</v>
       </c>
       <c r="I106" s="2">
-        <f>F106-J106</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J106" s="2">
-        <f>(K106-H106-O106)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K106" s="2">
@@ -9419,7 +9419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="12.75">
       <c r="A107" s="4" t="s">
         <v>433</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>464</v>
       </c>
       <c r="D107" s="26" t="str">
-        <f>"("&amp;C107&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CTH-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -9446,11 +9446,11 @@
         <v>250</v>
       </c>
       <c r="I107" s="2">
-        <f>F107-J107</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J107" s="2">
-        <f>(K107-H107-O107)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K107" s="2">
@@ -9470,7 +9470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="12.75">
       <c r="A108" s="4" t="s">
         <v>433</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>480</v>
       </c>
       <c r="D108" s="26" t="str">
-        <f>"("&amp;C108&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(VTD-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -9497,11 +9497,11 @@
         <v>250</v>
       </c>
       <c r="I108" s="2">
-        <f>F108-J108</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J108" s="2">
-        <f>(K108-H108-O108)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K108" s="2">
@@ -9521,7 +9521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="12.75">
       <c r="A109" s="4" t="s">
         <v>433</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>455</v>
       </c>
       <c r="D109" s="26" t="str">
-        <f>"("&amp;C109&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CWC-HI-SER17-62SDRWC)</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -9548,11 +9548,11 @@
         <v>250</v>
       </c>
       <c r="I109" s="2">
-        <f>F109-J109</f>
+        <f t="shared" si="8"/>
         <v>2599</v>
       </c>
       <c r="J109" s="2">
-        <f>(K109-H109-O109)/2</f>
+        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
       <c r="K109" s="2">
@@ -9572,7 +9572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="12.75">
       <c r="A110" s="4" t="s">
         <v>434</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>471</v>
       </c>
       <c r="D110" s="26" t="str">
-        <f>"("&amp;C110&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>(CAM-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -9599,11 +9599,11 @@
         <v>250</v>
       </c>
       <c r="I110" s="2">
-        <f>F110-J110</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J110" s="2">
-        <f>(K110-H110-O110)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K110" s="2">
@@ -9623,7 +9623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="12.75">
       <c r="A111" s="4" t="s">
         <v>434</v>
       </c>
@@ -9649,11 +9649,11 @@
         <v>250</v>
       </c>
       <c r="I111" s="2">
-        <f>F111-J111</f>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="J111" s="2">
-        <f>(K111-H111-O111)/2</f>
+        <f t="shared" si="9"/>
         <v>3470</v>
       </c>
       <c r="K111" s="2">
@@ -9673,7 +9673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="12.75">
       <c r="A112" s="4" t="s">
         <v>434</v>
       </c>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="26" t="str">
-        <f>"("&amp;C112&amp;")"</f>
+        <f t="shared" ref="D112:D123" si="11">"("&amp;C112&amp;")"</f>
         <v>()</v>
       </c>
       <c r="E112" s="78" t="s">
@@ -9698,11 +9698,11 @@
         <v>250</v>
       </c>
       <c r="I112" s="2">
-        <f>F112-J112</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J112" s="2">
-        <f>(K112-H112-O112)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K112" s="2">
@@ -9722,7 +9722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="12.75">
       <c r="A113" s="4" t="s">
         <v>434</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>462</v>
       </c>
       <c r="D113" s="26" t="str">
-        <f>"("&amp;C113&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CHS-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -9749,11 +9749,11 @@
         <v>250</v>
       </c>
       <c r="I113" s="2">
-        <f>F113-J113</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J113" s="2">
-        <f>(K113-H113-O113)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K113" s="2">
@@ -9773,7 +9773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="12.75">
       <c r="A114" s="4" t="s">
         <v>434</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>459</v>
       </c>
       <c r="D114" s="26" t="str">
-        <f>"("&amp;C114&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CHU-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -9800,11 +9800,11 @@
         <v>250</v>
       </c>
       <c r="I114" s="2">
-        <f>F114-J114</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J114" s="2">
-        <f>(K114-H114-O114)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K114" s="2">
@@ -9824,7 +9824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="12.75">
       <c r="A115" s="4" t="s">
         <v>434</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>474</v>
       </c>
       <c r="D115" s="26" t="str">
-        <f>"("&amp;C115&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(HUM-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -9851,11 +9851,11 @@
         <v>250</v>
       </c>
       <c r="I115" s="2">
-        <f>F115-J115</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J115" s="2">
-        <f>(K115-H115-O115)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K115" s="2">
@@ -9875,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="12.75">
       <c r="A116" s="4" t="s">
         <v>434</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>468</v>
       </c>
       <c r="D116" s="26" t="str">
-        <f>"("&amp;C116&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CMP-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -9902,11 +9902,11 @@
         <v>250</v>
       </c>
       <c r="I116" s="2">
-        <f>F116-J116</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J116" s="2">
-        <f>(K116-H116-O116)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K116" s="2">
@@ -9926,7 +9926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="12.75">
       <c r="A117" s="4" t="s">
         <v>434</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>484</v>
       </c>
       <c r="D117" s="26" t="str">
-        <f>"("&amp;C117&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CNH-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -9953,11 +9953,11 @@
         <v>250</v>
       </c>
       <c r="I117" s="2">
-        <f>F117-J117</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J117" s="2">
-        <f>(K117-H117-O117)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K117" s="2">
@@ -9977,7 +9977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="12.75">
       <c r="A118" s="4" t="s">
         <v>434</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>437</v>
       </c>
       <c r="D118" s="26" t="str">
-        <f>"("&amp;C118&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(REG-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -10004,11 +10004,11 @@
         <v>250</v>
       </c>
       <c r="I118" s="2">
-        <f>F118-J118</f>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="J118" s="2">
-        <f>(K118-H118-O118)/2</f>
+        <f t="shared" si="9"/>
         <v>3470</v>
       </c>
       <c r="K118" s="2">
@@ -10028,7 +10028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="12.75">
       <c r="A119" s="4" t="s">
         <v>434</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>478</v>
       </c>
       <c r="D119" s="26" t="str">
-        <f>"("&amp;C119&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(TRI-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E119" s="57" t="s">
@@ -10055,11 +10055,11 @@
         <v>250</v>
       </c>
       <c r="I119" s="2">
-        <f>F119-J119</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J119" s="2">
-        <f>(K119-H119-O119)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K119" s="2">
@@ -10079,7 +10079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="12.75">
       <c r="A120" s="4" t="s">
         <v>434</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>465</v>
       </c>
       <c r="D120" s="26" t="str">
-        <f>"("&amp;C120&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CTH-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -10106,11 +10106,11 @@
         <v>250</v>
       </c>
       <c r="I120" s="2">
-        <f>F120-J120</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J120" s="2">
-        <f>(K120-H120-O120)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K120" s="2">
@@ -10130,7 +10130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="12.75">
       <c r="A121" s="4" t="s">
         <v>434</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>481</v>
       </c>
       <c r="D121" s="26" t="str">
-        <f>"("&amp;C121&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(VTD-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -10157,11 +10157,11 @@
         <v>250</v>
       </c>
       <c r="I121" s="2">
-        <f>F121-J121</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J121" s="2">
-        <f>(K121-H121-O121)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K121" s="2">
@@ -10181,7 +10181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="12.75">
       <c r="A122" s="4" t="s">
         <v>434</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>456</v>
       </c>
       <c r="D122" s="26" t="str">
-        <f>"("&amp;C122&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CWC-HI-SER6-62SDRWC)</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -10208,11 +10208,11 @@
         <v>250</v>
       </c>
       <c r="I122" s="2">
-        <f>F122-J122</f>
+        <f t="shared" si="8"/>
         <v>1369</v>
       </c>
       <c r="J122" s="2">
-        <f>(K122-H122-O122)/2</f>
+        <f t="shared" si="9"/>
         <v>2320</v>
       </c>
       <c r="K122" s="2">
@@ -10232,7 +10232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="12.75">
       <c r="A123" s="4" t="s">
         <v>435</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>472</v>
       </c>
       <c r="D123" s="26" t="str">
-        <f>"("&amp;C123&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>(CAM-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -10259,11 +10259,11 @@
         <v>250</v>
       </c>
       <c r="I123" s="2">
-        <f>F123-J123</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J123" s="2">
-        <f>(K123-H123-O123)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K123" s="2">
@@ -10283,7 +10283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="12.75">
       <c r="A124" s="4" t="s">
         <v>435</v>
       </c>
@@ -10309,11 +10309,11 @@
         <v>250</v>
       </c>
       <c r="I124" s="2">
-        <f>F124-J124</f>
+        <f t="shared" si="8"/>
         <v>479</v>
       </c>
       <c r="J124" s="2">
-        <f>(K124-H124-O124)/2</f>
+        <f t="shared" si="9"/>
         <v>4200</v>
       </c>
       <c r="K124" s="2">
@@ -10333,7 +10333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="12.75">
       <c r="A125" s="4" t="s">
         <v>435</v>
       </c>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="26" t="str">
-        <f>"("&amp;C125&amp;")"</f>
+        <f t="shared" ref="D125:D135" si="12">"("&amp;C125&amp;")"</f>
         <v>()</v>
       </c>
       <c r="E125" s="78" t="s">
@@ -10358,11 +10358,11 @@
         <v>250</v>
       </c>
       <c r="I125" s="2">
-        <f>F125-J125</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J125" s="2">
-        <f>(K125-H125-O125)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K125" s="2">
@@ -10382,7 +10382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="12.75">
       <c r="A126" s="4" t="s">
         <v>435</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>463</v>
       </c>
       <c r="D126" s="26" t="str">
-        <f>"("&amp;C126&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CHS-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -10409,11 +10409,11 @@
         <v>250</v>
       </c>
       <c r="I126" s="2">
-        <f>F126-J126</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J126" s="2">
-        <f>(K126-H126-O126)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K126" s="2">
@@ -10433,7 +10433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="12.75">
       <c r="A127" s="4" t="s">
         <v>435</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>460</v>
       </c>
       <c r="D127" s="26" t="str">
-        <f>"("&amp;C127&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CHU-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -10460,11 +10460,11 @@
         <v>250</v>
       </c>
       <c r="I127" s="2">
-        <f>F127-J127</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J127" s="2">
-        <f>(K127-H127-O127)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K127" s="2">
@@ -10484,7 +10484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="12.75">
       <c r="A128" s="4" t="s">
         <v>435</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>475</v>
       </c>
       <c r="D128" s="26" t="str">
-        <f>"("&amp;C128&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(HUM-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -10511,11 +10511,11 @@
         <v>250</v>
       </c>
       <c r="I128" s="2">
-        <f>F128-J128</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J128" s="2">
-        <f>(K128-H128-O128)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K128" s="2">
@@ -10535,7 +10535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:16" ht="12.75">
       <c r="A129" s="4" t="s">
         <v>435</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>469</v>
       </c>
       <c r="D129" s="26" t="str">
-        <f>"("&amp;C129&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CMP-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -10562,11 +10562,11 @@
         <v>250</v>
       </c>
       <c r="I129" s="2">
-        <f>F129-J129</f>
+        <f t="shared" si="8"/>
         <v>1959</v>
       </c>
       <c r="J129" s="2">
-        <f>(K129-H129-O129)/2</f>
+        <f t="shared" si="9"/>
         <v>2720</v>
       </c>
       <c r="K129" s="2">
@@ -10586,7 +10586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:16" ht="12.75">
       <c r="A130" s="4" t="s">
         <v>435</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>485</v>
       </c>
       <c r="D130" s="26" t="str">
-        <f>"("&amp;C130&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CNH-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -10613,11 +10613,11 @@
         <v>250</v>
       </c>
       <c r="I130" s="2">
-        <f>F130-J130</f>
+        <f t="shared" ref="I130:I161" si="13">F130-J130</f>
         <v>1959</v>
       </c>
       <c r="J130" s="2">
-        <f>(K130-H130-O130)/2</f>
+        <f t="shared" ref="J130:J161" si="14">(K130-H130-O130)/2</f>
         <v>2720</v>
       </c>
       <c r="K130" s="2">
@@ -10637,7 +10637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:16" ht="12.75">
       <c r="A131" s="4" t="s">
         <v>435</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>438</v>
       </c>
       <c r="D131" s="26" t="str">
-        <f>"("&amp;C131&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(REG-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -10664,11 +10664,11 @@
         <v>250</v>
       </c>
       <c r="I131" s="2">
-        <f>F131-J131</f>
+        <f t="shared" si="13"/>
         <v>479</v>
       </c>
       <c r="J131" s="2">
-        <f>(K131-H131-O131)/2</f>
+        <f t="shared" si="14"/>
         <v>4200</v>
       </c>
       <c r="K131" s="2">
@@ -10688,7 +10688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:16" ht="12.75">
       <c r="A132" s="4" t="s">
         <v>435</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>479</v>
       </c>
       <c r="D132" s="26" t="str">
-        <f>"("&amp;C132&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(TRI-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E132" s="57" t="s">
@@ -10715,11 +10715,11 @@
         <v>250</v>
       </c>
       <c r="I132" s="2">
-        <f>F132-J132</f>
+        <f t="shared" si="13"/>
         <v>1959</v>
       </c>
       <c r="J132" s="2">
-        <f>(K132-H132-O132)/2</f>
+        <f t="shared" si="14"/>
         <v>2720</v>
       </c>
       <c r="K132" s="2">
@@ -10739,7 +10739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:16" ht="12.75">
       <c r="A133" s="4" t="s">
         <v>435</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>466</v>
       </c>
       <c r="D133" s="26" t="str">
-        <f>"("&amp;C133&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CTH-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -10766,11 +10766,11 @@
         <v>250</v>
       </c>
       <c r="I133" s="2">
-        <f>F133-J133</f>
+        <f t="shared" si="13"/>
         <v>1959</v>
       </c>
       <c r="J133" s="2">
-        <f>(K133-H133-O133)/2</f>
+        <f t="shared" si="14"/>
         <v>2720</v>
       </c>
       <c r="K133" s="2">
@@ -10790,7 +10790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:16" ht="12.75">
       <c r="A134" s="4" t="s">
         <v>435</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>482</v>
       </c>
       <c r="D134" s="26" t="str">
-        <f>"("&amp;C134&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(VTD-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -10817,11 +10817,11 @@
         <v>250</v>
       </c>
       <c r="I134" s="2">
-        <f>F134-J134</f>
+        <f t="shared" si="13"/>
         <v>1959</v>
       </c>
       <c r="J134" s="2">
-        <f>(K134-H134-O134)/2</f>
+        <f t="shared" si="14"/>
         <v>2720</v>
       </c>
       <c r="K134" s="2">
@@ -10841,7 +10841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:16" ht="12.75">
       <c r="A135" s="4" t="s">
         <v>435</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>457</v>
       </c>
       <c r="D135" s="26" t="str">
-        <f>"("&amp;C135&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>(CWC-HI-SER9-62SDRWC)</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -10868,11 +10868,11 @@
         <v>250</v>
       </c>
       <c r="I135" s="2">
-        <f>F135-J135</f>
+        <f t="shared" si="13"/>
         <v>1959</v>
       </c>
       <c r="J135" s="2">
-        <f>(K135-H135-O135)/2</f>
+        <f t="shared" si="14"/>
         <v>2720</v>
       </c>
       <c r="K135" s="2">
@@ -10892,7 +10892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:16" ht="12.75">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -10910,7 +10910,7 @@
       <c r="O136" s="16"/>
       <c r="P136" s="9"/>
     </row>
-    <row r="137" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:16" ht="12.75">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -10928,7 +10928,7 @@
       <c r="O137" s="16"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:16" ht="12.75">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -10946,7 +10946,7 @@
       <c r="O138" s="16"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:16" ht="12.75">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -10964,7 +10964,7 @@
       <c r="O139" s="16"/>
       <c r="P139" s="9"/>
     </row>
-    <row r="140" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:16" ht="12.75">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -10982,7 +10982,7 @@
       <c r="O140" s="16"/>
       <c r="P140" s="9"/>
     </row>
-    <row r="141" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:16" ht="12.75">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -11000,7 +11000,7 @@
       <c r="O141" s="16"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:16" ht="12.75">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -11018,7 +11018,7 @@
       <c r="O142" s="16"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:16" ht="12.75">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -11036,7 +11036,7 @@
       <c r="O143" s="16"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:16" ht="12.75">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -11054,7 +11054,7 @@
       <c r="O144" s="16"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:16" ht="12.75">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -11072,7 +11072,7 @@
       <c r="O145" s="16"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:16" ht="12.75">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -11090,7 +11090,7 @@
       <c r="O146" s="16"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:16" ht="12.75">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -11108,7 +11108,7 @@
       <c r="O147" s="16"/>
       <c r="P147" s="9"/>
     </row>
-    <row r="148" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:16" ht="12.75">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -11126,7 +11126,7 @@
       <c r="O148" s="16"/>
       <c r="P148" s="9"/>
     </row>
-    <row r="149" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:16" ht="12.75">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -11144,7 +11144,7 @@
       <c r="O149" s="16"/>
       <c r="P149" s="9"/>
     </row>
-    <row r="150" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:16" ht="12.75">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -11162,7 +11162,7 @@
       <c r="O150" s="16"/>
       <c r="P150" s="9"/>
     </row>
-    <row r="151" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:16" ht="12.75">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -11180,7 +11180,7 @@
       <c r="O151" s="16"/>
       <c r="P151" s="9"/>
     </row>
-    <row r="152" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:16" ht="12.75">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -11198,7 +11198,7 @@
       <c r="O152" s="16"/>
       <c r="P152" s="9"/>
     </row>
-    <row r="153" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:16" ht="12.75">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -11216,7 +11216,7 @@
       <c r="O153" s="16"/>
       <c r="P153" s="9"/>
     </row>
-    <row r="154" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:16" ht="12.75">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="55"/>
@@ -11234,7 +11234,7 @@
       <c r="O154" s="2"/>
       <c r="P154" s="20"/>
     </row>
-    <row r="155" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:16" ht="12.75">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="55"/>
@@ -11252,7 +11252,7 @@
       <c r="O155" s="2"/>
       <c r="P155" s="20"/>
     </row>
-    <row r="156" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:16" ht="12.75">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="55"/>
@@ -11270,7 +11270,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="20"/>
     </row>
-    <row r="157" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:16" ht="12.75">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -11288,7 +11288,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="20"/>
     </row>
-    <row r="158" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:16" ht="12.75">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -11306,7 +11306,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="20"/>
     </row>
-    <row r="159" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:16" ht="12.75">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -11324,7 +11324,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="20"/>
     </row>
-    <row r="160" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:16" ht="12.75">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -11342,7 +11342,7 @@
       <c r="O160" s="16"/>
       <c r="P160" s="9"/>
     </row>
-    <row r="161" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:16" ht="12.75">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -11360,7 +11360,7 @@
       <c r="O161" s="16"/>
       <c r="P161" s="9"/>
     </row>
-    <row r="162" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:16" ht="12.75">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -11378,7 +11378,7 @@
       <c r="O162" s="16"/>
       <c r="P162" s="9"/>
     </row>
-    <row r="163" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:16" ht="12.75">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -11396,7 +11396,7 @@
       <c r="O163" s="16"/>
       <c r="P163" s="9"/>
     </row>
-    <row r="164" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:16" ht="12.75">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -11414,7 +11414,7 @@
       <c r="O164" s="16"/>
       <c r="P164" s="9"/>
     </row>
-    <row r="165" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:16" ht="12.75">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -11432,7 +11432,7 @@
       <c r="O165" s="16"/>
       <c r="P165" s="9"/>
     </row>
-    <row r="166" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:16" ht="12.75">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -11450,7 +11450,7 @@
       <c r="O166" s="16"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:16" ht="12.75">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -11468,7 +11468,7 @@
       <c r="O167" s="16"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:16" ht="12.75">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -11486,7 +11486,7 @@
       <c r="O168" s="16"/>
       <c r="P168" s="9"/>
     </row>
-    <row r="169" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:16" ht="12.75">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -11504,7 +11504,7 @@
       <c r="O169" s="16"/>
       <c r="P169" s="9"/>
     </row>
-    <row r="170" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:16" ht="12.75">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -11522,7 +11522,7 @@
       <c r="O170" s="16"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:16" ht="12.75">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -11540,7 +11540,7 @@
       <c r="O171" s="16"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:16" ht="12.75">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -11558,7 +11558,7 @@
       <c r="O172" s="16"/>
       <c r="P172" s="9"/>
     </row>
-    <row r="173" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:16" ht="12.75">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -11576,7 +11576,7 @@
       <c r="O173" s="16"/>
       <c r="P173" s="9"/>
     </row>
-    <row r="174" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:16" ht="12.75">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -11594,7 +11594,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="20"/>
     </row>
-    <row r="175" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:16" ht="12.75">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -11612,7 +11612,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="20"/>
     </row>
-    <row r="176" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:16" ht="12.75">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -11630,7 +11630,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="20"/>
     </row>
-    <row r="177" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:16" ht="12.75">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -11648,7 +11648,7 @@
       <c r="O177" s="16"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:16" ht="12.75">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -11666,7 +11666,7 @@
       <c r="O178" s="16"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:16" ht="12.75">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -11684,7 +11684,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="20"/>
     </row>
-    <row r="180" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:16" ht="12.75">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -11702,7 +11702,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="20"/>
     </row>
-    <row r="181" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:16" ht="12.75">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -11720,7 +11720,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="20"/>
     </row>
-    <row r="182" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:16" ht="12.75">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -11738,7 +11738,7 @@
       <c r="O182" s="16"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:16" ht="12.75">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -11756,7 +11756,7 @@
       <c r="O183" s="16"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:16" ht="12.75">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -11774,7 +11774,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="20"/>
     </row>
-    <row r="185" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:16" ht="12.75">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -11792,7 +11792,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="20"/>
     </row>
-    <row r="186" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:16" ht="12.75">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -11810,7 +11810,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="20"/>
     </row>
-    <row r="187" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:16" ht="12.75">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -11828,7 +11828,7 @@
       <c r="O187" s="16"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:16" ht="12.75">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -11846,7 +11846,7 @@
       <c r="O188" s="16"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:16" ht="12.75">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -11864,7 +11864,7 @@
       <c r="O189" s="16"/>
       <c r="P189" s="9"/>
     </row>
-    <row r="190" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:16" ht="12.75">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -11882,7 +11882,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:16" ht="12.75">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -11900,7 +11900,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:16" ht="12.75">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11918,7 +11918,7 @@
       <c r="O192" s="16"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:17" ht="12.75">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -11936,7 +11936,7 @@
       <c r="O193" s="16"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:17" ht="12.75">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -11954,7 +11954,7 @@
       <c r="O194" s="16"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:17" ht="12.75">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -11973,7 +11973,7 @@
       <c r="P195" s="9"/>
       <c r="Q195" s="41"/>
     </row>
-    <row r="196" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:17" ht="12.75">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="55"/>
@@ -11992,7 +11992,7 @@
       <c r="P196" s="20"/>
       <c r="Q196" s="41"/>
     </row>
-    <row r="197" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:17" ht="12.75">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="55"/>
@@ -12011,7 +12011,7 @@
       <c r="P197" s="20"/>
       <c r="Q197" s="41"/>
     </row>
-    <row r="198" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:17" ht="12.75">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="55"/>
@@ -12029,7 +12029,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="20"/>
     </row>
-    <row r="199" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:17" ht="12.75">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12047,7 +12047,7 @@
       <c r="O199" s="2"/>
       <c r="P199" s="20"/>
     </row>
-    <row r="200" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:17" ht="12.75">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12065,7 +12065,7 @@
       <c r="O200" s="2"/>
       <c r="P200" s="20"/>
     </row>
-    <row r="201" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:17" ht="12.75">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12083,7 +12083,7 @@
       <c r="O201" s="2"/>
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:17" ht="12.75">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12101,7 +12101,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:17" ht="12.75">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12119,7 +12119,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:17" ht="12.75">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12137,7 +12137,7 @@
       <c r="O204" s="16"/>
       <c r="P204" s="9"/>
     </row>
-    <row r="205" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:17" ht="12.75">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12155,7 +12155,7 @@
       <c r="O205" s="16"/>
       <c r="P205" s="9"/>
     </row>
-    <row r="206" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:17" ht="12.75">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="O206" s="16"/>
       <c r="P206" s="9"/>
     </row>
-    <row r="207" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:17" ht="12.75">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12191,7 +12191,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="9"/>
     </row>
-    <row r="208" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:17" ht="12.75">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12209,7 +12209,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:16" ht="12.75">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -12227,7 +12227,7 @@
       <c r="O209" s="16"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:16" ht="12.75">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -12245,7 +12245,7 @@
       <c r="O210" s="16"/>
       <c r="P210" s="9"/>
     </row>
-    <row r="211" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:16" ht="12.75">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -12263,7 +12263,7 @@
       <c r="O211" s="16"/>
       <c r="P211" s="9"/>
     </row>
-    <row r="212" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:16" ht="12.75">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -12281,7 +12281,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:16" ht="12.75">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -12299,7 +12299,7 @@
       <c r="O213" s="16"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:16" ht="12.75">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -12317,7 +12317,7 @@
       <c r="O214" s="16"/>
       <c r="P214" s="9"/>
     </row>
-    <row r="215" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:16" ht="12.75">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12335,7 +12335,7 @@
       <c r="O215" s="16"/>
       <c r="P215" s="9"/>
     </row>
-    <row r="216" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:16" ht="12.75">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -12353,7 +12353,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:16" ht="12.75">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -12371,7 +12371,7 @@
       <c r="O217" s="2"/>
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:16" ht="12.75">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -12389,7 +12389,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="20"/>
     </row>
-    <row r="219" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:16" ht="12.75">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12407,7 +12407,7 @@
       <c r="O219" s="16"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:16" ht="12.75">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -12425,7 +12425,7 @@
       <c r="O220" s="16"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:16" ht="12.75">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -12443,7 +12443,7 @@
       <c r="O221" s="2"/>
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:16" ht="12.75">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -12461,7 +12461,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="20"/>
     </row>
-    <row r="223" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:16" ht="12.75">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -12479,7 +12479,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="20"/>
     </row>
-    <row r="224" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:16" ht="12.75">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -12497,7 +12497,7 @@
       <c r="O224" s="16"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:16" ht="12.75">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12515,7 +12515,7 @@
       <c r="O225" s="16"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:16" ht="12.75">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -12533,7 +12533,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="20"/>
     </row>
-    <row r="227" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:16" ht="12.75">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -12551,7 +12551,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="20"/>
     </row>
-    <row r="228" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:16" ht="12.75">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -12569,7 +12569,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:16" ht="12.75">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -12587,7 +12587,7 @@
       <c r="O229" s="16"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:16" ht="12.75">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -12605,7 +12605,7 @@
       <c r="O230" s="16"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:16" ht="12.75">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -12623,7 +12623,7 @@
       <c r="O231" s="16"/>
       <c r="P231" s="9"/>
     </row>
-    <row r="232" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:16" ht="12.75">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -12641,7 +12641,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:16" ht="12.75">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -12659,7 +12659,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:16" ht="12.75">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -12677,7 +12677,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:16" ht="12.75">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -12695,7 +12695,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:16" ht="12.75">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -12713,7 +12713,7 @@
       <c r="O236" s="16"/>
       <c r="P236" s="9"/>
     </row>
-    <row r="237" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:16" ht="12.75">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -12731,7 +12731,7 @@
       <c r="O237" s="16"/>
       <c r="P237" s="9"/>
     </row>
-    <row r="238" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:16" ht="12.75">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -12749,7 +12749,7 @@
       <c r="O238" s="16"/>
       <c r="P238" s="9"/>
     </row>
-    <row r="239" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:16" ht="12.75">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="55"/>
@@ -12767,7 +12767,7 @@
       <c r="O239" s="2"/>
       <c r="P239" s="20"/>
     </row>
-    <row r="240" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:16" ht="12.75">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="55"/>
@@ -12785,7 +12785,7 @@
       <c r="O240" s="2"/>
       <c r="P240" s="20"/>
     </row>
-    <row r="241" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:16" ht="12.75">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="55"/>
@@ -12803,7 +12803,7 @@
       <c r="O241" s="2"/>
       <c r="P241" s="20"/>
     </row>
-    <row r="242" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:16" ht="12.75">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -12821,7 +12821,7 @@
       <c r="O242" s="41"/>
       <c r="P242" s="41"/>
     </row>
-    <row r="243" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:16" ht="12.75">
       <c r="A243" s="59"/>
       <c r="B243" s="59"/>
       <c r="C243" s="59"/>
@@ -12839,7 +12839,7 @@
       <c r="O243" s="63"/>
       <c r="P243" s="61"/>
     </row>
-    <row r="244" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:16" ht="12.75">
       <c r="A244" s="59"/>
       <c r="B244" s="59"/>
       <c r="C244" s="59"/>
@@ -12857,7 +12857,7 @@
       <c r="O244" s="63"/>
       <c r="P244" s="61"/>
     </row>
-    <row r="245" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:16" ht="12.75">
       <c r="A245" s="59"/>
       <c r="B245" s="59"/>
       <c r="C245" s="59"/>
@@ -12875,7 +12875,7 @@
       <c r="O245" s="63"/>
       <c r="P245" s="61"/>
     </row>
-    <row r="246" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:16" ht="12.75">
       <c r="A246" s="59"/>
       <c r="B246" s="59"/>
       <c r="C246" s="59"/>
@@ -12893,7 +12893,7 @@
       <c r="O246" s="63"/>
       <c r="P246" s="61"/>
     </row>
-    <row r="247" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:16" ht="12.75">
       <c r="A247" s="59"/>
       <c r="B247" s="59"/>
       <c r="C247" s="59"/>
@@ -12911,7 +12911,7 @@
       <c r="O247" s="63"/>
       <c r="P247" s="61"/>
     </row>
-    <row r="248" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:16" ht="12.75">
       <c r="A248" s="59"/>
       <c r="B248" s="59"/>
       <c r="C248" s="59"/>
@@ -12929,7 +12929,7 @@
       <c r="O248" s="63"/>
       <c r="P248" s="61"/>
     </row>
-    <row r="249" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:16" ht="12.75">
       <c r="A249" s="59"/>
       <c r="B249" s="59"/>
       <c r="C249" s="59"/>
@@ -12947,7 +12947,7 @@
       <c r="O249" s="63"/>
       <c r="P249" s="61"/>
     </row>
-    <row r="250" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:16" ht="12.75">
       <c r="A250" s="59"/>
       <c r="B250" s="59"/>
       <c r="C250" s="59"/>
@@ -12965,7 +12965,7 @@
       <c r="O250" s="63"/>
       <c r="P250" s="61"/>
     </row>
-    <row r="251" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:16" ht="12.75">
       <c r="A251" s="59"/>
       <c r="B251" s="59"/>
       <c r="C251" s="59"/>
@@ -12983,7 +12983,7 @@
       <c r="O251" s="63"/>
       <c r="P251" s="61"/>
     </row>
-    <row r="252" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:16" ht="12.75">
       <c r="A252" s="59"/>
       <c r="B252" s="59"/>
       <c r="C252" s="59"/>
@@ -13001,7 +13001,7 @@
       <c r="O252" s="63"/>
       <c r="P252" s="61"/>
     </row>
-    <row r="253" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:16" ht="12.75">
       <c r="A253" s="59"/>
       <c r="B253" s="59"/>
       <c r="C253" s="59"/>
@@ -13019,7 +13019,7 @@
       <c r="O253" s="63"/>
       <c r="P253" s="61"/>
     </row>
-    <row r="254" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:16" ht="12.75">
       <c r="A254" s="59"/>
       <c r="B254" s="59"/>
       <c r="C254" s="59"/>
@@ -13037,7 +13037,7 @@
       <c r="O254" s="63"/>
       <c r="P254" s="61"/>
     </row>
-    <row r="255" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:16" ht="12.75">
       <c r="A255" s="59"/>
       <c r="B255" s="59"/>
       <c r="C255" s="59"/>
@@ -13055,7 +13055,7 @@
       <c r="O255" s="63"/>
       <c r="P255" s="61"/>
     </row>
-    <row r="256" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:16" ht="12.75">
       <c r="A256" s="59"/>
       <c r="B256" s="59"/>
       <c r="C256" s="59"/>
@@ -13073,7 +13073,7 @@
       <c r="O256" s="63"/>
       <c r="P256" s="61"/>
     </row>
-    <row r="257" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:16" ht="12.75">
       <c r="A257" s="59"/>
       <c r="B257" s="59"/>
       <c r="C257" s="59"/>
@@ -13091,7 +13091,7 @@
       <c r="O257" s="63"/>
       <c r="P257" s="61"/>
     </row>
-    <row r="258" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:16" ht="12.75">
       <c r="A258" s="59"/>
       <c r="B258" s="59"/>
       <c r="C258" s="59"/>
@@ -13109,7 +13109,7 @@
       <c r="O258" s="63"/>
       <c r="P258" s="61"/>
     </row>
-    <row r="259" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:16" ht="12.75">
       <c r="A259" s="59"/>
       <c r="B259" s="59"/>
       <c r="C259" s="59"/>
@@ -13127,7 +13127,7 @@
       <c r="O259" s="63"/>
       <c r="P259" s="61"/>
     </row>
-    <row r="260" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:16" ht="12.75">
       <c r="A260" s="59"/>
       <c r="B260" s="59"/>
       <c r="C260" s="59"/>
@@ -13145,7 +13145,7 @@
       <c r="O260" s="63"/>
       <c r="P260" s="61"/>
     </row>
-    <row r="261" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:16" ht="12.75">
       <c r="A261" s="59"/>
       <c r="B261" s="59"/>
       <c r="C261" s="59"/>
@@ -13163,7 +13163,7 @@
       <c r="O261" s="63"/>
       <c r="P261" s="61"/>
     </row>
-    <row r="262" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:16" ht="12.75">
       <c r="A262" s="59"/>
       <c r="B262" s="59"/>
       <c r="C262" s="59"/>
@@ -13181,7 +13181,7 @@
       <c r="O262" s="63"/>
       <c r="P262" s="61"/>
     </row>
-    <row r="263" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:16" ht="12.75">
       <c r="A263" s="59"/>
       <c r="B263" s="59"/>
       <c r="C263" s="59"/>
@@ -13199,7 +13199,7 @@
       <c r="O263" s="63"/>
       <c r="P263" s="61"/>
     </row>
-    <row r="264" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:16" ht="12.75">
       <c r="A264" s="59"/>
       <c r="B264" s="59"/>
       <c r="C264" s="59"/>
@@ -13217,7 +13217,7 @@
       <c r="O264" s="63"/>
       <c r="P264" s="61"/>
     </row>
-    <row r="265" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:16" ht="12.75">
       <c r="A265" s="59"/>
       <c r="B265" s="59"/>
       <c r="C265" s="59"/>
@@ -13235,7 +13235,7 @@
       <c r="O265" s="63"/>
       <c r="P265" s="61"/>
     </row>
-    <row r="266" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:16" ht="12.75">
       <c r="A266" s="59"/>
       <c r="B266" s="59"/>
       <c r="C266" s="59"/>
@@ -13253,7 +13253,7 @@
       <c r="O266" s="63"/>
       <c r="P266" s="61"/>
     </row>
-    <row r="267" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:16" ht="12.75">
       <c r="A267" s="59"/>
       <c r="B267" s="59"/>
       <c r="C267" s="59"/>
@@ -13271,7 +13271,7 @@
       <c r="O267" s="63"/>
       <c r="P267" s="61"/>
     </row>
-    <row r="268" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:16" ht="12.75">
       <c r="A268" s="59"/>
       <c r="B268" s="59"/>
       <c r="C268" s="59"/>
@@ -13289,7 +13289,7 @@
       <c r="O268" s="63"/>
       <c r="P268" s="61"/>
     </row>
-    <row r="269" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:16" ht="12.75">
       <c r="A269" s="59"/>
       <c r="B269" s="59"/>
       <c r="C269" s="59"/>
@@ -13307,7 +13307,7 @@
       <c r="O269" s="63"/>
       <c r="P269" s="61"/>
     </row>
-    <row r="270" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:16" ht="12.75">
       <c r="A270" s="59"/>
       <c r="B270" s="59"/>
       <c r="C270" s="59"/>
@@ -13325,7 +13325,7 @@
       <c r="O270" s="63"/>
       <c r="P270" s="61"/>
     </row>
-    <row r="271" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:16" ht="12.75">
       <c r="A271" s="59"/>
       <c r="B271" s="59"/>
       <c r="C271" s="59"/>
@@ -13343,7 +13343,7 @@
       <c r="O271" s="63"/>
       <c r="P271" s="61"/>
     </row>
-    <row r="272" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:16" ht="12.75">
       <c r="A272" s="59"/>
       <c r="B272" s="59"/>
       <c r="C272" s="59"/>
@@ -13361,7 +13361,7 @@
       <c r="O272" s="63"/>
       <c r="P272" s="61"/>
     </row>
-    <row r="273" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:16" ht="12.75">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -13379,7 +13379,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:16" ht="12.75">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -13397,7 +13397,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:16" ht="12.75">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -13415,7 +13415,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:16" ht="12.75">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -13433,7 +13433,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:16" ht="12.75">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -13451,7 +13451,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:16" ht="12.75">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -13469,7 +13469,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:16" ht="12.75">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -13487,7 +13487,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:16" ht="12.75">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -13505,7 +13505,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:16" ht="12.75">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -13523,7 +13523,7 @@
       <c r="O281" s="63"/>
       <c r="P281" s="61"/>
     </row>
-    <row r="282" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:16" ht="12.75">
       <c r="A282" s="59"/>
       <c r="B282" s="59"/>
       <c r="C282" s="59"/>
@@ -13541,7 +13541,7 @@
       <c r="O282" s="63"/>
       <c r="P282" s="61"/>
     </row>
-    <row r="283" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:16" ht="12.75">
       <c r="A283" s="59"/>
       <c r="B283" s="59"/>
       <c r="C283" s="59"/>
@@ -13559,7 +13559,7 @@
       <c r="O283" s="63"/>
       <c r="P283" s="61"/>
     </row>
-    <row r="284" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:16" ht="12.75">
       <c r="A284" s="59"/>
       <c r="B284" s="59"/>
       <c r="C284" s="59"/>
@@ -13594,7 +13594,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
@@ -13607,7 +13607,7 @@
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="12">
       <c r="A2" s="32" t="s">
         <v>315</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>316</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>317</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>318</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>319</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>320</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>321</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>322</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>323</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>324</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>325</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>326</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>327</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>328</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>329</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>238</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>239</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>240</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>241</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>242</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
       <c r="A22" s="32" t="s">
         <v>243</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>244</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>245</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>246</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>247</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>248</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>249</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>250</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="32" t="s">
         <v>251</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="32" t="s">
         <v>196</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>197</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="32" t="s">
         <v>198</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="32" t="s">
         <v>199</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="32" t="s">
         <v>200</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>201</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>202</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>203</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="32" t="s">
         <v>204</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>205</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
       <c r="A41" s="32" t="s">
         <v>206</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>207</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>208</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
       <c r="A44" s="32" t="s">
         <v>209</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>210</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1">
       <c r="A46" s="32" t="s">
         <v>211</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="32" t="s">
         <v>212</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
       <c r="A48" s="32" t="s">
         <v>213</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="32" t="s">
         <v>214</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
       <c r="A50" s="32" t="s">
         <v>215</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
       <c r="A51" s="32" t="s">
         <v>216</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
       <c r="A52" s="32" t="s">
         <v>217</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="32" t="s">
         <v>218</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="32" t="s">
         <v>219</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="32" t="s">
         <v>220</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
       <c r="A56" s="32" t="s">
         <v>221</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="32" t="s">
         <v>222</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
       <c r="A58" s="32" t="s">
         <v>223</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="32" t="s">
         <v>224</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
       <c r="A60" s="32" t="s">
         <v>225</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="32" t="s">
         <v>226</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
       <c r="A62" s="32" t="s">
         <v>227</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
       <c r="A63" s="32" t="s">
         <v>228</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
       <c r="A64" s="32" t="s">
         <v>229</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
       <c r="A65" s="32" t="s">
         <v>230</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
       <c r="A66" s="32" t="s">
         <v>231</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="32" t="s">
         <v>232</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
       <c r="A68" s="32" t="s">
         <v>233</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
       <c r="A69" s="32" t="s">
         <v>487</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="32" t="s">
         <v>488</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="32" t="s">
         <v>489</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
       <c r="A72" s="32" t="s">
         <v>490</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="32" t="s">
         <v>491</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="32" t="s">
         <v>492</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="32" t="s">
         <v>493</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="32" t="s">
         <v>494</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="32" t="s">
         <v>495</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="32" t="s">
         <v>496</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="32" t="s">
         <v>497</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="32" t="s">
         <v>498</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>499</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="32" t="s">
         <v>500</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="32" t="s">
         <v>501</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="32" t="s">
         <v>281</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="32" t="s">
         <v>282</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="32" t="s">
         <v>283</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="32" t="s">
         <v>284</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>285</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>286</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>287</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>288</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="32" t="s">
         <v>289</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="32" t="s">
         <v>290</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="32" t="s">
         <v>291</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="32" t="s">
         <v>292</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="32" t="s">
         <v>293</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="32" t="s">
         <v>294</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="32" t="s">
         <v>295</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="32" t="s">
         <v>300</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="32" t="s">
         <v>301</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="32" t="s">
         <v>302</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="32" t="s">
         <v>303</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="32" t="s">
         <v>304</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="32" t="s">
         <v>305</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>306</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="32" t="s">
         <v>307</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="32" t="s">
         <v>308</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="32" t="s">
         <v>309</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="32" t="s">
         <v>310</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="32" t="s">
         <v>311</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="32" t="s">
         <v>312</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="32" t="s">
         <v>313</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="32" t="s">
         <v>314</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="32" t="s">
         <v>264</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="32" t="s">
         <v>265</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="32" t="s">
         <v>266</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>267</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="32" t="s">
         <v>268</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="32" t="s">
         <v>269</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="32" t="s">
         <v>270</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="32" t="s">
         <v>271</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="32" t="s">
         <v>272</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="32" t="s">
         <v>273</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="32" t="s">
         <v>274</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="32" t="s">
         <v>275</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="32" t="s">
         <v>276</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="32" t="s">
         <v>277</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
       <c r="A128" s="32" t="s">
         <v>278</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
       <c r="A129" s="32" t="s">
         <v>351</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="32" t="s">
         <v>352</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="32" t="s">
         <v>353</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="32" t="s">
         <v>354</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="32" t="s">
         <v>355</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="32" t="s">
         <v>356</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
       <c r="A135" s="32" t="s">
         <v>357</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
       <c r="A136" s="32" t="s">
         <v>358</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="32" t="s">
         <v>359</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="32" t="s">
         <v>360</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
       <c r="A139" s="32" t="s">
         <v>361</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
       <c r="A140" s="32" t="s">
         <v>362</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
       <c r="A141" s="32" t="s">
         <v>363</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="32" t="s">
         <v>364</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
       <c r="A143" s="32" t="s">
         <v>365</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
       <c r="A144" s="32" t="s">
         <v>332</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="32" t="s">
         <v>333</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="32" t="s">
         <v>334</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
       <c r="A147" s="32" t="s">
         <v>335</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
       <c r="A148" s="32" t="s">
         <v>336</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
       <c r="A149" s="32" t="s">
         <v>337</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
       <c r="A150" s="32" t="s">
         <v>338</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
       <c r="A151" s="32" t="s">
         <v>339</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
       <c r="A152" s="32" t="s">
         <v>340</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
       <c r="A153" s="32" t="s">
         <v>341</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
       <c r="A154" s="32" t="s">
         <v>342</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="A155" s="32" t="s">
         <v>343</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1">
       <c r="A156" s="32" t="s">
         <v>344</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="A157" s="32" t="s">
         <v>345</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="A158" s="32" t="s">
         <v>346</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1">
       <c r="A159" s="32" t="s">
         <v>366</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="A160" s="32" t="s">
         <v>367</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="32" t="s">
         <v>368</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1">
       <c r="A162" s="32" t="s">
         <v>369</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="A163" s="32" t="s">
         <v>370</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="A164" s="32" t="s">
         <v>371</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="A165" s="32" t="s">
         <v>372</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="A166" s="32" t="s">
         <v>373</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="A167" s="32" t="s">
         <v>374</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="A168" s="32" t="s">
         <v>375</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1">
       <c r="A169" s="32" t="s">
         <v>376</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="A170" s="32" t="s">
         <v>377</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1">
       <c r="A171" s="32" t="s">
         <v>378</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="A172" s="32" t="s">
         <v>379</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="A173" s="32" t="s">
         <v>380</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1">
       <c r="A174" s="32" t="s">
         <v>134</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1">
       <c r="A175" s="32" t="s">
         <v>136</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1">
       <c r="A176" s="32" t="s">
         <v>135</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>137</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1">
       <c r="A178" s="32" t="s">
         <v>138</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1">
       <c r="A179" s="32" t="s">
         <v>139</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1">
       <c r="A180" s="32" t="s">
         <v>140</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1">
       <c r="A181" s="32" t="s">
         <v>141</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1">
       <c r="A182" s="32" t="s">
         <v>142</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1">
       <c r="A183" s="32" t="s">
         <v>143</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1">
       <c r="A184" s="32" t="s">
         <v>145</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1">
       <c r="A185" s="32" t="s">
         <v>147</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1">
       <c r="A186" s="32" t="s">
         <v>152</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1">
       <c r="A187" s="32" t="s">
         <v>144</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1">
       <c r="A188" s="32" t="s">
         <v>148</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>146</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1">
       <c r="A190" s="32" t="s">
         <v>149</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1">
       <c r="A191" s="32" t="s">
         <v>150</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1">
       <c r="A192" s="32" t="s">
         <v>151</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1">
       <c r="A193" s="32" t="s">
         <v>385</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1">
       <c r="A194" s="32" t="s">
         <v>386</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1">
       <c r="A195" s="32" t="s">
         <v>387</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1">
       <c r="A196" s="32" t="s">
         <v>388</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1">
       <c r="A197" s="32" t="s">
         <v>389</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>390</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1">
       <c r="A199" s="32" t="s">
         <v>391</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1">
       <c r="A200" s="32" t="s">
         <v>392</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>393</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1">
       <c r="A202" s="32" t="s">
         <v>394</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1">
       <c r="A203" s="32" t="s">
         <v>395</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1">
       <c r="A204" s="32" t="s">
         <v>396</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1">
       <c r="A205" s="32" t="s">
         <v>397</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1">
       <c r="A206" s="32" t="s">
         <v>398</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1">
       <c r="A207" s="32" t="s">
         <v>399</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1">
       <c r="A208" s="32" t="s">
         <v>402</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1">
       <c r="A209" s="32" t="s">
         <v>403</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1">
       <c r="A210" s="32" t="s">
         <v>404</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1">
       <c r="A211" s="32" t="s">
         <v>405</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1">
       <c r="A212" s="32" t="s">
         <v>406</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>407</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1">
       <c r="A214" s="32" t="s">
         <v>408</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1">
       <c r="A215" s="32" t="s">
         <v>409</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1">
       <c r="A216" s="32" t="s">
         <v>410</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1">
       <c r="A217" s="32" t="s">
         <v>411</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1">
       <c r="A218" s="32" t="s">
         <v>412</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1">
       <c r="A219" s="32" t="s">
         <v>413</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1">
       <c r="A220" s="32" t="s">
         <v>414</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1">
       <c r="A221" s="32" t="s">
         <v>415</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1">
       <c r="A222" s="32" t="s">
         <v>416</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1">
       <c r="A223" s="32"/>
       <c r="B223" s="26"/>
       <c r="C223" s="26"/>
@@ -20276,7 +20276,7 @@
       <c r="G223" s="43"/>
       <c r="H223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1">
       <c r="A224" s="32"/>
       <c r="B224" s="26"/>
       <c r="C224" s="26"/>
@@ -20286,7 +20286,7 @@
       <c r="G224" s="43"/>
       <c r="H224" s="32"/>
     </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:8" ht="18.75" customHeight="1">
       <c r="A225" s="32"/>
       <c r="B225" s="26"/>
       <c r="C225" s="26"/>
@@ -20296,7 +20296,7 @@
       <c r="G225" s="43"/>
       <c r="H225" s="32"/>
     </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:8" ht="18.75" customHeight="1">
       <c r="A226" s="32"/>
       <c r="B226" s="26"/>
       <c r="C226" s="26"/>
@@ -20306,7 +20306,7 @@
       <c r="G226" s="43"/>
       <c r="H226" s="32"/>
     </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:8" ht="18.75" customHeight="1">
       <c r="A227" s="32"/>
       <c r="B227" s="26"/>
       <c r="C227" s="26"/>
@@ -20316,7 +20316,7 @@
       <c r="G227" s="43"/>
       <c r="H227" s="32"/>
     </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:8" ht="18.75" customHeight="1">
       <c r="A228" s="32"/>
       <c r="B228" s="26"/>
       <c r="C228" s="26"/>
@@ -20326,7 +20326,7 @@
       <c r="G228" s="43"/>
       <c r="H228" s="32"/>
     </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:8" ht="18.75" customHeight="1">
       <c r="A229" s="32"/>
       <c r="B229" s="26"/>
       <c r="C229" s="26"/>
@@ -20336,7 +20336,7 @@
       <c r="G229" s="43"/>
       <c r="H229" s="32"/>
     </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:8" ht="18.75" customHeight="1">
       <c r="A230" s="32"/>
       <c r="B230" s="26"/>
       <c r="C230" s="26"/>
@@ -20346,7 +20346,7 @@
       <c r="G230" s="43"/>
       <c r="H230" s="32"/>
     </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:8" ht="18.75" customHeight="1">
       <c r="A231" s="32"/>
       <c r="B231" s="26"/>
       <c r="C231" s="26"/>
@@ -20356,7 +20356,7 @@
       <c r="G231" s="43"/>
       <c r="H231" s="32"/>
     </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:8" ht="18.75" customHeight="1">
       <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="C232" s="26"/>
@@ -20366,7 +20366,7 @@
       <c r="G232" s="43"/>
       <c r="H232" s="32"/>
     </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:8" ht="18.75" customHeight="1">
       <c r="A233" s="32"/>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -20376,7 +20376,7 @@
       <c r="G233" s="43"/>
       <c r="H233" s="32"/>
     </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:8" ht="18.75" customHeight="1">
       <c r="A234" s="32"/>
       <c r="B234" s="26"/>
       <c r="C234" s="26"/>
@@ -20386,7 +20386,7 @@
       <c r="G234" s="43"/>
       <c r="H234" s="32"/>
     </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:8" ht="18.75" customHeight="1">
       <c r="A235" s="32"/>
       <c r="B235" s="26"/>
       <c r="C235" s="26"/>
@@ -20396,7 +20396,7 @@
       <c r="G235" s="43"/>
       <c r="H235" s="32"/>
     </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:8" ht="18.75" customHeight="1">
       <c r="A236" s="32"/>
       <c r="B236" s="26"/>
       <c r="C236" s="26"/>
@@ -20406,7 +20406,7 @@
       <c r="G236" s="43"/>
       <c r="H236" s="32"/>
     </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:8" ht="18.75" customHeight="1">
       <c r="A237" s="32"/>
       <c r="B237" s="26"/>
       <c r="C237" s="26"/>
@@ -20416,7 +20416,7 @@
       <c r="G237" s="43"/>
       <c r="H237" s="32"/>
     </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:8" ht="18.75" customHeight="1">
       <c r="A238" s="32"/>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
@@ -20426,7 +20426,7 @@
       <c r="G238" s="43"/>
       <c r="H238" s="32"/>
     </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:8" ht="18.75" customHeight="1">
       <c r="A239" s="32"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -20436,7 +20436,7 @@
       <c r="G239" s="43"/>
       <c r="H239" s="32"/>
     </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:8" ht="18.75" customHeight="1">
       <c r="A240" s="32"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -20446,7 +20446,7 @@
       <c r="G240" s="43"/>
       <c r="H240" s="32"/>
     </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1">
       <c r="A241" s="32"/>
       <c r="B241" s="26"/>
       <c r="C241" s="26"/>
@@ -20456,7 +20456,7 @@
       <c r="G241" s="43"/>
       <c r="H241" s="32"/>
     </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:8" ht="18.75" customHeight="1">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -20466,7 +20466,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:8" ht="18.75" customHeight="1">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -20476,7 +20476,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:8" ht="18.75" customHeight="1">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -20486,7 +20486,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:8" ht="18.75" customHeight="1">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -20496,7 +20496,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:8" ht="18.75" customHeight="1">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -20506,7 +20506,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:8" ht="18.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -20516,7 +20516,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:8" ht="18.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -20526,7 +20526,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:8" ht="18.75" customHeight="1">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -20536,7 +20536,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:8" ht="18.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -20546,7 +20546,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:8" ht="18.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -20556,7 +20556,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:8" ht="18.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -20566,7 +20566,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:8" ht="18.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -20576,7 +20576,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:8" ht="18.75" customHeight="1">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -20586,7 +20586,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:8" ht="18.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -20596,7 +20596,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:8" ht="18.75" customHeight="1">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -20606,7 +20606,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -20616,7 +20616,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -20626,7 +20626,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -20636,7 +20636,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -20646,7 +20646,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -20656,7 +20656,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -20666,7 +20666,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -20676,7 +20676,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -20686,7 +20686,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -20696,7 +20696,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -20706,7 +20706,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -20716,7 +20716,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -20726,7 +20726,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -20736,7 +20736,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -20746,7 +20746,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -20756,7 +20756,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -20766,7 +20766,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -20776,7 +20776,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -20786,7 +20786,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -20796,7 +20796,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -20806,7 +20806,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -20816,7 +20816,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -20826,7 +20826,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -20836,7 +20836,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -20846,7 +20846,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -20856,7 +20856,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -20866,7 +20866,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -20876,7 +20876,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -20886,7 +20886,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -20896,7 +20896,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -20919,12 +20919,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -20933,7 +20933,7 @@
     <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>296</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>280</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>298</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>349</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>350</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>348</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>382</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>383</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>384</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>400</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>429</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>428</v>
       </c>
@@ -22387,7 +22387,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>430</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>443</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>447</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>449</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>532</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>450</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>451</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>515</v>
       </c>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>523</v>
       </c>
@@ -22641,7 +22641,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>524</v>
       </c>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>452</v>
       </c>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>531</v>
       </c>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>453</v>
       </c>
@@ -22757,7 +22757,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>530</v>
       </c>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>454</v>
       </c>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>443</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>529</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="B72" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -22952,7 +22952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="B73" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -22977,7 +22977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="B74" s="31" t="str">
         <f t="shared" si="7"/>
         <v>()</v>
@@ -23019,7 +23019,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -23030,7 +23030,7 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -23127,7 +23127,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -23136,7 +23136,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>178</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>179</v>
       </c>
@@ -23224,7 +23224,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -23233,7 +23233,7 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -23246,7 +23246,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A44">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
@@ -23259,7 +23259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
@@ -23383,137 +23383,137 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3301" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D34B46-3A4E-4B6A-9CE7-2F8166A3FD21}"/>
+  <xr:revisionPtr revIDLastSave="3320" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08ECB37-4192-4848-8778-FFFCC2B2F5BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="642">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1902,14 +1902,117 @@
   </si>
   <si>
     <t>Marketing Offer</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-DT</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-STD</t>
+  </si>
+  <si>
+    <t>VOL-CHGR-PREM</t>
+  </si>
+  <si>
+    <t>VOL-REM-REMOTE2</t>
+  </si>
+  <si>
+    <t>VOL-REM-REMOTE3</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALMICRO</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALPRO</t>
+  </si>
+  <si>
+    <t>VOL-REM-PHONELINK2</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVLINK2</t>
+  </si>
+  <si>
+    <t>VOL-REM-PERFCLEAN</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVSTRPL</t>
+  </si>
+  <si>
+    <t>VOL-REM-MULTIMIC</t>
+  </si>
+  <si>
+    <t>VOL-REM-TVLINK2ONLY</t>
+  </si>
+  <si>
+    <t>VOL-REM-MYPALMICROONLY</t>
+  </si>
+  <si>
+    <t>VOL-REM-PHONELINK2ONLY</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-1</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-2</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-3</t>
+  </si>
+  <si>
+    <t>VOL-REC-MM-4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-HP4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-LP4</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP0</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP1</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP2</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP3</t>
+  </si>
+  <si>
+    <t>VOL-REC-SF3-MP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2089,7 +2192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2381,13 +2484,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2542,37 +2654,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2620,6 +2706,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3389,8 +3506,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}" name="Table3" displayName="Table3" ref="A1:I222" totalsRowShown="0" dataDxfId="35">
-  <autoFilter ref="A1:I222" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}" name="Table3" displayName="Table3" ref="A1:I241" totalsRowShown="0" dataDxfId="35">
+  <autoFilter ref="A1:I241" xr:uid="{B234EB53-350B-4CA0-BBF8-223B5DD3393E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H286">
     <sortCondition ref="H1:H286"/>
   </sortState>
@@ -3412,10 +3529,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H74" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:H74" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="H1:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}" name="Table2" displayName="Table2" ref="A1:H92" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:H92" xr:uid="{DF14951C-F3AB-4A56-8D68-8FEECEDF206A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+    <sortCondition ref="H1:H74"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FDC3E4DD-A231-46DD-8097-7C0DC18260BD}" name="barcodeName"/>
@@ -3788,33 +3905,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="94"/>
+      <c r="B5" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="113"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="82" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="110" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
         <v>573</v>
       </c>
@@ -3839,10 +3956,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="114"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3852,27 +3969,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="112" t="str">
+      <c r="B11" s="106" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3885,28 +4002,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="101" t="str" cm="1">
+      <c r="J11" s="95" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="106" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3919,25 +4036,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="112" t="str" cm="1">
+      <c r="B13" s="106" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3950,26 +4067,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112" t="str" cm="1">
+      <c r="B14" s="106" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3979,26 +4096,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="106" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4008,46 +4125,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="109" t="str" cm="1">
+      <c r="J16" s="103" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="108" t="str" cm="1">
+      <c r="B17" s="102" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4060,11 +4177,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4074,9 +4191,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4088,12 +4205,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="101" t="e" cm="1" vm="1">
+      <c r="L20" s="95" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4107,9 +4224,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="106"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4127,9 +4244,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4145,9 +4262,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="106"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4166,9 +4283,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4176,9 +4293,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4205,6 +4322,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4219,11 +4341,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4266,7 +4383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14889,8 +15006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20700,7 +20817,7 @@
         <v>386</v>
       </c>
       <c r="B194" s="26" t="str">
-        <f t="shared" ref="B194:B222" si="3">"("&amp;A194&amp;")"</f>
+        <f t="shared" ref="B194:B241" si="3">"("&amp;A194&amp;")"</f>
         <v>(CTH-REC-SF3-HP1)</v>
       </c>
       <c r="C194" s="32" t="s">
@@ -21566,196 +21683,576 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A223" s="32"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="43"/>
-      <c r="H223" s="32"/>
+      <c r="A223" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="B223" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-MM-1)</v>
+      </c>
+      <c r="C223" s="91" t="s">
+        <v>549</v>
+      </c>
+      <c r="D223" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E223" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F223" s="43">
+        <v>150</v>
+      </c>
+      <c r="G223" s="43">
+        <v>0</v>
+      </c>
+      <c r="H223" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I223" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A224" s="32"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="32"/>
-    </row>
-    <row r="225" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A225" s="32"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="32"/>
-    </row>
-    <row r="226" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A226" s="32"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="43"/>
-      <c r="H226" s="32"/>
-    </row>
-    <row r="227" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A227" s="32"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="43"/>
-      <c r="H227" s="32"/>
-    </row>
-    <row r="228" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A228" s="32"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="43"/>
-      <c r="H228" s="32"/>
-    </row>
-    <row r="229" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A229" s="32"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="43"/>
-      <c r="H229" s="32"/>
-    </row>
-    <row r="230" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A230" s="32"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="43"/>
-      <c r="H230" s="32"/>
-    </row>
-    <row r="231" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A231" s="32"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="43"/>
-      <c r="H231" s="32"/>
-    </row>
-    <row r="232" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A232" s="32"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="43"/>
-      <c r="H232" s="32"/>
-    </row>
-    <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A233" s="32"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="43"/>
-      <c r="H233" s="32"/>
-    </row>
-    <row r="234" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A234" s="32"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="43"/>
-      <c r="H234" s="32"/>
-    </row>
-    <row r="235" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A235" s="32"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="43"/>
-      <c r="H235" s="32"/>
-    </row>
-    <row r="236" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A236" s="32"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="43"/>
-      <c r="H236" s="32"/>
-    </row>
-    <row r="237" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A237" s="32"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="43"/>
-      <c r="H237" s="32"/>
-    </row>
-    <row r="238" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A238" s="32"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="43"/>
-      <c r="H238" s="32"/>
-    </row>
-    <row r="239" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A239" s="32"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="43"/>
-      <c r="H239" s="32"/>
-    </row>
-    <row r="240" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A240" s="32"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="43"/>
-      <c r="H240" s="32"/>
-    </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A241" s="32"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="43"/>
-      <c r="H241" s="32"/>
-    </row>
-    <row r="242" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A224" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="B224" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-MM-2)</v>
+      </c>
+      <c r="C224" s="91" t="s">
+        <v>550</v>
+      </c>
+      <c r="D224" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F224" s="43">
+        <v>150</v>
+      </c>
+      <c r="G224" s="43">
+        <v>0</v>
+      </c>
+      <c r="H224" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I224" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A225" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B225" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-MM-3)</v>
+      </c>
+      <c r="C225" s="91" t="s">
+        <v>551</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E225" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F225" s="43">
+        <v>150</v>
+      </c>
+      <c r="G225" s="43">
+        <v>0</v>
+      </c>
+      <c r="H225" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I225" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A226" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="B226" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-MM-4)</v>
+      </c>
+      <c r="C226" s="91" t="s">
+        <v>552</v>
+      </c>
+      <c r="D226" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E226" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F226" s="43">
+        <v>150</v>
+      </c>
+      <c r="G226" s="43">
+        <v>0</v>
+      </c>
+      <c r="H226" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I226" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A227" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="B227" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-HP0)</v>
+      </c>
+      <c r="C227" s="91" t="s">
+        <v>534</v>
+      </c>
+      <c r="D227" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E227" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F227" s="43">
+        <v>150</v>
+      </c>
+      <c r="G227" s="43">
+        <v>150</v>
+      </c>
+      <c r="H227" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I227" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A228" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B228" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-HP1)</v>
+      </c>
+      <c r="C228" s="91" t="s">
+        <v>535</v>
+      </c>
+      <c r="D228" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E228" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F228" s="43">
+        <v>150</v>
+      </c>
+      <c r="G228" s="43">
+        <v>150</v>
+      </c>
+      <c r="H228" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I228" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A229" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B229" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-HP2)</v>
+      </c>
+      <c r="C229" s="91" t="s">
+        <v>536</v>
+      </c>
+      <c r="D229" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E229" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F229" s="43">
+        <v>150</v>
+      </c>
+      <c r="G229" s="43">
+        <v>150</v>
+      </c>
+      <c r="H229" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I229" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A230" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="B230" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-HP3)</v>
+      </c>
+      <c r="C230" s="91" t="s">
+        <v>537</v>
+      </c>
+      <c r="D230" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E230" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F230" s="43">
+        <v>150</v>
+      </c>
+      <c r="G230" s="43">
+        <v>150</v>
+      </c>
+      <c r="H230" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I230" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A231" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="B231" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-HP4)</v>
+      </c>
+      <c r="C231" s="91" t="s">
+        <v>538</v>
+      </c>
+      <c r="D231" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E231" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F231" s="43">
+        <v>150</v>
+      </c>
+      <c r="G231" s="43">
+        <v>150</v>
+      </c>
+      <c r="H231" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I231" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A232" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="B232" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-LP0)</v>
+      </c>
+      <c r="C232" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="D232" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E232" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F232" s="43">
+        <v>150</v>
+      </c>
+      <c r="G232" s="43">
+        <v>150</v>
+      </c>
+      <c r="H232" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I232" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A233" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="B233" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-LP1)</v>
+      </c>
+      <c r="C233" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="D233" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E233" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F233" s="43">
+        <v>150</v>
+      </c>
+      <c r="G233" s="43">
+        <v>150</v>
+      </c>
+      <c r="H233" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I233" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A234" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B234" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-LP2)</v>
+      </c>
+      <c r="C234" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="D234" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E234" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F234" s="43">
+        <v>150</v>
+      </c>
+      <c r="G234" s="43">
+        <v>150</v>
+      </c>
+      <c r="H234" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I234" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A235" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="B235" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-LP3)</v>
+      </c>
+      <c r="C235" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="D235" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E235" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F235" s="43">
+        <v>150</v>
+      </c>
+      <c r="G235" s="43">
+        <v>150</v>
+      </c>
+      <c r="H235" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I235" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A236" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="B236" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-LP4)</v>
+      </c>
+      <c r="C236" s="91" t="s">
+        <v>543</v>
+      </c>
+      <c r="D236" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E236" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F236" s="43">
+        <v>150</v>
+      </c>
+      <c r="G236" s="43">
+        <v>150</v>
+      </c>
+      <c r="H236" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I236" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A237" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="B237" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-MP0)</v>
+      </c>
+      <c r="C237" s="91" t="s">
+        <v>544</v>
+      </c>
+      <c r="D237" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F237" s="43">
+        <v>150</v>
+      </c>
+      <c r="G237" s="43">
+        <v>150</v>
+      </c>
+      <c r="H237" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I237" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A238" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="B238" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-MP1)</v>
+      </c>
+      <c r="C238" s="91" t="s">
+        <v>545</v>
+      </c>
+      <c r="D238" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E238" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F238" s="43">
+        <v>150</v>
+      </c>
+      <c r="G238" s="43">
+        <v>150</v>
+      </c>
+      <c r="H238" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I238" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A239" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="B239" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-MP2)</v>
+      </c>
+      <c r="C239" s="91" t="s">
+        <v>546</v>
+      </c>
+      <c r="D239" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E239" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F239" s="43">
+        <v>150</v>
+      </c>
+      <c r="G239" s="43">
+        <v>150</v>
+      </c>
+      <c r="H239" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I239" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A240" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="B240" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-MP3)</v>
+      </c>
+      <c r="C240" s="91" t="s">
+        <v>547</v>
+      </c>
+      <c r="D240" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E240" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F240" s="43">
+        <v>150</v>
+      </c>
+      <c r="G240" s="43">
+        <v>150</v>
+      </c>
+      <c r="H240" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I240" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A241" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B241" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>(VOL-REC-SF3-MP4)</v>
+      </c>
+      <c r="C241" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="D241" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F241" s="43">
+        <v>150</v>
+      </c>
+      <c r="G241" s="43">
+        <v>150</v>
+      </c>
+      <c r="H241" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I241" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -21765,7 +22262,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -21775,7 +22272,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -21785,7 +22282,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -21795,7 +22292,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -21805,7 +22302,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -21815,7 +22312,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -21825,7 +22322,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -21835,7 +22332,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -21845,7 +22342,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -21855,7 +22352,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -21865,7 +22362,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -21875,7 +22372,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -21885,7 +22382,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -21895,7 +22392,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -22216,11 +22713,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051AA2F-ED82-497D-A0D7-BA51300AC6DC}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22260,739 +22757,739 @@
     </row>
     <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B2" s="31" t="str">
         <f t="shared" ref="B2:B33" si="0">"("&amp;A2&amp;")"</f>
-        <v>(CAM-CHGR-DT)</v>
+        <v>(AS-CHGR-PREM)</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F2" s="41">
         <v>0</v>
       </c>
       <c r="G2" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="B3" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CAM-CHGR-STD)</v>
+        <v>(AS-REM-MYPALMICRO)</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E3" s="41">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F3" s="41">
         <v>0</v>
       </c>
       <c r="G3" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>427</v>
       </c>
       <c r="B4" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ABC-CHGR-DT)</v>
+        <v>(AS-REM-MYPALPRO)</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E4" s="41">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="F4" s="41">
         <v>0</v>
       </c>
       <c r="G4" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="B5" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ABC-CHGR-STD)</v>
+        <v>(AS-REM-TVLINK2)</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E5" s="41">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="F5" s="41">
         <v>0</v>
       </c>
       <c r="G5" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="B6" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ABC-CHGR-PREM)</v>
+        <v>(CAM-CHGR-DT)</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="41">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F6" s="41">
         <v>0</v>
       </c>
       <c r="G6" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="B7" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(AND-CHGR-DT)</v>
+        <v>(CAM-CHGR-STD)</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F7" s="41">
         <v>0</v>
       </c>
       <c r="G7" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(AND-CHGR-STD)</v>
+        <v>(ABC-CHGR-DT)</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F8" s="41">
         <v>0</v>
       </c>
       <c r="G8" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(AND-CHGR-PREM)</v>
+        <v>(ABC-CHGR-STD)</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F9" s="41">
         <v>0</v>
       </c>
       <c r="G9" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(BCF-CHGR-DT)</v>
+        <v>(ABC-CHGR-PREM)</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F10" s="41">
         <v>0</v>
       </c>
       <c r="G10" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(BCF-CHGR-STD)</v>
+        <v>(AND-CHGR-DT)</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F11" s="41">
         <v>0</v>
       </c>
       <c r="G11" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(BCF-CHGR-PREM)</v>
+        <v>(AND-CHGR-STD)</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F12" s="41">
         <v>0</v>
       </c>
       <c r="G12" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(B36-CHGR-DT)</v>
+        <v>(AND-CHGR-PREM)</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F13" s="41">
         <v>0</v>
       </c>
       <c r="G13" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(B36-CHGR-STD)</v>
+        <v>(BCF-CHGR-DT)</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E14" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F14" s="41">
         <v>0</v>
       </c>
       <c r="G14" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(B36-CHGR-PREM)</v>
+        <v>(BCF-CHGR-STD)</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F15" s="41">
         <v>0</v>
       </c>
       <c r="G15" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="B16" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ELU-CHGR-DT)</v>
+        <v>(BCF-CHGR-PREM)</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F16" s="41">
         <v>0</v>
       </c>
       <c r="G16" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="B17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ELU-CHGR-STD)</v>
+        <v>(B36-CHGR-DT)</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E17" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F17" s="41">
         <v>0</v>
       </c>
       <c r="G17" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="B18" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(ELU-CHGR-PREM)</v>
+        <v>(B36-CHGR-STD)</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F18" s="41">
         <v>0</v>
       </c>
       <c r="G18" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="B19" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(FAF-CHGR-DT)</v>
+        <v>(B36-CHGR-PREM)</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F19" s="41">
         <v>0</v>
       </c>
       <c r="G19" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(FAF-CHGR-STD)</v>
+        <v>(ELU-CHGR-DT)</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E20" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F20" s="41">
         <v>0</v>
       </c>
       <c r="G20" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(FAF-CHGR-PREM)</v>
+        <v>(ELU-CHGR-STD)</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F21" s="41">
         <v>0</v>
       </c>
       <c r="G21" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="B22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHA-CHGR-DT)</v>
+        <v>(ELU-CHGR-PREM)</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F22" s="41">
         <v>0</v>
       </c>
       <c r="G22" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="B23" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHA-CHGR-STD)</v>
+        <v>(FAF-CHGR-DT)</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F23" s="41">
         <v>0</v>
       </c>
       <c r="G23" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="B24" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHS-CHGR-DT)</v>
+        <v>(FAF-CHGR-STD)</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F24" s="41">
         <v>0</v>
       </c>
       <c r="G24" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="B25" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHS-CHGR-STD)</v>
+        <v>(FAF-CHGR-PREM)</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E25" s="41">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F25" s="41">
         <v>0</v>
       </c>
       <c r="G25" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="B26" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHU-CHGR-DT)</v>
+        <v>(GB-REM-PERFCLEAN)</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E26" s="41">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F26" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G26" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>514</v>
       </c>
       <c r="B27" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CHU-CHGR-STD)</v>
+        <v>(GB-REM-TVSTRPL)</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>520</v>
       </c>
       <c r="E27" s="41">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="F27" s="41">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G27" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="B28" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(HUM-CHGR-DT)</v>
+        <v>(CHA-CHGR-DT)</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -23011,16 +23508,16 @@
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B29" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(HUM-CHGR-STD)</v>
+        <v>(CHA-CHGR-STD)</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -23039,128 +23536,128 @@
         <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B30" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(HUM-CHGR-PREM)</v>
+        <v>(CHS-CHGR-DT)</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="41">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F30" s="41">
         <v>0</v>
       </c>
       <c r="G30" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B31" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CMP-CHGR-DT)</v>
+        <v>(CHS-CHGR-STD)</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F31" s="41">
         <v>0</v>
       </c>
       <c r="G31" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="B32" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(CMP-CHGR-STD)</v>
+        <v>(CHU-CHGR-DT)</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F32" s="41">
         <v>0</v>
       </c>
       <c r="G32" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="B33" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>(MLA-CHGR-DT)</v>
+        <v>(CHU-CHGR-STD)</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="41">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F33" s="41">
         <v>0</v>
       </c>
       <c r="G33" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="B34" s="31" t="str">
-        <f t="shared" ref="B34:B50" si="1">"("&amp;A34&amp;")"</f>
-        <v>(CNH-CHGR-DT)</v>
+        <f t="shared" ref="B34:B65" si="1">"("&amp;A34&amp;")"</f>
+        <v>(HUM-CHGR-DT)</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -23179,16 +23676,16 @@
         <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="B35" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(CNH-CHGR-STD)</v>
+        <v>(HUM-CHGR-STD)</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -23207,380 +23704,380 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B36" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-CHGR-DT)</v>
+        <v>(HUM-CHGR-PREM)</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" s="41">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F36" s="41">
         <v>0</v>
       </c>
       <c r="G36" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H36" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="B37" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-CHGR-STD)</v>
+        <v>(CMP-CHGR-DT)</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F37" s="41">
         <v>0</v>
       </c>
       <c r="G37" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="B38" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-CHGR-PREM)</v>
+        <v>(CMP-CHGR-STD)</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" s="41">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F38" s="41">
         <v>0</v>
       </c>
       <c r="G38" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H38" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>507</v>
+        <v>348</v>
       </c>
       <c r="B39" s="31" t="str">
-        <f t="shared" ref="B39" si="2">"("&amp;A39&amp;")"</f>
-        <v>(REG-REM-REMOTE2)</v>
+        <f t="shared" si="1"/>
+        <v>(MLA-CHGR-DT)</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>508</v>
+        <v>156</v>
       </c>
       <c r="E39" s="41">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F39" s="41">
         <v>0</v>
       </c>
       <c r="G39" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>2</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="B40" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-REMOTE3)</v>
+        <v>(CNH-CHGR-DT)</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E40" s="41">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F40" s="41">
         <v>0</v>
       </c>
       <c r="G40" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="B41" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-MYPALMICRO)</v>
+        <v>(CNH-CHGR-STD)</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E41" s="41">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="F41" s="41">
         <v>0</v>
       </c>
       <c r="G41" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>451</v>
       </c>
       <c r="B42" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-MYPALPRO)</v>
+        <v>(OHGB-REM-PERFCLEAN)</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E42" s="41">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="F42" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G42" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>530</v>
       </c>
       <c r="B43" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-PHONELINK2)</v>
+        <v>(OHGB-REM-MULTIMIC)</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="E43" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F43" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G43" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="B44" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-TVLINK2)</v>
+        <v>(OHPB-REM-PERFCLEAN)</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E44" s="41">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="F44" s="41">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G44" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="H44" t="s">
-        <v>2</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="B45" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(REG-REM-PERFCLEAN)</v>
+        <v>(OHPB-REM-MULTIMIC)</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>527</v>
       </c>
       <c r="E45" s="41">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="F45" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G45" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>2</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="B46" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(CTH-CHGR-DT)</v>
+        <v>(OHPB-REM-TVSTRPL)</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="E46" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F46" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G46" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c r="B47" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(CTH-CHGR-STD)</v>
+        <v>(OHSB-REM-PERFCLEAN)</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E47" s="41">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="F47" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G47" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="B48" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(CWC-CHGR-DT)</v>
+        <v>(OHSB-REM-TVSTRPL)</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="E48" s="41">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="F48" s="41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G48" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B49" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(CWC-CHGR-STD)</v>
+        <v>(OH-CHGR-STD)</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -23599,144 +24096,144 @@
         <v>250</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B50" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>(AS-CHGR-PREM)</v>
+        <v>(PB-REM-PERFCLEAN)</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E50" s="41">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="F50" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G50" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="B51" s="31" t="str">
-        <f t="shared" ref="B51:B58" si="3">"("&amp;A51&amp;")"</f>
-        <v>(AS-REM-MYPALMICRO)</v>
+        <f t="shared" si="1"/>
+        <v>(PB-REM-MULTIMIC)</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>526</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>527</v>
       </c>
       <c r="E51" s="41">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="F51" s="41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G51" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="B52" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(AS-REM-MYPALPRO)</v>
+        <f t="shared" si="1"/>
+        <v>(PB-REM-TVSTRPL)</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>520</v>
       </c>
       <c r="E52" s="41">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="F52" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G52" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="H52" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>429</v>
+        <v>158</v>
       </c>
       <c r="B53" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(AS-REM-TVLINK2)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-CHGR-DT)</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E53" s="41">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="F53" s="41">
         <v>0</v>
       </c>
       <c r="G53" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
       <c r="B54" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(REG-REM-TVSTRPL)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-CHGR-STD)</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="E54" s="41">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="F54" s="41">
         <v>0</v>
       </c>
       <c r="G54" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
         <v>2</v>
@@ -23744,389 +24241,386 @@
     </row>
     <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>159</v>
       </c>
       <c r="B55" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(OH-CHGR-STD)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-CHGR-PREM)</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E55" s="41">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F55" s="41">
         <v>0</v>
       </c>
       <c r="G55" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H55" t="s">
-        <v>443</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="B56" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-PERFCLEAN)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-REMOTE2)</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>508</v>
       </c>
       <c r="E56" s="41">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F56" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G56" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>161</v>
       </c>
       <c r="B57" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-MULTIMIC)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C57" t="s">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="E57" s="41">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F57" s="41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G57" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="B58" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>(PB-REM-TVSTRPL)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-MYPALMICRO)</v>
       </c>
       <c r="C58" t="s">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="E58" s="41">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="F58" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G58" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="B59" s="31" t="str">
-        <f t="shared" ref="B59:B60" si="4">"("&amp;A59&amp;")"</f>
-        <v>(GB-REM-PERFCLEAN)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-MYPALPRO)</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E59" s="41">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="F59" s="41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G59" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
-        <v>445</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="B60" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v>(GB-REM-TVSTRPL)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-PHONELINK2)</v>
       </c>
       <c r="C60" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="E60" s="41">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="F60" s="41">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G60" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>445</v>
+        <v>2</v>
       </c>
       <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>522</v>
+        <v>165</v>
       </c>
       <c r="B61" s="31" t="str">
-        <f>"("&amp;A61&amp;")"</f>
-        <v>(OHSB-REM-PERFCLEAN)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="41">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="F61" s="41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G61" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="H61" t="s">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
       <c r="B62" s="31" t="str">
-        <f>"("&amp;A62&amp;")"</f>
-        <v>(OHSB-REM-TVSTRPL)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-PERFCLEAN)</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="E62" s="41">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="F62" s="41">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G62" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B63" s="31" t="str">
-        <f>"("&amp;A63&amp;")"</f>
-        <v>(OHGB-REM-PERFCLEAN)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="E63" s="41">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="F63" s="41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G63" s="41">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="H63" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="B64" s="31" t="str">
-        <f>"("&amp;A64&amp;")"</f>
-        <v>(OHGB-REM-MULTIMIC)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C64" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
-      </c>
-      <c r="E64" s="41">
+        <v>520</v>
+      </c>
+      <c r="E64" s="68">
         <v>425</v>
       </c>
       <c r="F64" s="41">
-        <v>75</v>
-      </c>
-      <c r="G64" s="41">
+        <v>0</v>
+      </c>
+      <c r="G64" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="H64" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>452</v>
+        <v>165</v>
       </c>
       <c r="B65" s="31" t="str">
-        <f t="shared" ref="B65:B67" si="5">"("&amp;A65&amp;")"</f>
-        <v>(OHPB-REM-PERFCLEAN)</v>
+        <f t="shared" si="1"/>
+        <v>(REG-REM-TVLINK2)</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="41">
-        <v>185</v>
+        <v>508</v>
+      </c>
+      <c r="E65" s="68">
+        <v>300</v>
       </c>
       <c r="F65" s="41">
-        <v>35</v>
-      </c>
-      <c r="G65" s="41">
+        <v>0</v>
+      </c>
+      <c r="G65" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H65" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J65" s="69"/>
     </row>
     <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>529</v>
+        <v>161</v>
       </c>
       <c r="B66" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v>(OHPB-REM-MULTIMIC)</v>
+        <f t="shared" ref="B66:B91" si="2">"("&amp;A66&amp;")"</f>
+        <v>(REG-REM-REMOTE3)</v>
       </c>
       <c r="C66" t="s">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
-      </c>
-      <c r="E66" s="41">
-        <v>425</v>
+        <v>167</v>
+      </c>
+      <c r="E66" s="68">
+        <v>300</v>
       </c>
       <c r="F66" s="41">
-        <v>75</v>
-      </c>
-      <c r="G66" s="41">
+        <v>0</v>
+      </c>
+      <c r="G66" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H66" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J66" s="69"/>
     </row>
     <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="B67" s="31" t="str">
-        <f t="shared" si="5"/>
-        <v>(OHPB-REM-TVSTRPL)</v>
+        <f t="shared" si="2"/>
+        <v>(REG-REM-MULTIMIC)</v>
       </c>
       <c r="C67" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D67" t="s">
-        <v>520</v>
-      </c>
-      <c r="E67" s="41">
+        <v>527</v>
+      </c>
+      <c r="E67" s="68">
         <v>425</v>
       </c>
       <c r="F67" s="41">
-        <v>75</v>
-      </c>
-      <c r="G67" s="41">
+        <v>0</v>
+      </c>
+      <c r="G67" s="68">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="H67" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="J67" s="69"/>
     </row>
     <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>442</v>
-      </c>
       <c r="B68" s="31" t="str">
-        <f t="shared" ref="B68" si="6">"("&amp;A68&amp;")"</f>
-        <v>(REG-REM-TVSTRPL)</v>
+        <f t="shared" si="2"/>
+        <v>()</v>
       </c>
       <c r="C68" t="s">
-        <v>520</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>171</v>
       </c>
       <c r="E68" s="68">
         <v>425</v>
@@ -24143,56 +24637,50 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>165</v>
-      </c>
       <c r="B69" s="31" t="str">
-        <f t="shared" ref="B69:B74" si="7">"("&amp;A69&amp;")"</f>
-        <v>(REG-REM-TVLINK2)</v>
+        <f t="shared" si="2"/>
+        <v>()</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>508</v>
+        <v>168</v>
       </c>
       <c r="E69" s="68">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F69" s="41">
         <v>0</v>
       </c>
       <c r="G69" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>161</v>
-      </c>
       <c r="B70" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>(REG-REM-REMOTE3)</v>
+        <f t="shared" si="2"/>
+        <v>()</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E70" s="68">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F70" s="41">
         <v>0</v>
       </c>
       <c r="G70" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
         <v>2</v>
@@ -24200,105 +24688,618 @@
     </row>
     <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="B71" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>(REG-REM-MULTIMIC)</v>
+        <f t="shared" si="2"/>
+        <v>(CTH-CHGR-DT)</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>527</v>
-      </c>
-      <c r="E71" s="68">
-        <v>425</v>
+        <v>156</v>
+      </c>
+      <c r="E71" s="41">
+        <v>200</v>
       </c>
       <c r="F71" s="41">
         <v>0</v>
       </c>
       <c r="G71" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
       <c r="B72" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f t="shared" si="2"/>
+        <v>(CTH-CHGR-STD)</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="68">
-        <v>425</v>
+        <v>155</v>
+      </c>
+      <c r="E72" s="41">
+        <v>250</v>
       </c>
       <c r="F72" s="41">
         <v>0</v>
       </c>
       <c r="G72" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>400</v>
+      </c>
       <c r="B73" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f t="shared" si="2"/>
+        <v>(CWC-CHGR-DT)</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="68">
-        <v>325</v>
+        <v>156</v>
+      </c>
+      <c r="E73" s="41">
+        <v>200</v>
       </c>
       <c r="F73" s="41">
         <v>0</v>
       </c>
       <c r="G73" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="H73" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>401</v>
+      </c>
       <c r="B74" s="31" t="str">
-        <f t="shared" si="7"/>
-        <v>()</v>
+        <f t="shared" si="2"/>
+        <v>(CWC-CHGR-STD)</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="68">
-        <v>325</v>
+        <v>155</v>
+      </c>
+      <c r="E74" s="41">
+        <v>250</v>
       </c>
       <c r="F74" s="41">
         <v>0</v>
       </c>
       <c r="G74" s="67">
         <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>250</v>
+      </c>
+      <c r="H74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>608</v>
+      </c>
+      <c r="B75" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-DT)</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="68">
+        <v>200</v>
+      </c>
+      <c r="F75" s="92">
+        <v>0</v>
+      </c>
+      <c r="G75" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>200</v>
+      </c>
+      <c r="H75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>609</v>
+      </c>
+      <c r="B76" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-STD)</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="68">
+        <v>250</v>
+      </c>
+      <c r="F76" s="92">
+        <v>0</v>
+      </c>
+      <c r="G76" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>250</v>
+      </c>
+      <c r="H76" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-CHGR-PREM)</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="68">
+        <v>450</v>
+      </c>
+      <c r="F77" s="92">
+        <v>0</v>
+      </c>
+      <c r="G77" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>450</v>
+      </c>
+      <c r="H77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>611</v>
+      </c>
+      <c r="B78" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE2)</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" s="68">
+        <v>225</v>
+      </c>
+      <c r="F78" s="92">
+        <v>0</v>
+      </c>
+      <c r="G78" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H78" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>612</v>
+      </c>
+      <c r="B79" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE3)</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="68">
+        <v>225</v>
+      </c>
+      <c r="F79" s="92">
+        <v>0</v>
+      </c>
+      <c r="G79" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALMICRO)</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="68">
+        <v>225</v>
+      </c>
+      <c r="F80" s="92">
+        <v>0</v>
+      </c>
+      <c r="G80" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>225</v>
+      </c>
+      <c r="H80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>614</v>
+      </c>
+      <c r="B81" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALPRO)</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="68">
+        <v>315</v>
+      </c>
+      <c r="F81" s="92">
+        <v>0</v>
+      </c>
+      <c r="G81" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>315</v>
+      </c>
+      <c r="H81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-PHONELINK2)</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="68">
+        <v>200</v>
+      </c>
+      <c r="F82" s="92">
+        <v>0</v>
+      </c>
+      <c r="G82" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>200</v>
+      </c>
+      <c r="H82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>616</v>
+      </c>
+      <c r="B83" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2)</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="68">
+        <v>340</v>
+      </c>
+      <c r="F83" s="92">
+        <v>0</v>
+      </c>
+      <c r="G83" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>340</v>
+      </c>
+      <c r="H83" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>617</v>
+      </c>
+      <c r="B84" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-PERFCLEAN)</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="68">
+        <v>185</v>
+      </c>
+      <c r="F84" s="92">
+        <v>0</v>
+      </c>
+      <c r="G84" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>185</v>
+      </c>
+      <c r="H84" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVSTRPL)</v>
+      </c>
+      <c r="C85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" t="s">
+        <v>441</v>
+      </c>
+      <c r="E85" s="68">
+        <v>365</v>
+      </c>
+      <c r="F85" s="92">
+        <v>0</v>
+      </c>
+      <c r="G85" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>365</v>
+      </c>
+      <c r="H85" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>618</v>
+      </c>
+      <c r="B86" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVSTRPL)</v>
+      </c>
+      <c r="C86" t="s">
+        <v>520</v>
+      </c>
+      <c r="D86" t="s">
+        <v>520</v>
+      </c>
+      <c r="E86" s="68">
+        <v>425</v>
+      </c>
+      <c r="F86" s="92">
+        <v>0</v>
+      </c>
+      <c r="G86" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H86" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>616</v>
+      </c>
+      <c r="B87" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2)</v>
+      </c>
+      <c r="C87" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="68">
+        <v>300</v>
+      </c>
+      <c r="F87" s="92">
+        <v>0</v>
+      </c>
+      <c r="G87" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>300</v>
+      </c>
+      <c r="H87" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-REMOTE3)</v>
+      </c>
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="68">
+        <v>300</v>
+      </c>
+      <c r="F88" s="92">
+        <v>0</v>
+      </c>
+      <c r="G88" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>300</v>
+      </c>
+      <c r="H88" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B89" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MULTIMIC)</v>
+      </c>
+      <c r="C89" t="s">
+        <v>526</v>
+      </c>
+      <c r="D89" t="s">
+        <v>527</v>
+      </c>
+      <c r="E89" s="68">
+        <v>425</v>
+      </c>
+      <c r="F89" s="92">
+        <v>0</v>
+      </c>
+      <c r="G89" s="68">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H89" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-TVLINK2ONLY)</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="68">
+        <v>425</v>
+      </c>
+      <c r="F90" s="92">
+        <v>0</v>
+      </c>
+      <c r="G90" s="67">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>425</v>
+      </c>
+      <c r="H90" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B91" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>(VOL-REM-MYPALMICROONLY)</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="68">
         <v>325</v>
       </c>
-      <c r="H74" t="s">
-        <v>2</v>
+      <c r="F91" s="92">
+        <v>0</v>
+      </c>
+      <c r="G91" s="67">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>325</v>
+      </c>
+      <c r="H91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>622</v>
+      </c>
+      <c r="B92" s="31" t="str">
+        <f>"("&amp;A92&amp;")"</f>
+        <v>(VOL-REM-PHONELINK2ONLY)</v>
+      </c>
+      <c r="C92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="68">
+        <v>325</v>
+      </c>
+      <c r="F92" s="92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="93">
+        <f>Table2[[#This Row],[remoteListAmount]]-Table2[[#This Row],[remoteDiscountAmount]]</f>
+        <v>325</v>
+      </c>
+      <c r="H92" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3320" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08ECB37-4192-4848-8778-FFFCC2B2F5BC}"/>
+  <xr:revisionPtr revIDLastSave="3326" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AAFA1-B092-46BB-A949-505446033A85}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="2355" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="641">
   <si>
     <t>Choose Hearing Aid model</t>
   </si>
@@ -1635,9 +1635,6 @@
   </si>
   <si>
     <t>CMP-HI-REL4-63DRWC</t>
-  </si>
-  <si>
-    <t>CNH-HI-REL4-63DRWC</t>
   </si>
   <si>
     <t>TV Streamer Plus</t>
@@ -3473,7 +3470,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}" name="HearingAids" displayName="HearingAids" ref="A1:P180" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}"/>
+  <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Beltone Commence 2 63-DRW Digital RIE"/>
+        <filter val="Beltone Commence 3 62-DRWC Digital RIE"/>
+        <filter val="Beltone RIE Digital Commence 3 62-DRWC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P131">
     <sortCondition ref="B1:B135"/>
   </sortState>
@@ -3917,7 +3922,7 @@
       </c>
       <c r="F5" s="116"/>
       <c r="G5" s="82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3933,7 +3938,7 @@
       </c>
       <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>3</v>
@@ -4383,11 +4388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L179" sqref="C178:L179"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4446,7 +4451,7 @@
         <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>87</v>
@@ -4462,16 +4467,16 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>189</v>
@@ -4510,12 +4515,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="26" t="str">
@@ -4560,16 +4565,16 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>189</v>
@@ -4609,12 +4614,12 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="26" t="str">
@@ -4659,16 +4664,16 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E6" s="79" t="s">
         <v>189</v>
@@ -4708,12 +4713,12 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="str">
@@ -4758,16 +4763,16 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>189</v>
@@ -4807,12 +4812,12 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="26" t="str">
@@ -4857,16 +4862,16 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E10" s="79" t="s">
         <v>189</v>
@@ -4906,12 +4911,12 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="26" t="str">
@@ -4956,16 +4961,16 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E12" s="79" t="s">
         <v>189</v>
@@ -5005,12 +5010,12 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="26" t="str">
@@ -5055,16 +5060,16 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E14" s="79" t="s">
         <v>189</v>
@@ -5106,10 +5111,10 @@
     </row>
     <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="26" t="str">
@@ -5148,16 +5153,16 @@
       <c r="P15" s="73"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E16" s="79" t="s">
         <v>189</v>
@@ -5198,10 +5203,10 @@
     </row>
     <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="26" t="str">
@@ -5239,16 +5244,16 @@
       <c r="O17" s="77"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>189</v>
@@ -5287,12 +5292,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A19" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="26" t="str">
@@ -5337,16 +5342,16 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E20" s="79" t="s">
         <v>189</v>
@@ -5386,12 +5391,12 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="26" t="str">
@@ -5430,16 +5435,16 @@
       <c r="P21" s="73"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E22" s="79" t="s">
         <v>189</v>
@@ -5479,12 +5484,12 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A23" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="26" t="str">
@@ -5529,16 +5534,16 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>189</v>
@@ -5578,12 +5583,12 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A25" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="26" t="str">
@@ -5628,16 +5633,16 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E26" s="79" t="s">
         <v>189</v>
@@ -5677,7 +5682,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -5729,16 +5734,16 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E28" s="79" t="s">
         <v>189</v>
@@ -5778,12 +5783,12 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="26" t="str">
@@ -5828,16 +5833,16 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E30" s="79" t="s">
         <v>189</v>
@@ -5877,12 +5882,12 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="26" t="str">
@@ -5927,16 +5932,16 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E32" s="79" t="s">
         <v>189</v>
@@ -5976,12 +5981,12 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="26" t="str">
@@ -6026,16 +6031,16 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E34" s="79" t="s">
         <v>189</v>
@@ -6075,12 +6080,12 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="26" t="str">
@@ -6125,16 +6130,16 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E36" s="79" t="s">
         <v>189</v>
@@ -6174,12 +6179,12 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="26" t="str">
@@ -6224,16 +6229,16 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E38" s="79" t="s">
         <v>189</v>
@@ -6271,12 +6276,12 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="26" t="str">
@@ -6319,16 +6324,16 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>189</v>
@@ -6366,12 +6371,12 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="26" t="str">
@@ -6414,16 +6419,16 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E42" s="79" t="s">
         <v>189</v>
@@ -6460,7 +6465,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -6512,16 +6517,16 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E44" s="79" t="s">
         <v>189</v>
@@ -6559,7 +6564,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>421</v>
       </c>
@@ -6611,16 +6616,16 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>189</v>
@@ -6658,12 +6663,12 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="26" t="str">
@@ -6708,16 +6713,16 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>189</v>
@@ -6755,12 +6760,12 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="26" t="str">
@@ -6805,16 +6810,16 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E50" s="79" t="s">
         <v>189</v>
@@ -6852,12 +6857,12 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="26" t="str">
@@ -6902,16 +6907,16 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E52" s="79" t="s">
         <v>189</v>
@@ -6949,12 +6954,12 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="26" t="str">
@@ -6999,12 +7004,12 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="26" t="str">
@@ -7051,14 +7056,14 @@
     </row>
     <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E55" s="79" t="s">
         <v>189</v>
@@ -7092,12 +7097,12 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="26" t="str">
@@ -7142,10 +7147,10 @@
     </row>
     <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C57" s="66" t="s">
         <v>515</v>
@@ -7194,10 +7199,10 @@
     </row>
     <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C58" s="66" t="s">
         <v>516</v>
@@ -7246,10 +7251,10 @@
     </row>
     <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>517</v>
@@ -7298,10 +7303,10 @@
     </row>
     <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C60" s="66" t="s">
         <v>518</v>
@@ -7348,12 +7353,12 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="26" t="str">
@@ -7398,10 +7403,10 @@
     </row>
     <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B62" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="26" t="str">
@@ -7448,14 +7453,14 @@
     </row>
     <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C63" s="71"/>
       <c r="D63" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E63" s="79" t="s">
         <v>189</v>
@@ -7491,10 +7496,10 @@
     </row>
     <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="26" t="str">
@@ -7502,7 +7507,7 @@
         <v>()</v>
       </c>
       <c r="E64" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F64" s="73">
         <v>2339</v>
@@ -7541,10 +7546,10 @@
     </row>
     <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="26" t="str">
@@ -7591,10 +7596,10 @@
     </row>
     <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B66" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="26" t="str">
@@ -7641,10 +7646,10 @@
     </row>
     <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B67" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="26" t="str">
@@ -7691,10 +7696,10 @@
     </row>
     <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B68" s="83" t="s">
+        <v>574</v>
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="26" t="str">
@@ -7739,12 +7744,12 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A69" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="26" t="str">
@@ -7789,16 +7794,16 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A70" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C70" s="71"/>
       <c r="D70" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E70" s="79" t="s">
         <v>189</v>
@@ -7838,12 +7843,12 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A71" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="26" t="str">
@@ -7888,12 +7893,12 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A72" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="26" t="str">
@@ -7936,16 +7941,16 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A73" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C73" s="71"/>
       <c r="D73" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E73" s="79" t="s">
         <v>189</v>
@@ -7979,7 +7984,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -8031,12 +8036,12 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A75" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="26" t="str">
@@ -8081,12 +8086,12 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A76" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="26" t="str">
@@ -8131,12 +8136,12 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B77" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="26" t="str">
@@ -8181,16 +8186,16 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A78" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E78" s="79" t="s">
         <v>189</v>
@@ -8230,16 +8235,16 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A79" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C79" s="71"/>
       <c r="D79" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E79" s="79" t="s">
         <v>189</v>
@@ -8279,12 +8284,12 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A80" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="26" t="str">
@@ -8329,12 +8334,12 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A81" s="71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="26" t="str">
@@ -8379,12 +8384,12 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="26" t="str">
@@ -8428,7 +8433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8439,7 +8444,7 @@
         <v>417</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E83" s="79" t="s">
         <v>189</v>
@@ -8478,12 +8483,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="26" t="str">
@@ -8527,16 +8532,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E85" s="79" t="s">
         <v>189</v>
@@ -8575,12 +8580,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="26" t="str">
@@ -8624,7 +8629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8635,7 +8640,7 @@
         <v>418</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E87" s="79" t="s">
         <v>189</v>
@@ -8674,12 +8679,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="26" t="str">
@@ -8723,7 +8728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>423</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E89" s="79" t="s">
         <v>189</v>
@@ -8773,12 +8778,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B90" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="26" t="str">
@@ -8820,16 +8825,16 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E91" s="79" t="s">
         <v>189</v>
@@ -8868,12 +8873,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="26" t="str">
@@ -8915,7 +8920,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8926,7 +8931,7 @@
         <v>419</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E93" s="79" t="s">
         <v>189</v>
@@ -8965,12 +8970,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="26" t="str">
@@ -9012,16 +9017,16 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E95" s="79" t="s">
         <v>189</v>
@@ -9062,17 +9067,15 @@
     </row>
     <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>557</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>519</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="66"/>
       <c r="D96" s="26" t="str">
         <f>"("&amp;C96&amp;")"</f>
-        <v>(CNH-HI-REL4-63DRWC)</v>
+        <v>()</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>57</v>
@@ -9111,7 +9114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97" s="4" t="s">
         <v>432</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98" s="4" t="s">
         <v>432</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>435</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E98" s="79" t="s">
         <v>189</v>
@@ -9212,7 +9215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99" s="4" t="s">
         <v>432</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>()</v>
       </c>
       <c r="E99" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F99" s="73">
         <v>5819</v>
@@ -9261,7 +9264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100" s="4" t="s">
         <v>432</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101" s="4" t="s">
         <v>432</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102" s="4" t="s">
         <v>432</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103" s="4" t="s">
         <v>432</v>
       </c>
@@ -9465,7 +9468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105" s="4" t="s">
         <v>432</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106" s="4" t="s">
         <v>432</v>
       </c>
@@ -9618,7 +9621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107" s="4" t="s">
         <v>432</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108" s="4" t="s">
         <v>432</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109" s="4" t="s">
         <v>432</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110" s="4" t="s">
         <v>433</v>
       </c>
@@ -9822,7 +9825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111" s="4" t="s">
         <v>433</v>
       </c>
@@ -9833,7 +9836,7 @@
         <v>436</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E111" s="79" t="s">
         <v>189</v>
@@ -9872,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112" s="4" t="s">
         <v>433</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>()</v>
       </c>
       <c r="E112" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F112" s="73">
         <v>3689</v>
@@ -9921,7 +9924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113" s="4" t="s">
         <v>433</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114" s="4" t="s">
         <v>433</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115" s="4" t="s">
         <v>433</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116" s="4" t="s">
         <v>433</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4" t="s">
         <v>433</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118" s="4" t="s">
         <v>433</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119" s="4" t="s">
         <v>433</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120" s="4" t="s">
         <v>433</v>
       </c>
@@ -10329,7 +10332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121" s="4" t="s">
         <v>433</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122" s="4" t="s">
         <v>433</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10493,7 +10496,7 @@
         <v>437</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E124" s="79" t="s">
         <v>189</v>
@@ -10532,7 +10535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>()</v>
       </c>
       <c r="E125" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F125" s="73">
         <v>4679</v>
@@ -10581,7 +10584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -11091,19 +11094,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B136" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C136" s="83"/>
       <c r="D136" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F136" s="85">
         <v>5819</v>
@@ -11138,19 +11141,19 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137" s="83" t="s">
         <v>59</v>
       </c>
       <c r="B137" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C137" s="83"/>
       <c r="D137" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E137" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F137" s="85">
         <v>5819</v>
@@ -11185,19 +11188,19 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138" s="83" t="s">
         <v>60</v>
       </c>
       <c r="B138" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C138" s="83"/>
       <c r="D138" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E138" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F138" s="85">
         <v>3689</v>
@@ -11232,19 +11235,19 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139" s="83" t="s">
         <v>61</v>
       </c>
       <c r="B139" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C139" s="83"/>
       <c r="D139" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E139" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F139" s="85">
         <v>3689</v>
@@ -11279,19 +11282,19 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140" s="83" t="s">
         <v>62</v>
       </c>
       <c r="B140" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C140" s="83"/>
       <c r="D140" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F140" s="85">
         <v>4679</v>
@@ -11326,19 +11329,19 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141" s="83" t="s">
         <v>63</v>
       </c>
       <c r="B141" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C141" s="83"/>
       <c r="D141" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E141" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F141" s="85">
         <v>4679</v>
@@ -11375,17 +11378,17 @@
     </row>
     <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B142" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C142" s="83"/>
       <c r="D142" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E142" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F142" s="85">
         <v>1859</v>
@@ -11416,17 +11419,17 @@
     </row>
     <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B143" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C143" s="83"/>
       <c r="D143" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E143" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F143" s="85">
         <v>2339</v>
@@ -11454,19 +11457,19 @@
       <c r="O143" s="89"/>
       <c r="P143" s="85"/>
     </row>
-    <row r="144" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144" s="83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B144" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C144" s="83"/>
       <c r="D144" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F144" s="85">
         <v>5819</v>
@@ -11501,19 +11504,19 @@
       </c>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145" s="83" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B145" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C145" s="83"/>
       <c r="D145" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E145" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F145" s="85">
         <v>3029</v>
@@ -11542,19 +11545,19 @@
       <c r="P145" s="85"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146" s="83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B146" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C146" s="83"/>
       <c r="D146" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E146" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F146" s="85">
         <v>3689</v>
@@ -11589,19 +11592,19 @@
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147" s="83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C147" s="83"/>
       <c r="D147" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E147" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F147" s="85">
         <v>4679</v>
@@ -11636,7 +11639,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148" s="83" t="s">
         <v>49</v>
       </c>
@@ -11647,10 +11650,10 @@
         <v>417</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F148" s="85">
         <v>1960</v>
@@ -11685,19 +11688,19 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149" s="83" t="s">
         <v>50</v>
       </c>
       <c r="B149" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C149" s="83"/>
       <c r="D149" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E149" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F149" s="85">
         <v>1960</v>
@@ -11732,19 +11735,19 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150" s="83" t="s">
         <v>36</v>
       </c>
       <c r="B150" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C150" s="83"/>
       <c r="D150" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E150" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F150" s="85">
         <v>1960</v>
@@ -11779,19 +11782,19 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151" s="83" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C151" s="83"/>
       <c r="D151" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E151" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F151" s="85">
         <v>1960</v>
@@ -11826,19 +11829,19 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C152" s="83"/>
       <c r="D152" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F152" s="85">
         <v>1960</v>
@@ -11873,19 +11876,19 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153" s="83" t="s">
         <v>39</v>
       </c>
       <c r="B153" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C153" s="83"/>
       <c r="D153" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E153" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F153" s="85">
         <v>1960</v>
@@ -11920,19 +11923,19 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B154" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" s="83"/>
       <c r="D154" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E154" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F154" s="85">
         <v>1960</v>
@@ -11965,19 +11968,19 @@
       <c r="P154" s="86"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155" s="83" t="s">
         <v>47</v>
       </c>
       <c r="B155" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C155" s="83"/>
       <c r="D155" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E155" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F155" s="85">
         <v>1960</v>
@@ -12010,7 +12013,7 @@
       <c r="P155" s="86"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156" s="83" t="s">
         <v>51</v>
       </c>
@@ -12021,10 +12024,10 @@
         <v>418</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F156" s="85">
         <v>2345</v>
@@ -12059,7 +12062,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157" s="83" t="s">
         <v>421</v>
       </c>
@@ -12070,10 +12073,10 @@
         <v>423</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E157" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F157" s="85">
         <v>2345</v>
@@ -12108,19 +12111,19 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B158" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C158" s="83"/>
       <c r="D158" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E158" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F158" s="85">
         <v>2345</v>
@@ -12155,19 +12158,19 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159" s="83" t="s">
         <v>40</v>
       </c>
       <c r="B159" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C159" s="83"/>
       <c r="D159" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E159" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F159" s="85">
         <v>2345</v>
@@ -12202,19 +12205,19 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160" s="83" t="s">
         <v>41</v>
       </c>
       <c r="B160" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C160" s="83"/>
       <c r="D160" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F160" s="85">
         <v>2345</v>
@@ -12249,19 +12252,19 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B161" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C161" s="83"/>
       <c r="D161" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E161" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F161" s="85">
         <v>2345</v>
@@ -12296,19 +12299,19 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B162" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C162" s="83"/>
       <c r="D162" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E162" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F162" s="85">
         <v>2345</v>
@@ -12343,19 +12346,19 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163" s="83" t="s">
         <v>44</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C163" s="83"/>
       <c r="D163" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E163" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F163" s="85">
         <v>2345</v>
@@ -12388,19 +12391,19 @@
       <c r="P163" s="86"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164" s="83" t="s">
         <v>46</v>
       </c>
       <c r="B164" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C164" s="83"/>
       <c r="D164" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F164" s="85">
         <v>2345</v>
@@ -12433,19 +12436,19 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165" s="83" t="s">
         <v>48</v>
       </c>
       <c r="B165" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C165" s="83"/>
       <c r="D165" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E165" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F165" s="85">
         <v>2345</v>
@@ -12478,7 +12481,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A166" s="83" t="s">
         <v>32</v>
       </c>
@@ -12489,10 +12492,10 @@
         <v>419</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E166" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F166" s="85">
         <v>3029</v>
@@ -12527,19 +12530,19 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A167" s="83" t="s">
         <v>34</v>
       </c>
       <c r="B167" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C167" s="83"/>
       <c r="D167" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E167" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F167" s="85">
         <v>3029</v>
@@ -12574,19 +12577,19 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A168" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B168" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C168" s="83"/>
       <c r="D168" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F168" s="85">
         <v>3029</v>
@@ -12620,19 +12623,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A169" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B169" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C169" s="83"/>
       <c r="D169" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E169" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F169" s="85">
         <v>3029</v>
@@ -12666,19 +12669,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C170" s="83"/>
       <c r="D170" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E170" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F170" s="85">
         <v>3029</v>
@@ -12712,19 +12715,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171" s="83" t="s">
         <v>28</v>
       </c>
       <c r="B171" s="83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C171" s="83"/>
       <c r="D171" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E171" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F171" s="85">
         <v>3029</v>
@@ -12758,19 +12761,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172" s="83" t="s">
         <v>29</v>
       </c>
       <c r="B172" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C172" s="83"/>
       <c r="D172" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F172" s="85">
         <v>3029</v>
@@ -12802,19 +12805,19 @@
       </c>
       <c r="P172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B173" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C173" s="83"/>
       <c r="D173" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E173" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F173" s="85">
         <v>3029</v>
@@ -12846,19 +12849,19 @@
       </c>
       <c r="P173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174" s="83" t="s">
         <v>31</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C174" s="83"/>
       <c r="D174" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E174" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F174" s="85">
         <v>3029</v>
@@ -12890,7 +12893,7 @@
       </c>
       <c r="P174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175" s="83" t="s">
         <v>432</v>
       </c>
@@ -12901,10 +12904,10 @@
         <v>435</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E175" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F175" s="85">
         <v>5819</v>
@@ -12938,7 +12941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176" s="83" t="s">
         <v>433</v>
       </c>
@@ -12949,10 +12952,10 @@
         <v>436</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F176" s="85">
         <v>3689</v>
@@ -12986,7 +12989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>
@@ -12997,10 +13000,10 @@
         <v>437</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E177" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F177" s="85">
         <v>4679</v>
@@ -13034,19 +13037,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178" s="83" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B178" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C178" s="83"/>
       <c r="D178" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E178" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F178" s="85">
         <v>5819</v>
@@ -13080,19 +13083,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179" s="83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B179" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C179" s="83"/>
       <c r="D179" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F179" s="85">
         <v>3689</v>
@@ -13126,19 +13129,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A180" s="83" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B180" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C180" s="83"/>
       <c r="D180" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F180" s="85">
         <v>4679</v>
@@ -15006,7 +15009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837ECC3-A09E-4C86-AA3E-B9664769F460}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
@@ -15031,10 +15034,10 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1" t="s">
         <v>131</v>
@@ -15061,7 +15064,7 @@
         <v>(CAM-REC-SF3-HP0)</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>102</v>
@@ -15091,7 +15094,7 @@
         <v>(CAM-REC-SF3-HP1)</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>104</v>
@@ -15121,7 +15124,7 @@
         <v>(CAM-REC-SF3-HP2)</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>106</v>
@@ -15151,7 +15154,7 @@
         <v>(CAM-REC-SF3-HP3)</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>108</v>
@@ -15181,7 +15184,7 @@
         <v>(CAM-REC-SF3-HP4)</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>110</v>
@@ -15211,7 +15214,7 @@
         <v>(CAM-REC-SF3-LP0)</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>112</v>
@@ -15241,7 +15244,7 @@
         <v>(CAM-REC-SF3-LP1)</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>114</v>
@@ -15271,7 +15274,7 @@
         <v>(CAM-REC-SF3-LP2)</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>116</v>
@@ -15301,7 +15304,7 @@
         <v>(CAM-REC-SF3-LP3)</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>118</v>
@@ -15331,7 +15334,7 @@
         <v>(CAM-REC-SF3-LP4)</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>120</v>
@@ -15361,7 +15364,7 @@
         <v>(CAM-REC-SF3-MP0)</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>122</v>
@@ -15391,7 +15394,7 @@
         <v>(CAM-REC-SF3-MP1)</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>124</v>
@@ -15421,7 +15424,7 @@
         <v>(CAM-REC-SF3-MP2)</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>126</v>
@@ -15451,7 +15454,7 @@
         <v>(CAM-REC-SF3-MP3)</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>128</v>
@@ -15481,7 +15484,7 @@
         <v>(CAM-REC-SF3-MP4)</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>130</v>
@@ -15511,7 +15514,7 @@
         <v>(ABC-REC-SF3-HP0)</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>102</v>
@@ -15541,7 +15544,7 @@
         <v>(ABC-REC-SF3-HP1)</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>104</v>
@@ -15571,7 +15574,7 @@
         <v>(ABC-REC-SF3-HP2)</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>106</v>
@@ -15601,7 +15604,7 @@
         <v>(ABC-REC-SF3-HP3)</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>108</v>
@@ -15631,7 +15634,7 @@
         <v>(ABC-REC-SF3-HP4)</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>110</v>
@@ -15661,7 +15664,7 @@
         <v>(ABC-REC-SF3-LP0)</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>112</v>
@@ -15691,7 +15694,7 @@
         <v>(ABC-REC-SF3-LP1)</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>114</v>
@@ -15721,7 +15724,7 @@
         <v>(ABC-REC-SF3-LP2)</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>116</v>
@@ -15751,7 +15754,7 @@
         <v>(ABC-REC-SF3-LP3)</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>118</v>
@@ -15781,7 +15784,7 @@
         <v>(ABC-REC-SF3-LP4)</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>120</v>
@@ -15811,7 +15814,7 @@
         <v>(ABC-REC-SF3-MP0)</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>122</v>
@@ -15841,7 +15844,7 @@
         <v>(ABC-REC-SF3-MP1)</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>124</v>
@@ -15871,7 +15874,7 @@
         <v>(ABC-REC-SF3-MP2)</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>126</v>
@@ -15901,7 +15904,7 @@
         <v>(ABC-REC-SF3-MP3)</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>128</v>
@@ -15931,7 +15934,7 @@
         <v>(ELU-REC-MM-1)</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>94</v>
@@ -15961,7 +15964,7 @@
         <v>(ELU-REC-MM-2)</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>96</v>
@@ -15991,7 +15994,7 @@
         <v>(ELU-REC-MM-3)</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>98</v>
@@ -16021,7 +16024,7 @@
         <v>(ELU-REC-MM-4)</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>100</v>
@@ -16051,7 +16054,7 @@
         <v>(ELU-REC-SF3-HP0)</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>102</v>
@@ -16081,7 +16084,7 @@
         <v>(ELU-REC-SF3-HP1)</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>104</v>
@@ -16111,7 +16114,7 @@
         <v>(ELU-REC-SF3-HP2)</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>106</v>
@@ -16141,7 +16144,7 @@
         <v>(ELU-REC-SF3-HP3)</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>108</v>
@@ -16171,7 +16174,7 @@
         <v>(ELU-REC-SF3-HP4)</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>110</v>
@@ -16201,7 +16204,7 @@
         <v>(ELU-REC-SF3-LP0)</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>112</v>
@@ -16231,7 +16234,7 @@
         <v>(ELU-REC-SF3-LP1)</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>114</v>
@@ -16261,7 +16264,7 @@
         <v>(ELU-REC-SF3-LP2)</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>116</v>
@@ -16291,7 +16294,7 @@
         <v>(ELU-REC-SF3-LP3)</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>118</v>
@@ -16321,7 +16324,7 @@
         <v>(ELU-REC-SF3-LP4)</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>120</v>
@@ -16351,7 +16354,7 @@
         <v>(ELU-REC-SF3-MP0)</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>122</v>
@@ -16381,7 +16384,7 @@
         <v>(ELU-REC-SF3-MP1)</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>124</v>
@@ -16411,7 +16414,7 @@
         <v>(ELU-REC-SF3-MP2)</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>126</v>
@@ -16441,7 +16444,7 @@
         <v>(ELU-REC-SF3-MP3)</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>128</v>
@@ -16471,7 +16474,7 @@
         <v>(ELU-REC-SF3-MP4)</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>130</v>
@@ -16501,7 +16504,7 @@
         <v>(FAF-REC-MM-1)</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>94</v>
@@ -16531,7 +16534,7 @@
         <v>(FAF-REC-MM-2)</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>96</v>
@@ -16561,7 +16564,7 @@
         <v>(FAF-REC-MM-3)</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>98</v>
@@ -16591,7 +16594,7 @@
         <v>(FAF-REC-MM-4)</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>100</v>
@@ -16621,7 +16624,7 @@
         <v>(FAF-REC-SF3-HP0)</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>102</v>
@@ -16651,7 +16654,7 @@
         <v>(FAF-REC-SF3-HP1)</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>104</v>
@@ -16681,7 +16684,7 @@
         <v>(FAF-REC-SF3-HP2)</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>106</v>
@@ -16711,7 +16714,7 @@
         <v>(FAF-REC-SF3-HP3)</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>108</v>
@@ -16741,7 +16744,7 @@
         <v>(FAF-REC-SF3-HP4)</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>110</v>
@@ -16771,7 +16774,7 @@
         <v>(FAF-REC-SF3-LP0)</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>112</v>
@@ -16801,7 +16804,7 @@
         <v>(FAF-REC-SF3-LP1)</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>114</v>
@@ -16831,7 +16834,7 @@
         <v>(FAF-REC-SF3-LP2)</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>116</v>
@@ -16861,7 +16864,7 @@
         <v>(FAF-REC-SF3-LP3)</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>118</v>
@@ -16891,7 +16894,7 @@
         <v>(FAF-REC-SF3-LP4)</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>120</v>
@@ -16921,7 +16924,7 @@
         <v>(FAF-REC-SF3-MP0)</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>122</v>
@@ -16951,7 +16954,7 @@
         <v>(FAF-REC-SF3-MP1)</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>124</v>
@@ -16981,7 +16984,7 @@
         <v>(FAF-REC-SF3-MP2)</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>126</v>
@@ -17011,7 +17014,7 @@
         <v>(FAF-REC-SF3-MP3)</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>128</v>
@@ -17041,7 +17044,7 @@
         <v>(FAF-REC-SF3-MP4)</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>130</v>
@@ -17071,7 +17074,7 @@
         <v>(GHB-REC-SF3-HP0)</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>102</v>
@@ -17101,7 +17104,7 @@
         <v>(GHB-REC-SF3-HP1)</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>104</v>
@@ -17131,7 +17134,7 @@
         <v>(GHB-REC-SF3-HP2)</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D71" s="32" t="s">
         <v>106</v>
@@ -17161,7 +17164,7 @@
         <v>(GHB-REC-SF3-HP3)</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>108</v>
@@ -17191,7 +17194,7 @@
         <v>(GHB-REC-SF3-HP4)</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>110</v>
@@ -17221,7 +17224,7 @@
         <v>(GHB-REC-SF3-LP0)</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D74" s="32" t="s">
         <v>112</v>
@@ -17251,7 +17254,7 @@
         <v>(GHB-REC-SF3-LP1)</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>114</v>
@@ -17281,7 +17284,7 @@
         <v>(GHB-REC-SF3-LP2)</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D76" s="32" t="s">
         <v>116</v>
@@ -17311,7 +17314,7 @@
         <v>(GHB-REC-SF3-LP3)</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D77" s="32" t="s">
         <v>118</v>
@@ -17341,7 +17344,7 @@
         <v>(GHB-REC-SF3-LP4)</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D78" s="32" t="s">
         <v>120</v>
@@ -17371,7 +17374,7 @@
         <v>(GHB-REC-SF3-MP0)</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>122</v>
@@ -17401,7 +17404,7 @@
         <v>(GHB-REC-SF3-MP1)</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>124</v>
@@ -17431,7 +17434,7 @@
         <v>(GHB-REC-SF3-MP2)</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>126</v>
@@ -17461,7 +17464,7 @@
         <v>(GHB-REC-SF3-MP3)</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>128</v>
@@ -17491,7 +17494,7 @@
         <v>(GHB-REC-SF3-MP4)</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>130</v>
@@ -17521,7 +17524,7 @@
         <v>(CHS-REC-SF3-HP0)</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>102</v>
@@ -17551,7 +17554,7 @@
         <v>(CHS-REC-SF3-HP1)</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>104</v>
@@ -17581,7 +17584,7 @@
         <v>(CHS-REC-SF3-HP2)</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>106</v>
@@ -17611,7 +17614,7 @@
         <v>(CHS-REC-SF3-HP3)</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>108</v>
@@ -17641,7 +17644,7 @@
         <v>(CHS-REC-SF3-HP4)</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>110</v>
@@ -17671,7 +17674,7 @@
         <v>(CHS-REC-SF3-LP0)</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>112</v>
@@ -17701,7 +17704,7 @@
         <v>(CHS-REC-SF3-LP1)</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D90" s="32" t="s">
         <v>114</v>
@@ -17731,7 +17734,7 @@
         <v>(CHS-REC-SF3-LP2)</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>116</v>
@@ -17761,7 +17764,7 @@
         <v>(CHS-REC-SF3-LP3)</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>118</v>
@@ -17791,7 +17794,7 @@
         <v>(CHS-REC-SF3-LP4)</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>120</v>
@@ -17821,7 +17824,7 @@
         <v>(CHS-REC-SF3-MP0)</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>122</v>
@@ -17851,7 +17854,7 @@
         <v>(CHS-REC-SF3-MP1)</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>124</v>
@@ -17881,7 +17884,7 @@
         <v>(CHS-REC-SF3-MP2)</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>126</v>
@@ -17911,7 +17914,7 @@
         <v>(CHS-REC-SF3-MP3)</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>128</v>
@@ -17941,7 +17944,7 @@
         <v>(CHS-REC-SF3-MP4)</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>130</v>
@@ -17971,7 +17974,7 @@
         <v>(CHU-REC-SF3-HP0)</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>102</v>
@@ -18001,7 +18004,7 @@
         <v>(CHU-REC-SF3-HP1)</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D100" s="32" t="s">
         <v>104</v>
@@ -18031,7 +18034,7 @@
         <v>(CHU-REC-SF3-HP2)</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D101" s="32" t="s">
         <v>106</v>
@@ -18061,7 +18064,7 @@
         <v>(CHU-REC-SF3-HP3)</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D102" s="32" t="s">
         <v>108</v>
@@ -18091,7 +18094,7 @@
         <v>(CHU-REC-SF3-HP4)</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>110</v>
@@ -18121,7 +18124,7 @@
         <v>(CHU-REC-SF3-LP0)</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D104" s="32" t="s">
         <v>112</v>
@@ -18151,7 +18154,7 @@
         <v>(CHU-REC-SF3-LP1)</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D105" s="32" t="s">
         <v>114</v>
@@ -18181,7 +18184,7 @@
         <v>(CHU-REC-SF3-LP2)</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D106" s="32" t="s">
         <v>116</v>
@@ -18211,7 +18214,7 @@
         <v>(CHU-REC-SF3-LP3)</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D107" s="32" t="s">
         <v>118</v>
@@ -18241,7 +18244,7 @@
         <v>(CHU-REC-SF3-LP4)</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D108" s="32" t="s">
         <v>120</v>
@@ -18271,7 +18274,7 @@
         <v>(CHU-REC-SF3-MP0)</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D109" s="32" t="s">
         <v>122</v>
@@ -18301,7 +18304,7 @@
         <v>(CHU-REC-SF3-MP1)</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D110" s="32" t="s">
         <v>124</v>
@@ -18331,7 +18334,7 @@
         <v>(CHU-REC-SF3-MP2)</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D111" s="32" t="s">
         <v>126</v>
@@ -18361,7 +18364,7 @@
         <v>(CHU-REC-SF3-MP3)</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D112" s="32" t="s">
         <v>128</v>
@@ -18391,7 +18394,7 @@
         <v>(CHU-REC-SF3-MP4)</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D113" s="32" t="s">
         <v>130</v>
@@ -18421,7 +18424,7 @@
         <v>(HUM-REC-SF3-HP0)</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D114" s="32" t="s">
         <v>102</v>
@@ -18451,7 +18454,7 @@
         <v>(HUM-REC-SF3-HP1)</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D115" s="32" t="s">
         <v>104</v>
@@ -18481,7 +18484,7 @@
         <v>(HUM-REC-SF3-HP2)</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D116" s="32" t="s">
         <v>106</v>
@@ -18511,7 +18514,7 @@
         <v>(HUM-REC-SF3-HP3)</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D117" s="32" t="s">
         <v>108</v>
@@ -18541,7 +18544,7 @@
         <v>(HUM-REC-SF3-HP4)</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D118" s="32" t="s">
         <v>110</v>
@@ -18571,7 +18574,7 @@
         <v>(HUM-REC-SF3-LP0)</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D119" s="32" t="s">
         <v>112</v>
@@ -18601,7 +18604,7 @@
         <v>(HUM-REC-SF3-LP1)</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D120" s="32" t="s">
         <v>114</v>
@@ -18631,7 +18634,7 @@
         <v>(HUM-REC-SF3-LP2)</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D121" s="32" t="s">
         <v>116</v>
@@ -18661,7 +18664,7 @@
         <v>(HUM-REC-SF3-LP3)</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D122" s="32" t="s">
         <v>118</v>
@@ -18691,7 +18694,7 @@
         <v>(HUM-REC-SF3-LP4)</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D123" s="32" t="s">
         <v>120</v>
@@ -18721,7 +18724,7 @@
         <v>(HUM-REC-SF3-MP0)</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D124" s="32" t="s">
         <v>122</v>
@@ -18751,7 +18754,7 @@
         <v>(HUM-REC-SF3-MP1)</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D125" s="32" t="s">
         <v>124</v>
@@ -18781,7 +18784,7 @@
         <v>(HUM-REC-SF3-MP2)</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D126" s="32" t="s">
         <v>126</v>
@@ -18811,7 +18814,7 @@
         <v>(HUM-REC-SF3-MP3)</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>128</v>
@@ -18841,7 +18844,7 @@
         <v>(HUM-REC-SF3-MP4)</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D128" s="32" t="s">
         <v>130</v>
@@ -18871,7 +18874,7 @@
         <v>(CMP-REC-SF3-HP0)</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D129" s="32" t="s">
         <v>102</v>
@@ -18901,7 +18904,7 @@
         <v>(CMP-REC-SF3-HP1)</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D130" s="32" t="s">
         <v>104</v>
@@ -18931,7 +18934,7 @@
         <v>(CMP-REC-SF3-HP2)</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D131" s="32" t="s">
         <v>106</v>
@@ -18961,7 +18964,7 @@
         <v>(CMP-REC-SF3-HP3)</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D132" s="32" t="s">
         <v>108</v>
@@ -18991,7 +18994,7 @@
         <v>(CMP-REC-SF3-HP4)</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>110</v>
@@ -19021,7 +19024,7 @@
         <v>(CMP-REC-SF3-LP0)</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D134" s="32" t="s">
         <v>112</v>
@@ -19051,7 +19054,7 @@
         <v>(CMP-REC-SF3-LP1)</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D135" s="32" t="s">
         <v>114</v>
@@ -19081,7 +19084,7 @@
         <v>(CMP-REC-SF3-LP2)</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D136" s="32" t="s">
         <v>116</v>
@@ -19111,7 +19114,7 @@
         <v>(CMP-REC-SF3-LP3)</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D137" s="32" t="s">
         <v>118</v>
@@ -19141,7 +19144,7 @@
         <v>(CMP-REC-SF3-LP4)</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D138" s="32" t="s">
         <v>120</v>
@@ -19171,7 +19174,7 @@
         <v>(CMP-REC-SF3-MP0)</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D139" s="32" t="s">
         <v>122</v>
@@ -19201,7 +19204,7 @@
         <v>(CMP-REC-SF3-MP1)</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D140" s="32" t="s">
         <v>124</v>
@@ -19231,7 +19234,7 @@
         <v>(CMP-REC-SF3-MP2)</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D141" s="32" t="s">
         <v>126</v>
@@ -19261,7 +19264,7 @@
         <v>(CMP-REC-SF3-MP3)</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D142" s="32" t="s">
         <v>128</v>
@@ -19291,7 +19294,7 @@
         <v>(CMP-REC-SF3-MP4)</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D143" s="32" t="s">
         <v>130</v>
@@ -19321,7 +19324,7 @@
         <v>(MLA-REC-SF3-HP0)</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D144" s="32" t="s">
         <v>102</v>
@@ -19351,7 +19354,7 @@
         <v>(MLA-REC-SF3-HP1)</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D145" s="32" t="s">
         <v>104</v>
@@ -19381,7 +19384,7 @@
         <v>(MLA-REC-SF3-HP2)</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>106</v>
@@ -19411,7 +19414,7 @@
         <v>(MLA-REC-SF3-HP3)</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D147" s="32" t="s">
         <v>108</v>
@@ -19441,7 +19444,7 @@
         <v>(MLA-REC-SF3-HP4)</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>110</v>
@@ -19471,7 +19474,7 @@
         <v>(MLA-REC-SF3-LP0)</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D149" s="32" t="s">
         <v>112</v>
@@ -19501,7 +19504,7 @@
         <v>(MLA-REC-SF3-LP1)</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D150" s="32" t="s">
         <v>114</v>
@@ -19531,7 +19534,7 @@
         <v>(MLA-REC-SF3-LP2)</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D151" s="32" t="s">
         <v>116</v>
@@ -19561,7 +19564,7 @@
         <v>(MLA-REC-SF3-LP3)</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>118</v>
@@ -19591,7 +19594,7 @@
         <v>(MLA-REC-SF3-LP4)</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D153" s="32" t="s">
         <v>120</v>
@@ -19621,7 +19624,7 @@
         <v>(MLA-REC-SF3-MP0)</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D154" s="32" t="s">
         <v>122</v>
@@ -19651,7 +19654,7 @@
         <v>(MLA-REC-SF3-MP1)</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>124</v>
@@ -19681,7 +19684,7 @@
         <v>(MLA-REC-SF3-MP2)</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D156" s="32" t="s">
         <v>126</v>
@@ -19711,7 +19714,7 @@
         <v>(MLA-REC-SF3-MP3)</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D157" s="32" t="s">
         <v>128</v>
@@ -19741,7 +19744,7 @@
         <v>(MLA-REC-SF3-MP4)</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D158" s="32" t="s">
         <v>130</v>
@@ -19771,7 +19774,7 @@
         <v>(CNH-REC-SF3-HP0)</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D159" s="32" t="s">
         <v>102</v>
@@ -19801,7 +19804,7 @@
         <v>(CNH-REC-SF3-HP1)</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D160" s="32" t="s">
         <v>104</v>
@@ -19831,7 +19834,7 @@
         <v>(CNH-REC-SF3-HP2)</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D161" s="32" t="s">
         <v>106</v>
@@ -19861,7 +19864,7 @@
         <v>(CNH-REC-SF3-HP3)</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>108</v>
@@ -19891,7 +19894,7 @@
         <v>(CNH-REC-SF3-HP4)</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>110</v>
@@ -19921,7 +19924,7 @@
         <v>(CNH-REC-SF3-LP0)</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>112</v>
@@ -19951,7 +19954,7 @@
         <v>(CNH-REC-SF3-LP1)</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D165" s="32" t="s">
         <v>114</v>
@@ -19981,7 +19984,7 @@
         <v>(CNH-REC-SF3-LP2)</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>116</v>
@@ -20011,7 +20014,7 @@
         <v>(CNH-REC-SF3-LP3)</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D167" s="32" t="s">
         <v>118</v>
@@ -20041,7 +20044,7 @@
         <v>(CNH-REC-SF3-LP4)</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D168" s="32" t="s">
         <v>120</v>
@@ -20071,7 +20074,7 @@
         <v>(CNH-REC-SF3-MP0)</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D169" s="32" t="s">
         <v>122</v>
@@ -20101,7 +20104,7 @@
         <v>(CNH-REC-SF3-MP1)</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D170" s="32" t="s">
         <v>124</v>
@@ -20131,7 +20134,7 @@
         <v>(CNH-REC-SF3-MP2)</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D171" s="32" t="s">
         <v>126</v>
@@ -20161,7 +20164,7 @@
         <v>(CNH-REC-SF3-MP3)</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D172" s="32" t="s">
         <v>128</v>
@@ -20191,7 +20194,7 @@
         <v>(CNH-REC-SF3-MP4)</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D173" s="32" t="s">
         <v>130</v>
@@ -20221,7 +20224,7 @@
         <v>(REG-REC-MM-1)</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D174" s="32" t="s">
         <v>94</v>
@@ -20251,7 +20254,7 @@
         <v>(REG-REC-MM-2)</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D175" s="32" t="s">
         <v>96</v>
@@ -20281,7 +20284,7 @@
         <v>(REG-REC-MM-3)</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D176" s="32" t="s">
         <v>98</v>
@@ -20311,7 +20314,7 @@
         <v>(REG-REC-MM-4)</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D177" s="32" t="s">
         <v>100</v>
@@ -20341,7 +20344,7 @@
         <v>(REG-REC-SF3-HP0)</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D178" s="32" t="s">
         <v>102</v>
@@ -20371,7 +20374,7 @@
         <v>(REG-REC-SF3-HP1)</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D179" s="32" t="s">
         <v>104</v>
@@ -20401,7 +20404,7 @@
         <v>(REG-REC-SF3-HP2)</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D180" s="32" t="s">
         <v>106</v>
@@ -20431,7 +20434,7 @@
         <v>(REG-REC-SF3-HP3)</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D181" s="32" t="s">
         <v>108</v>
@@ -20461,7 +20464,7 @@
         <v>(REG-REC-SF3-HP4)</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D182" s="32" t="s">
         <v>110</v>
@@ -20491,7 +20494,7 @@
         <v>(REG-REC-SF3-LP0)</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D183" s="32" t="s">
         <v>112</v>
@@ -20521,7 +20524,7 @@
         <v>(REG-REC-SF3-LP1)</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D184" s="32" t="s">
         <v>114</v>
@@ -20551,7 +20554,7 @@
         <v>(REG-REC-SF3-LP2)</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D185" s="32" t="s">
         <v>116</v>
@@ -20581,7 +20584,7 @@
         <v>(REG-REC-SF3-LP3)</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D186" s="32" t="s">
         <v>118</v>
@@ -20611,7 +20614,7 @@
         <v>(REG-REC-SF3-LP4)</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D187" s="32" t="s">
         <v>120</v>
@@ -20641,7 +20644,7 @@
         <v>(REG-REC-SF3-MP0)</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D188" s="32" t="s">
         <v>122</v>
@@ -20671,7 +20674,7 @@
         <v>(REG-REC-SF3-MP1)</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D189" s="32" t="s">
         <v>124</v>
@@ -20701,7 +20704,7 @@
         <v>(REG-REC-SF3-MP2)</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D190" s="32" t="s">
         <v>126</v>
@@ -20731,7 +20734,7 @@
         <v>(REG-REC-SF3-MP3)</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D191" s="32" t="s">
         <v>128</v>
@@ -20761,7 +20764,7 @@
         <v>(REG-REC-SF3-MP4)</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D192" s="32" t="s">
         <v>130</v>
@@ -20791,7 +20794,7 @@
         <v>(CTH-REC-SF3-HP0)</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D193" s="32" t="s">
         <v>102</v>
@@ -20821,7 +20824,7 @@
         <v>(CTH-REC-SF3-HP1)</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D194" s="32" t="s">
         <v>104</v>
@@ -20851,7 +20854,7 @@
         <v>(CTH-REC-SF3-HP2)</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D195" s="32" t="s">
         <v>106</v>
@@ -20881,7 +20884,7 @@
         <v>(CTH-REC-SF3-HP3)</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D196" s="32" t="s">
         <v>108</v>
@@ -20911,7 +20914,7 @@
         <v>(CTH-REC-SF3-HP4)</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D197" s="32" t="s">
         <v>110</v>
@@ -20941,7 +20944,7 @@
         <v>(CTH-REC-SF3-LP0)</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D198" s="32" t="s">
         <v>112</v>
@@ -20971,7 +20974,7 @@
         <v>(CTH-REC-SF3-LP1)</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D199" s="32" t="s">
         <v>114</v>
@@ -21001,7 +21004,7 @@
         <v>(CTH-REC-SF3-LP2)</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D200" s="32" t="s">
         <v>116</v>
@@ -21031,7 +21034,7 @@
         <v>(CTH-REC-SF3-LP3)</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D201" s="32" t="s">
         <v>118</v>
@@ -21061,7 +21064,7 @@
         <v>(CTH-REC-SF3-LP4)</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D202" s="32" t="s">
         <v>120</v>
@@ -21091,7 +21094,7 @@
         <v>(CTH-REC-SF3-MP0)</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D203" s="32" t="s">
         <v>122</v>
@@ -21121,7 +21124,7 @@
         <v>(CTH-REC-SF3-MP1)</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D204" s="32" t="s">
         <v>124</v>
@@ -21151,7 +21154,7 @@
         <v>(CTH-REC-SF3-MP2)</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D205" s="32" t="s">
         <v>126</v>
@@ -21181,7 +21184,7 @@
         <v>(CTH-REC-SF3-MP3)</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D206" s="32" t="s">
         <v>128</v>
@@ -21211,7 +21214,7 @@
         <v>(CTH-REC-SF3-MP4)</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D207" s="32" t="s">
         <v>130</v>
@@ -21241,7 +21244,7 @@
         <v>(CWC-REC-SF3-HP0)</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D208" s="32" t="s">
         <v>102</v>
@@ -21271,7 +21274,7 @@
         <v>(CWC-REC-SF3-HP1)</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D209" s="32" t="s">
         <v>104</v>
@@ -21301,7 +21304,7 @@
         <v>(CWC-REC-SF3-HP2)</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D210" s="32" t="s">
         <v>106</v>
@@ -21331,7 +21334,7 @@
         <v>(CWC-REC-SF3-HP3)</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D211" s="32" t="s">
         <v>108</v>
@@ -21361,7 +21364,7 @@
         <v>(CWC-REC-SF3-HP4)</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D212" s="32" t="s">
         <v>110</v>
@@ -21391,7 +21394,7 @@
         <v>(CWC-REC-SF3-LP0)</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D213" s="32" t="s">
         <v>112</v>
@@ -21421,7 +21424,7 @@
         <v>(CWC-REC-SF3-LP1)</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D214" s="32" t="s">
         <v>114</v>
@@ -21451,7 +21454,7 @@
         <v>(CWC-REC-SF3-LP2)</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D215" s="32" t="s">
         <v>116</v>
@@ -21481,7 +21484,7 @@
         <v>(CWC-REC-SF3-LP3)</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D216" s="32" t="s">
         <v>118</v>
@@ -21511,7 +21514,7 @@
         <v>(CWC-REC-SF3-LP4)</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D217" s="32" t="s">
         <v>120</v>
@@ -21541,7 +21544,7 @@
         <v>(CWC-REC-SF3-MP0)</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D218" s="32" t="s">
         <v>122</v>
@@ -21571,7 +21574,7 @@
         <v>(CWC-REC-SF3-MP1)</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D219" s="32" t="s">
         <v>124</v>
@@ -21601,7 +21604,7 @@
         <v>(CWC-REC-SF3-MP2)</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D220" s="32" t="s">
         <v>126</v>
@@ -21631,7 +21634,7 @@
         <v>(CWC-REC-SF3-MP3)</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D221" s="32" t="s">
         <v>128</v>
@@ -21661,7 +21664,7 @@
         <v>(CWC-REC-SF3-MP4)</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D222" s="32" t="s">
         <v>130</v>
@@ -21684,14 +21687,14 @@
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A223" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B223" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-1)</v>
       </c>
       <c r="C223" s="91" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D223" s="32" t="s">
         <v>94</v>
@@ -21706,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I223" s="32">
         <v>0</v>
@@ -21714,14 +21717,14 @@
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A224" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B224" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-2)</v>
       </c>
       <c r="C224" s="91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D224" s="32" t="s">
         <v>96</v>
@@ -21736,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I224" s="32">
         <v>0</v>
@@ -21744,14 +21747,14 @@
     </row>
     <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A225" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B225" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-3)</v>
       </c>
       <c r="C225" s="91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D225" s="32" t="s">
         <v>98</v>
@@ -21766,7 +21769,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I225" s="32">
         <v>0</v>
@@ -21774,14 +21777,14 @@
     </row>
     <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A226" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B226" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-MM-4)</v>
       </c>
       <c r="C226" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D226" s="32" t="s">
         <v>100</v>
@@ -21796,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I226" s="32">
         <v>0</v>
@@ -21804,14 +21807,14 @@
     </row>
     <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A227" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B227" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP0)</v>
       </c>
       <c r="C227" s="91" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D227" s="32" t="s">
         <v>102</v>
@@ -21826,7 +21829,7 @@
         <v>150</v>
       </c>
       <c r="H227" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I227" s="32">
         <v>0</v>
@@ -21834,14 +21837,14 @@
     </row>
     <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A228" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B228" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP1)</v>
       </c>
       <c r="C228" s="91" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D228" s="32" t="s">
         <v>104</v>
@@ -21856,7 +21859,7 @@
         <v>150</v>
       </c>
       <c r="H228" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I228" s="32">
         <v>0</v>
@@ -21864,14 +21867,14 @@
     </row>
     <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A229" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B229" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP2)</v>
       </c>
       <c r="C229" s="91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D229" s="32" t="s">
         <v>106</v>
@@ -21886,7 +21889,7 @@
         <v>150</v>
       </c>
       <c r="H229" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I229" s="32">
         <v>0</v>
@@ -21894,14 +21897,14 @@
     </row>
     <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A230" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B230" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP3)</v>
       </c>
       <c r="C230" s="91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D230" s="32" t="s">
         <v>108</v>
@@ -21916,7 +21919,7 @@
         <v>150</v>
       </c>
       <c r="H230" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I230" s="32">
         <v>0</v>
@@ -21924,14 +21927,14 @@
     </row>
     <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A231" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B231" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-HP4)</v>
       </c>
       <c r="C231" s="91" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D231" s="32" t="s">
         <v>110</v>
@@ -21946,7 +21949,7 @@
         <v>150</v>
       </c>
       <c r="H231" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I231" s="32">
         <v>0</v>
@@ -21954,14 +21957,14 @@
     </row>
     <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A232" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B232" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP0)</v>
       </c>
       <c r="C232" s="91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D232" s="32" t="s">
         <v>112</v>
@@ -21976,7 +21979,7 @@
         <v>150</v>
       </c>
       <c r="H232" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I232" s="32">
         <v>0</v>
@@ -21984,14 +21987,14 @@
     </row>
     <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A233" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B233" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP1)</v>
       </c>
       <c r="C233" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D233" s="32" t="s">
         <v>114</v>
@@ -22006,7 +22009,7 @@
         <v>150</v>
       </c>
       <c r="H233" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I233" s="32">
         <v>0</v>
@@ -22014,14 +22017,14 @@
     </row>
     <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A234" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B234" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP2)</v>
       </c>
       <c r="C234" s="91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D234" s="32" t="s">
         <v>116</v>
@@ -22036,7 +22039,7 @@
         <v>150</v>
       </c>
       <c r="H234" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I234" s="32">
         <v>0</v>
@@ -22044,14 +22047,14 @@
     </row>
     <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A235" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B235" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP3)</v>
       </c>
       <c r="C235" s="91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D235" s="32" t="s">
         <v>118</v>
@@ -22066,7 +22069,7 @@
         <v>150</v>
       </c>
       <c r="H235" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I235" s="32">
         <v>0</v>
@@ -22074,14 +22077,14 @@
     </row>
     <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A236" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B236" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-LP4)</v>
       </c>
       <c r="C236" s="91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D236" s="32" t="s">
         <v>120</v>
@@ -22096,7 +22099,7 @@
         <v>150</v>
       </c>
       <c r="H236" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I236" s="32">
         <v>0</v>
@@ -22104,14 +22107,14 @@
     </row>
     <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A237" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B237" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP0)</v>
       </c>
       <c r="C237" s="91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D237" s="32" t="s">
         <v>122</v>
@@ -22126,7 +22129,7 @@
         <v>150</v>
       </c>
       <c r="H237" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I237" s="32">
         <v>0</v>
@@ -22134,14 +22137,14 @@
     </row>
     <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A238" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B238" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP1)</v>
       </c>
       <c r="C238" s="91" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D238" s="32" t="s">
         <v>124</v>
@@ -22156,7 +22159,7 @@
         <v>150</v>
       </c>
       <c r="H238" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I238" s="32">
         <v>0</v>
@@ -22164,14 +22167,14 @@
     </row>
     <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A239" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B239" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP2)</v>
       </c>
       <c r="C239" s="91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D239" s="32" t="s">
         <v>126</v>
@@ -22186,7 +22189,7 @@
         <v>150</v>
       </c>
       <c r="H239" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I239" s="32">
         <v>0</v>
@@ -22194,14 +22197,14 @@
     </row>
     <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A240" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B240" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP3)</v>
       </c>
       <c r="C240" s="91" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D240" s="32" t="s">
         <v>128</v>
@@ -22216,7 +22219,7 @@
         <v>150</v>
       </c>
       <c r="H240" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I240" s="32">
         <v>0</v>
@@ -22224,14 +22227,14 @@
     </row>
     <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A241" s="32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B241" s="26" t="str">
         <f t="shared" si="3"/>
         <v>(VOL-REC-SF3-MP4)</v>
       </c>
       <c r="C241" s="91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D241" s="32" t="s">
         <v>130</v>
@@ -22246,7 +22249,7 @@
         <v>150</v>
       </c>
       <c r="H241" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I241" s="32">
         <v>0</v>
@@ -23464,10 +23467,10 @@
         <v>(GB-REM-TVSTRPL)</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E27" s="41">
         <v>425</v>
@@ -23905,17 +23908,17 @@
     </row>
     <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B43" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHGB-REM-MULTIMIC)</v>
       </c>
       <c r="C43" t="s">
+        <v>525</v>
+      </c>
+      <c r="D43" t="s">
         <v>526</v>
-      </c>
-      <c r="D43" t="s">
-        <v>527</v>
       </c>
       <c r="E43" s="41">
         <v>425</v>
@@ -23956,22 +23959,22 @@
         <v>150</v>
       </c>
       <c r="H44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B45" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHPB-REM-MULTIMIC)</v>
       </c>
       <c r="C45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>526</v>
-      </c>
-      <c r="D45" t="s">
-        <v>527</v>
       </c>
       <c r="E45" s="41">
         <v>425</v>
@@ -23984,7 +23987,7 @@
         <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
@@ -23996,10 +23999,10 @@
         <v>(OHPB-REM-TVSTRPL)</v>
       </c>
       <c r="C46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E46" s="41">
         <v>425</v>
@@ -24012,12 +24015,12 @@
         <v>350</v>
       </c>
       <c r="H46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B47" s="31" t="str">
         <f t="shared" si="1"/>
@@ -24040,22 +24043,22 @@
         <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B48" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(OHSB-REM-TVSTRPL)</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E48" s="41">
         <v>425</v>
@@ -24068,7 +24071,7 @@
         <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
@@ -24129,17 +24132,17 @@
     </row>
     <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B51" s="31" t="str">
         <f t="shared" si="1"/>
         <v>(PB-REM-MULTIMIC)</v>
       </c>
       <c r="C51" t="s">
+        <v>525</v>
+      </c>
+      <c r="D51" t="s">
         <v>526</v>
-      </c>
-      <c r="D51" t="s">
-        <v>527</v>
       </c>
       <c r="E51" s="41">
         <v>325</v>
@@ -24164,10 +24167,10 @@
         <v>(PB-REM-TVSTRPL)</v>
       </c>
       <c r="C52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E52" s="41">
         <v>425</v>
@@ -24504,10 +24507,10 @@
         <v>(REG-REM-TVSTRPL)</v>
       </c>
       <c r="C64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E64" s="68">
         <v>425</v>
@@ -24584,17 +24587,17 @@
     </row>
     <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B67" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(REG-REM-MULTIMIC)</v>
       </c>
       <c r="C67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D67" t="s">
         <v>526</v>
-      </c>
-      <c r="D67" t="s">
-        <v>527</v>
       </c>
       <c r="E67" s="68">
         <v>425</v>
@@ -24800,7 +24803,7 @@
     </row>
     <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B75" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24823,12 +24826,12 @@
         <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B76" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24851,12 +24854,12 @@
         <v>250</v>
       </c>
       <c r="H76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B77" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24879,12 +24882,12 @@
         <v>450</v>
       </c>
       <c r="H77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B78" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24907,12 +24910,12 @@
         <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B79" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24935,12 +24938,12 @@
         <v>225</v>
       </c>
       <c r="H79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B80" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24963,12 +24966,12 @@
         <v>225</v>
       </c>
       <c r="H80" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B81" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24991,12 +24994,12 @@
         <v>315</v>
       </c>
       <c r="H81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B82" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25019,12 +25022,12 @@
         <v>200</v>
       </c>
       <c r="H82" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B83" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25047,12 +25050,12 @@
         <v>340</v>
       </c>
       <c r="H83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B84" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25075,12 +25078,12 @@
         <v>185</v>
       </c>
       <c r="H84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B85" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25103,22 +25106,22 @@
         <v>365</v>
       </c>
       <c r="H85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B86" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(VOL-REM-TVSTRPL)</v>
       </c>
       <c r="C86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E86" s="68">
         <v>425</v>
@@ -25131,12 +25134,12 @@
         <v>425</v>
       </c>
       <c r="H86" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B87" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25159,12 +25162,12 @@
         <v>300</v>
       </c>
       <c r="H87" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B88" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25187,22 +25190,22 @@
         <v>300</v>
       </c>
       <c r="H88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B89" s="31" t="str">
         <f t="shared" si="2"/>
         <v>(VOL-REM-MULTIMIC)</v>
       </c>
       <c r="C89" t="s">
+        <v>525</v>
+      </c>
+      <c r="D89" t="s">
         <v>526</v>
-      </c>
-      <c r="D89" t="s">
-        <v>527</v>
       </c>
       <c r="E89" s="68">
         <v>425</v>
@@ -25215,12 +25218,12 @@
         <v>425</v>
       </c>
       <c r="H89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B90" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25243,12 +25246,12 @@
         <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B91" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25271,12 +25274,12 @@
         <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B92" s="31" t="str">
         <f>"("&amp;A92&amp;")"</f>
@@ -25299,7 +25302,7 @@
         <v>325</v>
       </c>
       <c r="H92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -25365,7 +25368,7 @@
         <v>(REG-SVC-PAFITTING)</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3326" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054AAFA1-B092-46BB-A949-505446033A85}"/>
+  <xr:revisionPtr revIDLastSave="3327" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C4EFC0-9A7F-4C80-AB4F-955788D9B5A7}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="480" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="5100" yWindow="5895" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Data Lists" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2656,6 +2657,37 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,37 +2735,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3473,9 +3474,7 @@
   <autoFilter ref="A1:P180" xr:uid="{0EDF487B-BC6A-43CC-A5E2-F07346E1A4ED}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Beltone Commence 2 63-DRW Digital RIE"/>
-        <filter val="Beltone Commence 3 62-DRWC Digital RIE"/>
-        <filter val="Beltone RIE Digital Commence 3 62-DRWC"/>
+        <filter val="Beltone Serene 9 62SDRWC Digital RIE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3910,33 +3909,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="113"/>
+      <c r="B5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="82" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="81" t="s">
         <v>572</v>
       </c>
@@ -3961,10 +3960,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="98"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3974,27 +3973,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="106" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4007,28 +4006,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="95" t="str" cm="1">
+      <c r="J11" s="104" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="106" t="str">
+      <c r="B12" s="115" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4041,25 +4040,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="106" t="str" cm="1">
+      <c r="B13" s="115" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4072,26 +4071,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="106" t="str" cm="1">
+      <c r="B14" s="115" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4101,26 +4100,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4130,46 +4129,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="103" t="str" cm="1">
+      <c r="J16" s="112" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="str" cm="1">
+      <c r="B17" s="111" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4182,11 +4181,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4196,9 +4195,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4210,12 +4209,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="95" t="e" cm="1" vm="1">
+      <c r="L20" s="104" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4229,9 +4228,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4249,9 +4248,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4267,9 +4266,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4288,9 +4287,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4298,9 +4297,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4327,11 +4326,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4346,6 +4340,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4392,7 +4391,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5109,7 +5108,7 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A15" s="71" t="s">
         <v>557</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A17" s="71" t="s">
         <v>556</v>
       </c>
@@ -7054,7 +7053,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="71" t="s">
         <v>557</v>
       </c>
@@ -7145,7 +7144,7 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A57" s="71" t="s">
         <v>556</v>
       </c>
@@ -7197,7 +7196,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A58" s="71" t="s">
         <v>556</v>
       </c>
@@ -7249,7 +7248,7 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A59" s="71" t="s">
         <v>556</v>
       </c>
@@ -7301,7 +7300,7 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A60" s="71" t="s">
         <v>556</v>
       </c>
@@ -7401,7 +7400,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A62" s="71" t="s">
         <v>556</v>
       </c>
@@ -7451,7 +7450,7 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A63" s="71" t="s">
         <v>556</v>
       </c>
@@ -7494,7 +7493,7 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A64" s="71" t="s">
         <v>556</v>
       </c>
@@ -7544,7 +7543,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A65" s="71" t="s">
         <v>556</v>
       </c>
@@ -7594,7 +7593,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A66" s="71" t="s">
         <v>556</v>
       </c>
@@ -7644,7 +7643,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A67" s="71" t="s">
         <v>556</v>
       </c>
@@ -7694,7 +7693,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A68" s="71" t="s">
         <v>556</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96" s="71" t="s">
         <v>556</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10788,7 +10787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10992,7 +10991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -11376,7 +11375,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142" s="83" t="s">
         <v>557</v>
       </c>
@@ -11417,7 +11416,7 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143" s="83" t="s">
         <v>556</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3327" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C4EFC0-9A7F-4C80-AB4F-955788D9B5A7}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="5895" windowWidth="24525" windowHeight="15120" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Data Lists" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2657,37 +2656,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2735,6 +2703,37 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3909,33 +3908,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="97"/>
+      <c r="B5" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="113"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="82" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="110" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="102"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
         <v>572</v>
       </c>
@@ -3960,10 +3959,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="114"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3973,27 +3972,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="115" t="str">
+      <c r="B11" s="106" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4006,28 +4005,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="104" t="str" cm="1">
+      <c r="J11" s="95" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="106"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="115" t="str">
+      <c r="B12" s="106" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4040,25 +4039,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="115" t="str" cm="1">
+      <c r="B13" s="106" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4071,26 +4070,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="115" t="str" cm="1">
+      <c r="B14" s="106" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4100,26 +4099,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="115" t="str">
+      <c r="B15" s="106" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -4129,46 +4128,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="112" t="str" cm="1">
+      <c r="J16" s="103" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="114"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111" t="str" cm="1">
+      <c r="B17" s="102" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4181,11 +4180,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4195,9 +4194,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4209,12 +4208,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="104" t="e" cm="1" vm="1">
+      <c r="L20" s="95" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="106"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4228,9 +4227,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4248,9 +4247,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4266,9 +4265,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="109"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4287,9 +4286,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4297,9 +4296,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4326,6 +4325,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4340,11 +4344,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3327" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C4EFC0-9A7F-4C80-AB4F-955788D9B5A7}"/>
+  <xr:revisionPtr revIDLastSave="3329" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E28E249-1198-4716-A07B-ABF3E1E2CA87}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -1796,9 +1796,6 @@
     <t>Using $1000 coupon for 17s, 9s &amp; 6s?</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Beltone Envision 4 62S-DRWC Digital RIE</t>
   </si>
   <si>
@@ -2001,6 +1998,9 @@
   </si>
   <si>
     <t>VOL-REC-SF3-MP4</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2011,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3891,11 +3891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B380E-1396-4B6E-A468-8A3D9AA81345}">
   <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -3906,8 +3906,8 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1">
       <c r="B5" s="112" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
       <c r="B6" s="110" t="s">
         <v>432</v>
       </c>
@@ -3932,11 +3932,11 @@
         <v>2</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>2</v>
+        <v>604</v>
       </c>
       <c r="F6" s="118"/>
       <c r="G6" s="81" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>3</v>
@@ -3946,7 +3946,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1">
       <c r="B10" s="114" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="P10" s="94"/>
       <c r="Q10" s="94"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>424</v>
       </c>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="F11" s="13" cm="1">
         <f t="array" ref="F11">IF($B$6="","",IF($G$6="NO",(_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)),_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)+500))</f>
-        <v>1519</v>
+        <v>1019</v>
       </c>
       <c r="G11" s="13">
         <f>E11-F11</f>
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="J11" s="95" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
@@ -4017,7 +4017,7 @@
       <c r="P11" s="96"/>
       <c r="Q11" s="97"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>425</v>
       </c>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="F12" s="13" cm="1">
         <f t="array" ref="F12">IF($B$6="","",IF($G$6="NO",(_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)),_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)+500))</f>
-        <v>1519</v>
+        <v>1019</v>
       </c>
       <c r="G12" s="13">
         <f>E12-F12</f>
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="J12" s="98"/>
       <c r="K12" s="99"/>
@@ -4048,7 +4048,7 @@
       <c r="P12" s="99"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="Q13" s="100"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="Q14" s="100"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="P15" s="99"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
-        <v>8850</v>
+        <v>9850</v>
       </c>
       <c r="J16" s="103" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
@@ -4161,7 +4161,7 @@
       <c r="P16" s="104"/>
       <c r="Q16" s="105"/>
     </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="18" customHeight="1">
       <c r="B17" s="102" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
@@ -4179,7 +4179,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="18" customHeight="1">
       <c r="B18" s="101" t="s">
         <v>12</v>
       </c>
@@ -4189,11 +4189,11 @@
       <c r="F18" s="49"/>
       <c r="G18" s="14">
         <f>SUM(G16:G17)</f>
-        <v>9150</v>
+        <v>10150</v>
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
@@ -4201,7 +4201,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="20" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -4220,7 +4220,7 @@
       <c r="R20" s="54"/>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -4236,7 +4236,7 @@
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="22" spans="2:19" ht="18" customHeight="1">
       <c r="F22" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter deductible amount not met ---&gt;","")</f>
         <v/>
@@ -4256,7 +4256,7 @@
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="2.65">
+    <row r="23" spans="2:19" ht="18" customHeight="1">
       <c r="F23" s="47" t="str">
         <f>IF(E6="Anthem BCBS","Enter Coinsurance % ---&gt;","")</f>
         <v/>
@@ -4274,7 +4274,7 @@
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="2.7">
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="47"/>
@@ -4295,7 +4295,7 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
@@ -4306,10 +4306,10 @@
       </c>
       <c r="G25" s="13">
         <f>IF(G21='Data Lists'!C3,0,IF(AND(G21='Data Lists'!C4,$E$6="Anthem BCBS"),'Price Calculator'!G24/2,IF(AND(G21='Data Lists'!C5,$E$6="Anthem BCBS"),'Price Calculator'!G24*20%,IF(AND(G21='Data Lists'!C6,$E$6="Anthem BCBS"),700,IF(AND(G21='Data Lists'!C7,$E$6="Anthem BCBS",G24&lt;5555),G24*10%,IF(AND(G21='Data Lists'!C7,$E$6="Anthem BCBS",G24&gt;5555),G24-5000,IF(G21='Data Lists'!C4,'Price Calculator'!G18*20%,IF(G21='Data Lists'!C5,'Price Calculator'!G18*20%,IF('Price Calculator'!G21='Data Lists'!C6,700,IF(AND('Price Calculator'!G21='Data Lists'!C7,G18&lt;5555),G18*10%,IF(AND('Price Calculator'!G21='Data Lists'!C7,G18&gt;5555),G18-5000,"")))))))))))</f>
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="47"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G26" s="15">
         <f>IF($E$6="Anthem BCBS",G24-G25,G18-G25)</f>
-        <v>7320</v>
+        <v>8120</v>
       </c>
     </row>
   </sheetData>
@@ -4386,14 +4386,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8E355-D10F-45CB-8710-0B743D2C5CA5}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -4414,7 +4414,7 @@
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="12.75" hidden="1">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="26" t="s">
@@ -4513,12 +4513,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" ht="12.75" hidden="1">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="26" t="str">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" ht="12.75" hidden="1">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="26" t="s">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" ht="12.75" hidden="1">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="26" t="str">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" ht="12.75" hidden="1">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="26" t="s">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" ht="12.75" hidden="1">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="str">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" ht="12.75" hidden="1">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="26" t="s">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" ht="12.75" hidden="1">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="26" t="str">
@@ -4860,12 +4860,12 @@
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" ht="12.75" hidden="1">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="26" t="s">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" ht="12.75" hidden="1">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="26" t="str">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" ht="12.75" hidden="1">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="26" t="s">
@@ -5008,12 +5008,12 @@
       </c>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" ht="12.75" hidden="1">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="26" t="str">
@@ -5058,12 +5058,12 @@
       </c>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" ht="12.75" hidden="1">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="26" t="s">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" ht="12.75" hidden="1">
       <c r="A15" s="71" t="s">
         <v>557</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="26" t="str">
@@ -5151,12 +5151,12 @@
       <c r="P15" s="73"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" ht="12.75" hidden="1">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="26" t="s">
@@ -5199,12 +5199,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="12.75" hidden="1">
       <c r="A17" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="26" t="str">
@@ -5242,12 +5242,12 @@
       <c r="O17" s="77"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="12.75" hidden="1">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="26" t="s">
@@ -5290,7 +5290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" ht="12.75" hidden="1">
       <c r="A19" s="71" t="s">
         <v>552</v>
       </c>
@@ -5340,12 +5340,12 @@
       </c>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="12.75" hidden="1">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="26" t="s">
@@ -5389,12 +5389,12 @@
       </c>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="12.75" hidden="1">
       <c r="A21" s="71" t="s">
         <v>555</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="26" t="str">
@@ -5433,12 +5433,12 @@
       <c r="P21" s="73"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="12.75" hidden="1">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="26" t="s">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="12.75" hidden="1">
       <c r="A23" s="71" t="s">
         <v>554</v>
       </c>
@@ -5532,12 +5532,12 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="12.75" hidden="1">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="26" t="s">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="12.75" hidden="1">
       <c r="A25" s="71" t="s">
         <v>553</v>
       </c>
@@ -5631,12 +5631,12 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="12.75" hidden="1">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="26" t="s">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="12.75" hidden="1">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="12.75" hidden="1">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="26" t="s">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="12.75" hidden="1">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="26" t="str">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="12.75" hidden="1">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="26" t="s">
@@ -5880,12 +5880,12 @@
       </c>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="12.75" hidden="1">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="26" t="str">
@@ -5930,12 +5930,12 @@
       </c>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" ht="12.75" hidden="1">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="26" t="s">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" ht="12.75" hidden="1">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="26" t="str">
@@ -6029,12 +6029,12 @@
       </c>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:17" ht="12.75" hidden="1">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="26" t="s">
@@ -6078,12 +6078,12 @@
       </c>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:17" ht="12.75" hidden="1">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="26" t="str">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" ht="12.75" hidden="1">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="26" t="s">
@@ -6177,12 +6177,12 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:17" ht="12.75" hidden="1">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="26" t="str">
@@ -6227,12 +6227,12 @@
       </c>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" ht="12.75" hidden="1">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="26" t="s">
@@ -6274,12 +6274,12 @@
       <c r="P38" s="2"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" ht="12.75" hidden="1">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="26" t="str">
@@ -6322,12 +6322,12 @@
       <c r="P39" s="2"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" ht="12.75" hidden="1">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="26" t="s">
@@ -6369,12 +6369,12 @@
       <c r="P40" s="2"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" ht="12.75" hidden="1">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="26" t="str">
@@ -6417,12 +6417,12 @@
       <c r="P41" s="2"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" ht="12.75" hidden="1">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="26" t="s">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" ht="12.75" hidden="1">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -6515,12 +6515,12 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" ht="12.75" hidden="1">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="26" t="s">
@@ -6562,7 +6562,7 @@
       <c r="P44" s="2"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" ht="12.75" hidden="1">
       <c r="A45" s="4" t="s">
         <v>421</v>
       </c>
@@ -6614,12 +6614,12 @@
       </c>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" ht="12.75" hidden="1">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="26" t="s">
@@ -6661,12 +6661,12 @@
       <c r="P46" s="2"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" ht="12.75" hidden="1">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="26" t="str">
@@ -6711,12 +6711,12 @@
       </c>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" ht="12.75" hidden="1">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="26" t="s">
@@ -6758,12 +6758,12 @@
       <c r="P48" s="2"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" ht="12.75" hidden="1">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="26" t="str">
@@ -6808,12 +6808,12 @@
       </c>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" ht="12.75" hidden="1">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="26" t="s">
@@ -6855,12 +6855,12 @@
       <c r="P50" s="2"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" ht="12.75" hidden="1">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="26" t="str">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" ht="12.75" hidden="1">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="26" t="s">
@@ -6952,12 +6952,12 @@
       <c r="P52" s="2"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" ht="12.75" hidden="1">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="26" t="str">
@@ -7002,12 +7002,12 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" ht="12.75" hidden="1">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="26" t="str">
@@ -7052,12 +7052,12 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" ht="12.75" hidden="1">
       <c r="A55" s="71" t="s">
         <v>557</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="26" t="s">
@@ -7095,12 +7095,12 @@
       <c r="P55" s="73"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" ht="12.75" hidden="1">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="26" t="str">
@@ -7143,12 +7143,12 @@
       <c r="P56" s="2"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" ht="12.75" hidden="1">
       <c r="A57" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B57" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C57" s="66" t="s">
         <v>515</v>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" ht="12.75" hidden="1">
       <c r="A58" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C58" s="66" t="s">
         <v>516</v>
@@ -7247,12 +7247,12 @@
       </c>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" ht="12.75" hidden="1">
       <c r="A59" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>517</v>
@@ -7299,12 +7299,12 @@
       </c>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" ht="12.75" hidden="1">
       <c r="A60" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C60" s="66" t="s">
         <v>518</v>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" ht="12.75" hidden="1">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="26" t="str">
@@ -7399,12 +7399,12 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" ht="12.75" hidden="1">
       <c r="A62" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B62" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="26" t="str">
@@ -7449,12 +7449,12 @@
       </c>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" ht="12.75" hidden="1">
       <c r="A63" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B63" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C63" s="71"/>
       <c r="D63" s="26" t="s">
@@ -7492,12 +7492,12 @@
       <c r="P63" s="73"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" ht="12.75" hidden="1">
       <c r="A64" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B64" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="26" t="str">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" ht="12.75" hidden="1">
       <c r="A65" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C65" s="56"/>
       <c r="D65" s="26" t="str">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" ht="12.75" hidden="1">
       <c r="A66" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B66" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C66" s="66"/>
       <c r="D66" s="26" t="str">
@@ -7642,12 +7642,12 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" ht="12.75" hidden="1">
       <c r="A67" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B67" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="26" t="str">
@@ -7692,12 +7692,12 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" ht="12.75" hidden="1">
       <c r="A68" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B68" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="26" t="str">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" ht="12.75" hidden="1">
       <c r="A69" s="71" t="s">
         <v>552</v>
       </c>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" ht="12.75" hidden="1">
       <c r="A70" s="71" t="s">
         <v>552</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" ht="12.75" hidden="1">
       <c r="A71" s="71" t="s">
         <v>552</v>
       </c>
@@ -7891,12 +7891,12 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" ht="12.75" hidden="1">
       <c r="A72" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="26" t="str">
@@ -7939,12 +7939,12 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" ht="12.75" hidden="1">
       <c r="A73" s="71" t="s">
         <v>555</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C73" s="71"/>
       <c r="D73" s="26" t="s">
@@ -7982,7 +7982,7 @@
       <c r="P73" s="73"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" ht="12.75" hidden="1">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" ht="12.75" hidden="1">
       <c r="A75" s="71" t="s">
         <v>554</v>
       </c>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" ht="12.75" hidden="1">
       <c r="A76" s="71" t="s">
         <v>554</v>
       </c>
@@ -8134,12 +8134,12 @@
       </c>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" ht="12.75" hidden="1">
       <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B77" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="26" t="str">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" ht="12.75" hidden="1">
       <c r="A78" s="71" t="s">
         <v>554</v>
       </c>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" ht="12.75" hidden="1">
       <c r="A79" s="71" t="s">
         <v>553</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" ht="12.75" hidden="1">
       <c r="A80" s="71" t="s">
         <v>553</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" ht="12.75" hidden="1">
       <c r="A81" s="71" t="s">
         <v>553</v>
       </c>
@@ -8382,12 +8382,12 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" ht="12.75" hidden="1">
       <c r="A82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="26" t="str">
@@ -8431,7 +8431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" ht="12.75" hidden="1">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -8481,12 +8481,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" ht="12.75" hidden="1">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="26" t="str">
@@ -8530,12 +8530,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" ht="12.75" hidden="1">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="26" t="s">
@@ -8578,12 +8578,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" ht="12.75" hidden="1">
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="26" t="str">
@@ -8627,7 +8627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" ht="12.75" hidden="1">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
@@ -8677,12 +8677,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" ht="12.75" hidden="1">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="26" t="str">
@@ -8726,7 +8726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" ht="12.75" hidden="1">
       <c r="A89" s="4" t="s">
         <v>421</v>
       </c>
@@ -8776,12 +8776,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" ht="12.75" hidden="1">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B90" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="26" t="str">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" ht="12.75" hidden="1">
       <c r="A91" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B91" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="26" t="s">
@@ -8871,12 +8871,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" ht="12.75" hidden="1">
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="26" t="str">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" ht="12.75" hidden="1">
       <c r="A93" s="4" t="s">
         <v>32</v>
       </c>
@@ -8968,12 +8968,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" ht="12.75" hidden="1">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="26" t="str">
@@ -9015,12 +9015,12 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" ht="12.75" hidden="1">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="26" t="s">
@@ -9063,12 +9063,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" ht="12.75" hidden="1">
       <c r="A96" s="71" t="s">
         <v>556</v>
       </c>
       <c r="B96" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C96" s="66"/>
       <c r="D96" s="26" t="str">
@@ -9112,7 +9112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:16" ht="12.75" hidden="1">
       <c r="A97" s="4" t="s">
         <v>432</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:16" ht="12.75" hidden="1">
       <c r="A98" s="4" t="s">
         <v>432</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:16" ht="12.75" hidden="1">
       <c r="A99" s="4" t="s">
         <v>432</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:16" ht="12.75" hidden="1">
       <c r="A100" s="4" t="s">
         <v>432</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:16" ht="12.75" hidden="1">
       <c r="A101" s="4" t="s">
         <v>432</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:16" ht="12.75" hidden="1">
       <c r="A102" s="4" t="s">
         <v>432</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:16" ht="12.75" hidden="1">
       <c r="A103" s="4" t="s">
         <v>432</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:16" ht="12.75" hidden="1">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:16" ht="12.75" hidden="1">
       <c r="A105" s="4" t="s">
         <v>432</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:16" ht="12.75" hidden="1">
       <c r="A106" s="4" t="s">
         <v>432</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:16" ht="12.75" hidden="1">
       <c r="A107" s="4" t="s">
         <v>432</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:16" ht="12.75" hidden="1">
       <c r="A108" s="4" t="s">
         <v>432</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:16" ht="12.75" hidden="1">
       <c r="A109" s="4" t="s">
         <v>432</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:16" ht="12.75" hidden="1">
       <c r="A110" s="4" t="s">
         <v>433</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:16" ht="12.75" hidden="1">
       <c r="A111" s="4" t="s">
         <v>433</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:16" ht="12.75" hidden="1">
       <c r="A112" s="4" t="s">
         <v>433</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:16" ht="12.75" hidden="1">
       <c r="A113" s="4" t="s">
         <v>433</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:16" ht="12.75" hidden="1">
       <c r="A114" s="4" t="s">
         <v>433</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:16" ht="12.75" hidden="1">
       <c r="A115" s="4" t="s">
         <v>433</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:16" ht="12.75" hidden="1">
       <c r="A116" s="4" t="s">
         <v>433</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:16" ht="12.75" hidden="1">
       <c r="A117" s="4" t="s">
         <v>433</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:16" ht="12.75" hidden="1">
       <c r="A118" s="4" t="s">
         <v>433</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:16" ht="12.75" hidden="1">
       <c r="A119" s="4" t="s">
         <v>433</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:16" ht="12.75" hidden="1">
       <c r="A120" s="4" t="s">
         <v>433</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:16" ht="12.75" hidden="1">
       <c r="A121" s="4" t="s">
         <v>433</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:16" ht="12.75" hidden="1">
       <c r="A122" s="4" t="s">
         <v>433</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:16" ht="12.75">
       <c r="A123" s="4" t="s">
         <v>434</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:16" ht="12.75">
       <c r="A124" s="4" t="s">
         <v>434</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:16" ht="12.75">
       <c r="A125" s="4" t="s">
         <v>434</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:16" ht="12.75">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:16" ht="12.75">
       <c r="A127" s="4" t="s">
         <v>434</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:16" ht="12.75">
       <c r="A128" s="4" t="s">
         <v>434</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:17" ht="12.75">
       <c r="A129" s="4" t="s">
         <v>434</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:17" ht="12.75">
       <c r="A130" s="4" t="s">
         <v>434</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:17" ht="12.75">
       <c r="A131" s="4" t="s">
         <v>434</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:17" ht="12.75">
       <c r="A132" s="4" t="s">
         <v>434</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:17" ht="12.75">
       <c r="A133" s="4" t="s">
         <v>434</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:17" ht="12.75">
       <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:17" ht="12.75">
       <c r="A135" s="4" t="s">
         <v>434</v>
       </c>
@@ -11092,19 +11092,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:17" ht="12.75" hidden="1">
       <c r="A136" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B136" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C136" s="83"/>
       <c r="D136" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F136" s="85">
         <v>5819</v>
@@ -11139,19 +11139,19 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:17" ht="12.75" hidden="1">
       <c r="A137" s="83" t="s">
         <v>59</v>
       </c>
       <c r="B137" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C137" s="83"/>
       <c r="D137" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E137" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F137" s="85">
         <v>5819</v>
@@ -11186,19 +11186,19 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:17" ht="12.75" hidden="1">
       <c r="A138" s="83" t="s">
         <v>60</v>
       </c>
       <c r="B138" s="83" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C138" s="83"/>
       <c r="D138" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E138" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F138" s="85">
         <v>3689</v>
@@ -11233,19 +11233,19 @@
       </c>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:17" ht="12.75" hidden="1">
       <c r="A139" s="83" t="s">
         <v>61</v>
       </c>
       <c r="B139" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C139" s="83"/>
       <c r="D139" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E139" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F139" s="85">
         <v>3689</v>
@@ -11280,19 +11280,19 @@
       </c>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:17" ht="12.75" hidden="1">
       <c r="A140" s="83" t="s">
         <v>62</v>
       </c>
       <c r="B140" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C140" s="83"/>
       <c r="D140" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F140" s="85">
         <v>4679</v>
@@ -11327,19 +11327,19 @@
       </c>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:17" ht="12.75" hidden="1">
       <c r="A141" s="83" t="s">
         <v>63</v>
       </c>
       <c r="B141" s="83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C141" s="83"/>
       <c r="D141" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E141" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F141" s="85">
         <v>4679</v>
@@ -11374,19 +11374,19 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:17" ht="12.75" hidden="1">
       <c r="A142" s="83" t="s">
         <v>557</v>
       </c>
       <c r="B142" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C142" s="83"/>
       <c r="D142" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E142" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F142" s="85">
         <v>1859</v>
@@ -11415,19 +11415,19 @@
       <c r="P142" s="85"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:17" ht="12.75" hidden="1">
       <c r="A143" s="83" t="s">
         <v>556</v>
       </c>
       <c r="B143" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C143" s="83"/>
       <c r="D143" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E143" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F143" s="85">
         <v>2339</v>
@@ -11455,7 +11455,7 @@
       <c r="O143" s="89"/>
       <c r="P143" s="85"/>
     </row>
-    <row r="144" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:17" ht="12.75" hidden="1">
       <c r="A144" s="83" t="s">
         <v>552</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>559</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F144" s="85">
         <v>5819</v>
@@ -11502,19 +11502,19 @@
       </c>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:17" ht="12.75" hidden="1">
       <c r="A145" s="83" t="s">
         <v>555</v>
       </c>
       <c r="B145" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C145" s="83"/>
       <c r="D145" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E145" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F145" s="85">
         <v>3029</v>
@@ -11543,7 +11543,7 @@
       <c r="P145" s="85"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:17" ht="12.75" hidden="1">
       <c r="A146" s="83" t="s">
         <v>554</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>559</v>
       </c>
       <c r="E146" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F146" s="85">
         <v>3689</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:17" ht="12.75" hidden="1">
       <c r="A147" s="83" t="s">
         <v>553</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>559</v>
       </c>
       <c r="E147" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F147" s="85">
         <v>4679</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:17" ht="12.75" hidden="1">
       <c r="A148" s="83" t="s">
         <v>49</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>560</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F148" s="85">
         <v>1960</v>
@@ -11686,19 +11686,19 @@
       </c>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:17" ht="12.75" hidden="1">
       <c r="A149" s="83" t="s">
         <v>50</v>
       </c>
       <c r="B149" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C149" s="83"/>
       <c r="D149" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E149" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F149" s="85">
         <v>1960</v>
@@ -11733,19 +11733,19 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:17" ht="12.75" hidden="1">
       <c r="A150" s="83" t="s">
         <v>36</v>
       </c>
       <c r="B150" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C150" s="83"/>
       <c r="D150" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E150" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F150" s="85">
         <v>1960</v>
@@ -11780,19 +11780,19 @@
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:17" ht="12.75" hidden="1">
       <c r="A151" s="83" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C151" s="83"/>
       <c r="D151" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E151" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F151" s="85">
         <v>1960</v>
@@ -11827,19 +11827,19 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:17" ht="12.75" hidden="1">
       <c r="A152" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C152" s="83"/>
       <c r="D152" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F152" s="85">
         <v>1960</v>
@@ -11874,19 +11874,19 @@
       </c>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:17" ht="12.75" hidden="1">
       <c r="A153" s="83" t="s">
         <v>39</v>
       </c>
       <c r="B153" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C153" s="83"/>
       <c r="D153" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E153" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F153" s="85">
         <v>1960</v>
@@ -11921,19 +11921,19 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:17" ht="12.75" hidden="1">
       <c r="A154" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B154" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C154" s="83"/>
       <c r="D154" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E154" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F154" s="85">
         <v>1960</v>
@@ -11966,19 +11966,19 @@
       <c r="P154" s="86"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:17" ht="12.75" hidden="1">
       <c r="A155" s="83" t="s">
         <v>47</v>
       </c>
       <c r="B155" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C155" s="83"/>
       <c r="D155" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E155" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F155" s="85">
         <v>1960</v>
@@ -12011,7 +12011,7 @@
       <c r="P155" s="86"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:17" ht="12.75" hidden="1">
       <c r="A156" s="83" t="s">
         <v>51</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>561</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F156" s="85">
         <v>2345</v>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:17" ht="12.75" hidden="1">
       <c r="A157" s="83" t="s">
         <v>421</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>562</v>
       </c>
       <c r="E157" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F157" s="85">
         <v>2345</v>
@@ -12109,19 +12109,19 @@
       </c>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:17" ht="12.75" hidden="1">
       <c r="A158" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B158" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C158" s="83"/>
       <c r="D158" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E158" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F158" s="85">
         <v>2345</v>
@@ -12156,19 +12156,19 @@
       </c>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:17" ht="12.75" hidden="1">
       <c r="A159" s="83" t="s">
         <v>40</v>
       </c>
       <c r="B159" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C159" s="83"/>
       <c r="D159" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E159" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F159" s="85">
         <v>2345</v>
@@ -12203,19 +12203,19 @@
       </c>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:17" ht="12.75" hidden="1">
       <c r="A160" s="83" t="s">
         <v>41</v>
       </c>
       <c r="B160" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C160" s="83"/>
       <c r="D160" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F160" s="85">
         <v>2345</v>
@@ -12250,19 +12250,19 @@
       </c>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:17" ht="12.75" hidden="1">
       <c r="A161" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B161" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C161" s="83"/>
       <c r="D161" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E161" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F161" s="85">
         <v>2345</v>
@@ -12297,19 +12297,19 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:17" ht="12.75" hidden="1">
       <c r="A162" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B162" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C162" s="83"/>
       <c r="D162" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E162" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F162" s="85">
         <v>2345</v>
@@ -12344,19 +12344,19 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:17" ht="12.75" hidden="1">
       <c r="A163" s="83" t="s">
         <v>44</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C163" s="83"/>
       <c r="D163" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E163" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F163" s="85">
         <v>2345</v>
@@ -12389,19 +12389,19 @@
       <c r="P163" s="86"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:17" ht="12.75" hidden="1">
       <c r="A164" s="83" t="s">
         <v>46</v>
       </c>
       <c r="B164" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C164" s="83"/>
       <c r="D164" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F164" s="85">
         <v>2345</v>
@@ -12434,19 +12434,19 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:17" ht="12.75" hidden="1">
       <c r="A165" s="83" t="s">
         <v>48</v>
       </c>
       <c r="B165" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C165" s="83"/>
       <c r="D165" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E165" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F165" s="85">
         <v>2345</v>
@@ -12479,7 +12479,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:17" ht="12.75" hidden="1">
       <c r="A166" s="83" t="s">
         <v>32</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>563</v>
       </c>
       <c r="E166" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F166" s="85">
         <v>3029</v>
@@ -12528,19 +12528,19 @@
       </c>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:17" ht="12.75" hidden="1">
       <c r="A167" s="83" t="s">
         <v>34</v>
       </c>
       <c r="B167" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C167" s="83"/>
       <c r="D167" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E167" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F167" s="85">
         <v>3029</v>
@@ -12575,19 +12575,19 @@
       </c>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:17" ht="12.75" hidden="1">
       <c r="A168" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B168" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C168" s="83"/>
       <c r="D168" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F168" s="85">
         <v>3029</v>
@@ -12621,19 +12621,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:17" ht="12.75" hidden="1">
       <c r="A169" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B169" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C169" s="83"/>
       <c r="D169" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E169" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F169" s="85">
         <v>3029</v>
@@ -12667,19 +12667,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:17" ht="12.75" hidden="1">
       <c r="A170" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C170" s="83"/>
       <c r="D170" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E170" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F170" s="85">
         <v>3029</v>
@@ -12713,19 +12713,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:17" ht="12.75" hidden="1">
       <c r="A171" s="83" t="s">
         <v>28</v>
       </c>
       <c r="B171" s="83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C171" s="83"/>
       <c r="D171" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E171" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F171" s="85">
         <v>3029</v>
@@ -12759,19 +12759,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:17" ht="12.75" hidden="1">
       <c r="A172" s="83" t="s">
         <v>29</v>
       </c>
       <c r="B172" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C172" s="83"/>
       <c r="D172" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F172" s="85">
         <v>3029</v>
@@ -12803,19 +12803,19 @@
       </c>
       <c r="P172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:17" ht="12.75" hidden="1">
       <c r="A173" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B173" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C173" s="83"/>
       <c r="D173" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E173" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F173" s="85">
         <v>3029</v>
@@ -12847,19 +12847,19 @@
       </c>
       <c r="P173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:17" ht="12.75" hidden="1">
       <c r="A174" s="83" t="s">
         <v>31</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C174" s="83"/>
       <c r="D174" s="26" t="s">
         <v>559</v>
       </c>
       <c r="E174" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F174" s="85">
         <v>3029</v>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="P174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:17" ht="12.75" hidden="1">
       <c r="A175" s="83" t="s">
         <v>432</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>564</v>
       </c>
       <c r="E175" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F175" s="85">
         <v>5819</v>
@@ -12939,7 +12939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:17" ht="12.75" hidden="1">
       <c r="A176" s="83" t="s">
         <v>433</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>565</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F176" s="85">
         <v>3689</v>
@@ -12987,7 +12987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:17" ht="12.75">
       <c r="A177" s="83" t="s">
         <v>434</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>566</v>
       </c>
       <c r="E177" s="84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F177" s="85">
         <v>4679</v>
@@ -13035,7 +13035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:17" ht="12.75" hidden="1">
       <c r="A178" s="83" t="s">
         <v>552</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>559</v>
       </c>
       <c r="E178" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F178" s="85">
         <v>5819</v>
@@ -13081,7 +13081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:17" ht="12.75" hidden="1">
       <c r="A179" s="83" t="s">
         <v>554</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>559</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F179" s="85">
         <v>3689</v>
@@ -13127,7 +13127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="21.75" hidden="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:17" ht="12.75" hidden="1">
       <c r="A180" s="83" t="s">
         <v>553</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>559</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F180" s="85">
         <v>4679</v>
@@ -13173,7 +13173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:17" ht="12.75">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -13191,7 +13191,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="20"/>
     </row>
-    <row r="182" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:17" ht="12.75">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -13209,7 +13209,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="20"/>
     </row>
-    <row r="183" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:17" ht="12.75">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -13227,7 +13227,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="20"/>
     </row>
-    <row r="184" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:17" ht="12.75">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -13245,7 +13245,7 @@
       <c r="O184" s="16"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:17" ht="12.75">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -13263,7 +13263,7 @@
       <c r="O185" s="16"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:17" ht="12.75">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="O186" s="16"/>
       <c r="P186" s="9"/>
     </row>
-    <row r="187" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:17" ht="12.75">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -13299,7 +13299,7 @@
       <c r="O187" s="16"/>
       <c r="P187" s="9"/>
     </row>
-    <row r="188" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:17" ht="12.75">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -13317,7 +13317,7 @@
       <c r="O188" s="16"/>
       <c r="P188" s="9"/>
     </row>
-    <row r="189" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:17" ht="12.75">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -13335,7 +13335,7 @@
       <c r="O189" s="16"/>
       <c r="P189" s="9"/>
     </row>
-    <row r="190" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:17" ht="12.75">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -13353,7 +13353,7 @@
       <c r="O190" s="16"/>
       <c r="P190" s="9"/>
     </row>
-    <row r="191" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:17" ht="12.75">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -13371,7 +13371,7 @@
       <c r="O191" s="16"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:17" ht="12.75">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -13390,7 +13390,7 @@
       <c r="P192" s="9"/>
       <c r="Q192" s="41"/>
     </row>
-    <row r="193" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:17" ht="12.75">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="55"/>
@@ -13409,7 +13409,7 @@
       <c r="P193" s="20"/>
       <c r="Q193" s="41"/>
     </row>
-    <row r="194" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:17" ht="12.75">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="55"/>
@@ -13428,7 +13428,7 @@
       <c r="P194" s="20"/>
       <c r="Q194" s="41"/>
     </row>
-    <row r="195" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:17" ht="12.75">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="55"/>
@@ -13446,7 +13446,7 @@
       <c r="O195" s="2"/>
       <c r="P195" s="20"/>
     </row>
-    <row r="196" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:17" ht="12.75">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -13464,7 +13464,7 @@
       <c r="O196" s="2"/>
       <c r="P196" s="20"/>
     </row>
-    <row r="197" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:17" ht="12.75">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -13482,7 +13482,7 @@
       <c r="O197" s="2"/>
       <c r="P197" s="20"/>
     </row>
-    <row r="198" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:17" ht="12.75">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -13500,7 +13500,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="20"/>
     </row>
-    <row r="199" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:17" ht="12.75">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -13518,7 +13518,7 @@
       <c r="O199" s="16"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:17" ht="12.75">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -13536,7 +13536,7 @@
       <c r="O200" s="16"/>
       <c r="P200" s="9"/>
     </row>
-    <row r="201" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:17" ht="12.75">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -13554,7 +13554,7 @@
       <c r="O201" s="16"/>
       <c r="P201" s="9"/>
     </row>
-    <row r="202" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:17" ht="12.75">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -13572,7 +13572,7 @@
       <c r="O202" s="16"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:17" ht="12.75">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -13590,7 +13590,7 @@
       <c r="O203" s="16"/>
       <c r="P203" s="9"/>
     </row>
-    <row r="204" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:17" ht="12.75">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -13608,7 +13608,7 @@
       <c r="O204" s="16"/>
       <c r="P204" s="9"/>
     </row>
-    <row r="205" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:17" ht="12.75">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -13626,7 +13626,7 @@
       <c r="O205" s="16"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:17" ht="12.75">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -13644,7 +13644,7 @@
       <c r="O206" s="16"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:17" ht="12.75">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -13662,7 +13662,7 @@
       <c r="O207" s="16"/>
       <c r="P207" s="9"/>
     </row>
-    <row r="208" spans="1:17" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:17" ht="12.75">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -13680,7 +13680,7 @@
       <c r="O208" s="16"/>
       <c r="P208" s="9"/>
     </row>
-    <row r="209" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:16" ht="12.75">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -13698,7 +13698,7 @@
       <c r="O209" s="16"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:16" ht="12.75">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -13716,7 +13716,7 @@
       <c r="O210" s="16"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:16" ht="12.75">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -13734,7 +13734,7 @@
       <c r="O211" s="16"/>
       <c r="P211" s="9"/>
     </row>
-    <row r="212" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:16" ht="12.75">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -13752,7 +13752,7 @@
       <c r="O212" s="16"/>
       <c r="P212" s="9"/>
     </row>
-    <row r="213" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:16" ht="12.75">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -13770,7 +13770,7 @@
       <c r="O213" s="2"/>
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:16" ht="12.75">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -13788,7 +13788,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:16" ht="12.75">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -13806,7 +13806,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:16" ht="12.75">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13824,7 +13824,7 @@
       <c r="O216" s="16"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:16" ht="12.75">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -13842,7 +13842,7 @@
       <c r="O217" s="16"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:16" ht="12.75">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -13860,7 +13860,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="20"/>
     </row>
-    <row r="219" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:16" ht="12.75">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -13878,7 +13878,7 @@
       <c r="O219" s="2"/>
       <c r="P219" s="20"/>
     </row>
-    <row r="220" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:16" ht="12.75">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -13896,7 +13896,7 @@
       <c r="O220" s="2"/>
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:16" ht="12.75">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -13914,7 +13914,7 @@
       <c r="O221" s="16"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:16" ht="12.75">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -13932,7 +13932,7 @@
       <c r="O222" s="16"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:16" ht="12.75">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -13950,7 +13950,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="20"/>
     </row>
-    <row r="224" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:16" ht="12.75">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -13968,7 +13968,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="20"/>
     </row>
-    <row r="225" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:16" ht="12.75">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -13986,7 +13986,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="20"/>
     </row>
-    <row r="226" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:16" ht="12.75">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -14004,7 +14004,7 @@
       <c r="O226" s="16"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:16" ht="12.75">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -14022,7 +14022,7 @@
       <c r="O227" s="16"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:16" ht="12.75">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -14040,7 +14040,7 @@
       <c r="O228" s="16"/>
       <c r="P228" s="9"/>
     </row>
-    <row r="229" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:16" ht="12.75">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -14058,7 +14058,7 @@
       <c r="O229" s="16"/>
       <c r="P229" s="9"/>
     </row>
-    <row r="230" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:16" ht="12.75">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -14076,7 +14076,7 @@
       <c r="O230" s="16"/>
       <c r="P230" s="9"/>
     </row>
-    <row r="231" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:16" ht="12.75">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -14094,7 +14094,7 @@
       <c r="O231" s="16"/>
       <c r="P231" s="9"/>
     </row>
-    <row r="232" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:16" ht="12.75">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -14112,7 +14112,7 @@
       <c r="O232" s="16"/>
       <c r="P232" s="9"/>
     </row>
-    <row r="233" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:16" ht="12.75">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -14130,7 +14130,7 @@
       <c r="O233" s="16"/>
       <c r="P233" s="9"/>
     </row>
-    <row r="234" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:16" ht="12.75">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -14148,7 +14148,7 @@
       <c r="O234" s="16"/>
       <c r="P234" s="9"/>
     </row>
-    <row r="235" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:16" ht="12.75">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -14166,7 +14166,7 @@
       <c r="O235" s="16"/>
       <c r="P235" s="9"/>
     </row>
-    <row r="236" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:16" ht="12.75">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="55"/>
@@ -14184,7 +14184,7 @@
       <c r="O236" s="2"/>
       <c r="P236" s="20"/>
     </row>
-    <row r="237" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:16" ht="12.75">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="55"/>
@@ -14202,7 +14202,7 @@
       <c r="O237" s="2"/>
       <c r="P237" s="20"/>
     </row>
-    <row r="238" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:16" ht="12.75">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="55"/>
@@ -14220,7 +14220,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="20"/>
     </row>
-    <row r="239" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:16" ht="12.75">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -14238,7 +14238,7 @@
       <c r="O239" s="41"/>
       <c r="P239" s="41"/>
     </row>
-    <row r="240" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:16" ht="12.75">
       <c r="A240" s="59"/>
       <c r="B240" s="59"/>
       <c r="C240" s="59"/>
@@ -14256,7 +14256,7 @@
       <c r="O240" s="63"/>
       <c r="P240" s="61"/>
     </row>
-    <row r="241" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:16" ht="12.75">
       <c r="A241" s="59"/>
       <c r="B241" s="59"/>
       <c r="C241" s="59"/>
@@ -14274,7 +14274,7 @@
       <c r="O241" s="63"/>
       <c r="P241" s="61"/>
     </row>
-    <row r="242" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:16" ht="12.75">
       <c r="A242" s="59"/>
       <c r="B242" s="59"/>
       <c r="C242" s="59"/>
@@ -14292,7 +14292,7 @@
       <c r="O242" s="63"/>
       <c r="P242" s="61"/>
     </row>
-    <row r="243" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:16" ht="12.75">
       <c r="A243" s="59"/>
       <c r="B243" s="59"/>
       <c r="C243" s="59"/>
@@ -14310,7 +14310,7 @@
       <c r="O243" s="63"/>
       <c r="P243" s="61"/>
     </row>
-    <row r="244" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:16" ht="12.75">
       <c r="A244" s="59"/>
       <c r="B244" s="59"/>
       <c r="C244" s="59"/>
@@ -14328,7 +14328,7 @@
       <c r="O244" s="63"/>
       <c r="P244" s="61"/>
     </row>
-    <row r="245" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:16" ht="12.75">
       <c r="A245" s="59"/>
       <c r="B245" s="59"/>
       <c r="C245" s="59"/>
@@ -14346,7 +14346,7 @@
       <c r="O245" s="63"/>
       <c r="P245" s="61"/>
     </row>
-    <row r="246" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:16" ht="12.75">
       <c r="A246" s="59"/>
       <c r="B246" s="59"/>
       <c r="C246" s="59"/>
@@ -14364,7 +14364,7 @@
       <c r="O246" s="63"/>
       <c r="P246" s="61"/>
     </row>
-    <row r="247" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:16" ht="12.75">
       <c r="A247" s="59"/>
       <c r="B247" s="59"/>
       <c r="C247" s="59"/>
@@ -14382,7 +14382,7 @@
       <c r="O247" s="63"/>
       <c r="P247" s="61"/>
     </row>
-    <row r="248" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:16" ht="12.75">
       <c r="A248" s="59"/>
       <c r="B248" s="59"/>
       <c r="C248" s="59"/>
@@ -14400,7 +14400,7 @@
       <c r="O248" s="63"/>
       <c r="P248" s="61"/>
     </row>
-    <row r="249" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:16" ht="12.75">
       <c r="A249" s="59"/>
       <c r="B249" s="59"/>
       <c r="C249" s="59"/>
@@ -14418,7 +14418,7 @@
       <c r="O249" s="63"/>
       <c r="P249" s="61"/>
     </row>
-    <row r="250" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:16" ht="12.75">
       <c r="A250" s="59"/>
       <c r="B250" s="59"/>
       <c r="C250" s="59"/>
@@ -14436,7 +14436,7 @@
       <c r="O250" s="63"/>
       <c r="P250" s="61"/>
     </row>
-    <row r="251" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:16" ht="12.75">
       <c r="A251" s="59"/>
       <c r="B251" s="59"/>
       <c r="C251" s="59"/>
@@ -14454,7 +14454,7 @@
       <c r="O251" s="63"/>
       <c r="P251" s="61"/>
     </row>
-    <row r="252" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:16" ht="12.75">
       <c r="A252" s="59"/>
       <c r="B252" s="59"/>
       <c r="C252" s="59"/>
@@ -14472,7 +14472,7 @@
       <c r="O252" s="63"/>
       <c r="P252" s="61"/>
     </row>
-    <row r="253" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:16" ht="12.75">
       <c r="A253" s="59"/>
       <c r="B253" s="59"/>
       <c r="C253" s="59"/>
@@ -14490,7 +14490,7 @@
       <c r="O253" s="63"/>
       <c r="P253" s="61"/>
     </row>
-    <row r="254" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:16" ht="12.75">
       <c r="A254" s="59"/>
       <c r="B254" s="59"/>
       <c r="C254" s="59"/>
@@ -14508,7 +14508,7 @@
       <c r="O254" s="63"/>
       <c r="P254" s="61"/>
     </row>
-    <row r="255" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:16" ht="12.75">
       <c r="A255" s="59"/>
       <c r="B255" s="59"/>
       <c r="C255" s="59"/>
@@ -14526,7 +14526,7 @@
       <c r="O255" s="63"/>
       <c r="P255" s="61"/>
     </row>
-    <row r="256" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:16" ht="12.75">
       <c r="A256" s="59"/>
       <c r="B256" s="59"/>
       <c r="C256" s="59"/>
@@ -14544,7 +14544,7 @@
       <c r="O256" s="63"/>
       <c r="P256" s="61"/>
     </row>
-    <row r="257" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:16" ht="12.75">
       <c r="A257" s="59"/>
       <c r="B257" s="59"/>
       <c r="C257" s="59"/>
@@ -14562,7 +14562,7 @@
       <c r="O257" s="63"/>
       <c r="P257" s="61"/>
     </row>
-    <row r="258" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:16" ht="12.75">
       <c r="A258" s="59"/>
       <c r="B258" s="59"/>
       <c r="C258" s="59"/>
@@ -14580,7 +14580,7 @@
       <c r="O258" s="63"/>
       <c r="P258" s="61"/>
     </row>
-    <row r="259" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:16" ht="12.75">
       <c r="A259" s="59"/>
       <c r="B259" s="59"/>
       <c r="C259" s="59"/>
@@ -14598,7 +14598,7 @@
       <c r="O259" s="63"/>
       <c r="P259" s="61"/>
     </row>
-    <row r="260" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:16" ht="12.75">
       <c r="A260" s="59"/>
       <c r="B260" s="59"/>
       <c r="C260" s="59"/>
@@ -14616,7 +14616,7 @@
       <c r="O260" s="63"/>
       <c r="P260" s="61"/>
     </row>
-    <row r="261" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:16" ht="12.75">
       <c r="A261" s="59"/>
       <c r="B261" s="59"/>
       <c r="C261" s="59"/>
@@ -14634,7 +14634,7 @@
       <c r="O261" s="63"/>
       <c r="P261" s="61"/>
     </row>
-    <row r="262" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:16" ht="12.75">
       <c r="A262" s="59"/>
       <c r="B262" s="59"/>
       <c r="C262" s="59"/>
@@ -14652,7 +14652,7 @@
       <c r="O262" s="63"/>
       <c r="P262" s="61"/>
     </row>
-    <row r="263" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:16" ht="12.75">
       <c r="A263" s="59"/>
       <c r="B263" s="59"/>
       <c r="C263" s="59"/>
@@ -14670,7 +14670,7 @@
       <c r="O263" s="63"/>
       <c r="P263" s="61"/>
     </row>
-    <row r="264" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:16" ht="12.75">
       <c r="A264" s="59"/>
       <c r="B264" s="59"/>
       <c r="C264" s="59"/>
@@ -14688,7 +14688,7 @@
       <c r="O264" s="63"/>
       <c r="P264" s="61"/>
     </row>
-    <row r="265" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:16" ht="12.75">
       <c r="A265" s="59"/>
       <c r="B265" s="59"/>
       <c r="C265" s="59"/>
@@ -14706,7 +14706,7 @@
       <c r="O265" s="63"/>
       <c r="P265" s="61"/>
     </row>
-    <row r="266" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:16" ht="12.75">
       <c r="A266" s="59"/>
       <c r="B266" s="59"/>
       <c r="C266" s="59"/>
@@ -14724,7 +14724,7 @@
       <c r="O266" s="63"/>
       <c r="P266" s="61"/>
     </row>
-    <row r="267" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:16" ht="12.75">
       <c r="A267" s="59"/>
       <c r="B267" s="59"/>
       <c r="C267" s="59"/>
@@ -14742,7 +14742,7 @@
       <c r="O267" s="63"/>
       <c r="P267" s="61"/>
     </row>
-    <row r="268" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:16" ht="12.75">
       <c r="A268" s="59"/>
       <c r="B268" s="59"/>
       <c r="C268" s="59"/>
@@ -14760,7 +14760,7 @@
       <c r="O268" s="63"/>
       <c r="P268" s="61"/>
     </row>
-    <row r="269" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:16" ht="12.75">
       <c r="A269" s="59"/>
       <c r="B269" s="59"/>
       <c r="C269" s="59"/>
@@ -14778,7 +14778,7 @@
       <c r="O269" s="63"/>
       <c r="P269" s="61"/>
     </row>
-    <row r="270" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:16" ht="12.75">
       <c r="A270" s="59"/>
       <c r="B270" s="59"/>
       <c r="C270" s="59"/>
@@ -14796,7 +14796,7 @@
       <c r="O270" s="63"/>
       <c r="P270" s="61"/>
     </row>
-    <row r="271" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:16" ht="12.75">
       <c r="A271" s="59"/>
       <c r="B271" s="59"/>
       <c r="C271" s="59"/>
@@ -14814,7 +14814,7 @@
       <c r="O271" s="63"/>
       <c r="P271" s="61"/>
     </row>
-    <row r="272" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:16" ht="12.75">
       <c r="A272" s="59"/>
       <c r="B272" s="59"/>
       <c r="C272" s="59"/>
@@ -14832,7 +14832,7 @@
       <c r="O272" s="63"/>
       <c r="P272" s="61"/>
     </row>
-    <row r="273" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:16" ht="12.75">
       <c r="A273" s="59"/>
       <c r="B273" s="59"/>
       <c r="C273" s="59"/>
@@ -14850,7 +14850,7 @@
       <c r="O273" s="63"/>
       <c r="P273" s="61"/>
     </row>
-    <row r="274" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:16" ht="12.75">
       <c r="A274" s="59"/>
       <c r="B274" s="59"/>
       <c r="C274" s="59"/>
@@ -14868,7 +14868,7 @@
       <c r="O274" s="63"/>
       <c r="P274" s="61"/>
     </row>
-    <row r="275" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:16" ht="12.75">
       <c r="A275" s="59"/>
       <c r="B275" s="59"/>
       <c r="C275" s="59"/>
@@ -14886,7 +14886,7 @@
       <c r="O275" s="63"/>
       <c r="P275" s="61"/>
     </row>
-    <row r="276" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:16" ht="12.75">
       <c r="A276" s="59"/>
       <c r="B276" s="59"/>
       <c r="C276" s="59"/>
@@ -14904,7 +14904,7 @@
       <c r="O276" s="63"/>
       <c r="P276" s="61"/>
     </row>
-    <row r="277" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:16" ht="12.75">
       <c r="A277" s="59"/>
       <c r="B277" s="59"/>
       <c r="C277" s="59"/>
@@ -14922,7 +14922,7 @@
       <c r="O277" s="63"/>
       <c r="P277" s="61"/>
     </row>
-    <row r="278" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:16" ht="12.75">
       <c r="A278" s="59"/>
       <c r="B278" s="59"/>
       <c r="C278" s="59"/>
@@ -14940,7 +14940,7 @@
       <c r="O278" s="63"/>
       <c r="P278" s="61"/>
     </row>
-    <row r="279" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:16" ht="12.75">
       <c r="A279" s="59"/>
       <c r="B279" s="59"/>
       <c r="C279" s="59"/>
@@ -14958,7 +14958,7 @@
       <c r="O279" s="63"/>
       <c r="P279" s="61"/>
     </row>
-    <row r="280" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:16" ht="12.75">
       <c r="A280" s="59"/>
       <c r="B280" s="59"/>
       <c r="C280" s="59"/>
@@ -14976,7 +14976,7 @@
       <c r="O280" s="63"/>
       <c r="P280" s="61"/>
     </row>
-    <row r="281" spans="1:16" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:16" ht="12.75">
       <c r="A281" s="59"/>
       <c r="B281" s="59"/>
       <c r="C281" s="59"/>
@@ -15011,7 +15011,7 @@
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
@@ -15024,7 +15024,7 @@
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="12">
       <c r="A2" s="32" t="s">
         <v>315</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>316</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>317</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>318</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>319</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>320</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>321</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>322</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>323</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>324</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>325</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>326</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>327</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>328</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>329</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>238</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>239</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>240</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>241</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>242</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
       <c r="A22" s="32" t="s">
         <v>243</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>244</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>245</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>246</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>247</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>248</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>249</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>250</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="32" t="s">
         <v>251</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="32" t="s">
         <v>196</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>197</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="32" t="s">
         <v>198</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="32" t="s">
         <v>199</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="32" t="s">
         <v>200</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>201</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>202</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>203</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="32" t="s">
         <v>204</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>205</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
       <c r="A41" s="32" t="s">
         <v>206</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>207</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>208</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
       <c r="A44" s="32" t="s">
         <v>209</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>210</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1">
       <c r="A46" s="32" t="s">
         <v>211</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="32" t="s">
         <v>212</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
       <c r="A48" s="32" t="s">
         <v>213</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="32" t="s">
         <v>214</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
       <c r="A50" s="32" t="s">
         <v>215</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
       <c r="A51" s="32" t="s">
         <v>216</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
       <c r="A52" s="32" t="s">
         <v>217</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="32" t="s">
         <v>218</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="32" t="s">
         <v>219</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="32" t="s">
         <v>220</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
       <c r="A56" s="32" t="s">
         <v>221</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="32" t="s">
         <v>222</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
       <c r="A58" s="32" t="s">
         <v>223</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="32" t="s">
         <v>224</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
       <c r="A60" s="32" t="s">
         <v>225</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="32" t="s">
         <v>226</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
       <c r="A62" s="32" t="s">
         <v>227</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
       <c r="A63" s="32" t="s">
         <v>228</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
       <c r="A64" s="32" t="s">
         <v>229</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
       <c r="A65" s="32" t="s">
         <v>230</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
       <c r="A66" s="32" t="s">
         <v>231</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="32" t="s">
         <v>232</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
       <c r="A68" s="32" t="s">
         <v>233</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
       <c r="A69" s="32" t="s">
         <v>486</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="32" t="s">
         <v>487</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="32" t="s">
         <v>488</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
       <c r="A72" s="32" t="s">
         <v>489</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="32" t="s">
         <v>490</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="32" t="s">
         <v>491</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="32" t="s">
         <v>492</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="32" t="s">
         <v>493</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="32" t="s">
         <v>494</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="32" t="s">
         <v>495</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="32" t="s">
         <v>496</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="32" t="s">
         <v>497</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>498</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="32" t="s">
         <v>499</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="32" t="s">
         <v>500</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="32" t="s">
         <v>281</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="32" t="s">
         <v>282</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="32" t="s">
         <v>283</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="32" t="s">
         <v>284</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>285</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>286</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>287</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>288</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="32" t="s">
         <v>289</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="32" t="s">
         <v>290</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="32" t="s">
         <v>291</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="32" t="s">
         <v>292</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="32" t="s">
         <v>293</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="32" t="s">
         <v>294</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="32" t="s">
         <v>295</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="32" t="s">
         <v>300</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="32" t="s">
         <v>301</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="32" t="s">
         <v>302</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="32" t="s">
         <v>303</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="32" t="s">
         <v>304</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="32" t="s">
         <v>305</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>306</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="32" t="s">
         <v>307</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="32" t="s">
         <v>308</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="32" t="s">
         <v>309</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="32" t="s">
         <v>310</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="32" t="s">
         <v>311</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="32" t="s">
         <v>312</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="32" t="s">
         <v>313</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="32" t="s">
         <v>314</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="32" t="s">
         <v>264</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="32" t="s">
         <v>265</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="32" t="s">
         <v>266</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>267</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="32" t="s">
         <v>268</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="32" t="s">
         <v>269</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="32" t="s">
         <v>270</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="32" t="s">
         <v>271</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="32" t="s">
         <v>272</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="32" t="s">
         <v>273</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="32" t="s">
         <v>274</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="32" t="s">
         <v>275</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="32" t="s">
         <v>276</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="32" t="s">
         <v>277</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
       <c r="A128" s="32" t="s">
         <v>278</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
       <c r="A129" s="32" t="s">
         <v>351</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="32" t="s">
         <v>352</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="32" t="s">
         <v>353</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="32" t="s">
         <v>354</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="32" t="s">
         <v>355</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="32" t="s">
         <v>356</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
       <c r="A135" s="32" t="s">
         <v>357</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
       <c r="A136" s="32" t="s">
         <v>358</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="32" t="s">
         <v>359</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="32" t="s">
         <v>360</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
       <c r="A139" s="32" t="s">
         <v>361</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
       <c r="A140" s="32" t="s">
         <v>362</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
       <c r="A141" s="32" t="s">
         <v>363</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="32" t="s">
         <v>364</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
       <c r="A143" s="32" t="s">
         <v>365</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
       <c r="A144" s="32" t="s">
         <v>332</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="32" t="s">
         <v>333</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="32" t="s">
         <v>334</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
       <c r="A147" s="32" t="s">
         <v>335</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
       <c r="A148" s="32" t="s">
         <v>336</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
       <c r="A149" s="32" t="s">
         <v>337</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
       <c r="A150" s="32" t="s">
         <v>338</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
       <c r="A151" s="32" t="s">
         <v>339</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
       <c r="A152" s="32" t="s">
         <v>340</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
       <c r="A153" s="32" t="s">
         <v>341</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
       <c r="A154" s="32" t="s">
         <v>342</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="A155" s="32" t="s">
         <v>343</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1">
       <c r="A156" s="32" t="s">
         <v>344</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="A157" s="32" t="s">
         <v>345</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="A158" s="32" t="s">
         <v>346</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1">
       <c r="A159" s="32" t="s">
         <v>366</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="A160" s="32" t="s">
         <v>367</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="32" t="s">
         <v>368</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1">
       <c r="A162" s="32" t="s">
         <v>369</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="A163" s="32" t="s">
         <v>370</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="A164" s="32" t="s">
         <v>371</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="A165" s="32" t="s">
         <v>372</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="A166" s="32" t="s">
         <v>373</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="A167" s="32" t="s">
         <v>374</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="A168" s="32" t="s">
         <v>375</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:9" ht="18.75" customHeight="1">
       <c r="A169" s="32" t="s">
         <v>376</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="A170" s="32" t="s">
         <v>377</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:9" ht="18.75" customHeight="1">
       <c r="A171" s="32" t="s">
         <v>378</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="A172" s="32" t="s">
         <v>379</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="A173" s="32" t="s">
         <v>380</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:9" ht="18.75" customHeight="1">
       <c r="A174" s="32" t="s">
         <v>134</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:9" ht="18.75" customHeight="1">
       <c r="A175" s="32" t="s">
         <v>136</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:9" ht="18.75" customHeight="1">
       <c r="A176" s="32" t="s">
         <v>135</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>137</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:9" ht="18.75" customHeight="1">
       <c r="A178" s="32" t="s">
         <v>138</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1">
       <c r="A179" s="32" t="s">
         <v>139</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:9" ht="18.75" customHeight="1">
       <c r="A180" s="32" t="s">
         <v>140</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:9" ht="18.75" customHeight="1">
       <c r="A181" s="32" t="s">
         <v>141</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:9" ht="18.75" customHeight="1">
       <c r="A182" s="32" t="s">
         <v>142</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:9" ht="18.75" customHeight="1">
       <c r="A183" s="32" t="s">
         <v>143</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:9" ht="18.75" customHeight="1">
       <c r="A184" s="32" t="s">
         <v>145</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:9" ht="18.75" customHeight="1">
       <c r="A185" s="32" t="s">
         <v>147</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:9" ht="18.75" customHeight="1">
       <c r="A186" s="32" t="s">
         <v>152</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:9" ht="18.75" customHeight="1">
       <c r="A187" s="32" t="s">
         <v>144</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:9" ht="18.75" customHeight="1">
       <c r="A188" s="32" t="s">
         <v>148</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:9" ht="18.75" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>146</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:9" ht="18.75" customHeight="1">
       <c r="A190" s="32" t="s">
         <v>149</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:9" ht="18.75" customHeight="1">
       <c r="A191" s="32" t="s">
         <v>150</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:9" ht="18.75" customHeight="1">
       <c r="A192" s="32" t="s">
         <v>151</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:9" ht="18.75" customHeight="1">
       <c r="A193" s="32" t="s">
         <v>385</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:9" ht="18.75" customHeight="1">
       <c r="A194" s="32" t="s">
         <v>386</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:9" ht="18.75" customHeight="1">
       <c r="A195" s="32" t="s">
         <v>387</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:9" ht="18.75" customHeight="1">
       <c r="A196" s="32" t="s">
         <v>388</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:9" ht="18.75" customHeight="1">
       <c r="A197" s="32" t="s">
         <v>389</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:9" ht="18.75" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>390</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:9" ht="18.75" customHeight="1">
       <c r="A199" s="32" t="s">
         <v>391</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:9" ht="18.75" customHeight="1">
       <c r="A200" s="32" t="s">
         <v>392</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:9" ht="18.75" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>393</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:9" ht="18.75" customHeight="1">
       <c r="A202" s="32" t="s">
         <v>394</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:9" ht="18.75" customHeight="1">
       <c r="A203" s="32" t="s">
         <v>395</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:9" ht="18.75" customHeight="1">
       <c r="A204" s="32" t="s">
         <v>396</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:9" ht="18.75" customHeight="1">
       <c r="A205" s="32" t="s">
         <v>397</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:9" ht="18.75" customHeight="1">
       <c r="A206" s="32" t="s">
         <v>398</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:9" ht="18.75" customHeight="1">
       <c r="A207" s="32" t="s">
         <v>399</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:9" ht="18.75" customHeight="1">
       <c r="A208" s="32" t="s">
         <v>402</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:9" ht="18.75" customHeight="1">
       <c r="A209" s="32" t="s">
         <v>403</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:9" ht="18.75" customHeight="1">
       <c r="A210" s="32" t="s">
         <v>404</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:9" ht="18.75" customHeight="1">
       <c r="A211" s="32" t="s">
         <v>405</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:9" ht="18.75" customHeight="1">
       <c r="A212" s="32" t="s">
         <v>406</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:9" ht="18.75" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>407</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:9" ht="18.75" customHeight="1">
       <c r="A214" s="32" t="s">
         <v>408</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:9" ht="18.75" customHeight="1">
       <c r="A215" s="32" t="s">
         <v>409</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:9" ht="18.75" customHeight="1">
       <c r="A216" s="32" t="s">
         <v>410</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:9" ht="18.75" customHeight="1">
       <c r="A217" s="32" t="s">
         <v>411</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:9" ht="18.75" customHeight="1">
       <c r="A218" s="32" t="s">
         <v>412</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:9" ht="18.75" customHeight="1">
       <c r="A219" s="32" t="s">
         <v>413</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:9" ht="18.75" customHeight="1">
       <c r="A220" s="32" t="s">
         <v>414</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:9" ht="18.75" customHeight="1">
       <c r="A221" s="32" t="s">
         <v>415</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:9" ht="18.75" customHeight="1">
       <c r="A222" s="32" t="s">
         <v>416</v>
       </c>
@@ -21683,9 +21683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:9" ht="18.75" customHeight="1">
       <c r="A223" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B223" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21707,15 +21707,15 @@
         <v>0</v>
       </c>
       <c r="H223" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I223" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:9" ht="18.75" customHeight="1">
       <c r="A224" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B224" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21737,15 +21737,15 @@
         <v>0</v>
       </c>
       <c r="H224" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I224" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:9" ht="18.75" customHeight="1">
       <c r="A225" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B225" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21767,15 +21767,15 @@
         <v>0</v>
       </c>
       <c r="H225" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I225" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:9" ht="18.75" customHeight="1">
       <c r="A226" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B226" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21797,15 +21797,15 @@
         <v>0</v>
       </c>
       <c r="H226" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I226" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:9" ht="18.75" customHeight="1">
       <c r="A227" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B227" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21827,15 +21827,15 @@
         <v>150</v>
       </c>
       <c r="H227" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I227" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:9" ht="18.75" customHeight="1">
       <c r="A228" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B228" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21857,15 +21857,15 @@
         <v>150</v>
       </c>
       <c r="H228" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I228" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:9" ht="18.75" customHeight="1">
       <c r="A229" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B229" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21887,15 +21887,15 @@
         <v>150</v>
       </c>
       <c r="H229" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I229" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:9" ht="18.75" customHeight="1">
       <c r="A230" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B230" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21917,15 +21917,15 @@
         <v>150</v>
       </c>
       <c r="H230" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I230" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:9" ht="18.75" customHeight="1">
       <c r="A231" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B231" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21947,15 +21947,15 @@
         <v>150</v>
       </c>
       <c r="H231" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I231" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:9" ht="18.75" customHeight="1">
       <c r="A232" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B232" s="26" t="str">
         <f t="shared" si="3"/>
@@ -21977,15 +21977,15 @@
         <v>150</v>
       </c>
       <c r="H232" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I232" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:9" ht="18.75" customHeight="1">
       <c r="A233" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B233" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22007,15 +22007,15 @@
         <v>150</v>
       </c>
       <c r="H233" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I233" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:9" ht="18.75" customHeight="1">
       <c r="A234" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B234" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22037,15 +22037,15 @@
         <v>150</v>
       </c>
       <c r="H234" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I234" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:9" ht="18.75" customHeight="1">
       <c r="A235" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B235" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22067,15 +22067,15 @@
         <v>150</v>
       </c>
       <c r="H235" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I235" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:9" ht="18.75" customHeight="1">
       <c r="A236" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B236" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22097,15 +22097,15 @@
         <v>150</v>
       </c>
       <c r="H236" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I236" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:9" ht="18.75" customHeight="1">
       <c r="A237" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B237" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22127,15 +22127,15 @@
         <v>150</v>
       </c>
       <c r="H237" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I237" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:9" ht="18.75" customHeight="1">
       <c r="A238" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B238" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22157,15 +22157,15 @@
         <v>150</v>
       </c>
       <c r="H238" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I238" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:9" ht="18.75" customHeight="1">
       <c r="A239" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B239" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22187,15 +22187,15 @@
         <v>150</v>
       </c>
       <c r="H239" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I239" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:9" ht="18.75" customHeight="1">
       <c r="A240" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B240" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22217,15 +22217,15 @@
         <v>150</v>
       </c>
       <c r="H240" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I240" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:9" ht="18.75" customHeight="1">
       <c r="A241" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B241" s="26" t="str">
         <f t="shared" si="3"/>
@@ -22247,13 +22247,13 @@
         <v>150</v>
       </c>
       <c r="H241" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I241" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:9" ht="18.75" customHeight="1">
       <c r="A242" s="32"/>
       <c r="B242" s="26"/>
       <c r="C242" s="26"/>
@@ -22263,7 +22263,7 @@
       <c r="G242" s="43"/>
       <c r="H242" s="32"/>
     </row>
-    <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:9" ht="18.75" customHeight="1">
       <c r="A243" s="32"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
@@ -22273,7 +22273,7 @@
       <c r="G243" s="43"/>
       <c r="H243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:9" ht="18.75" customHeight="1">
       <c r="A244" s="32"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
@@ -22283,7 +22283,7 @@
       <c r="G244" s="43"/>
       <c r="H244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:9" ht="18.75" customHeight="1">
       <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -22293,7 +22293,7 @@
       <c r="G245" s="43"/>
       <c r="H245" s="32"/>
     </row>
-    <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:9" ht="18.75" customHeight="1">
       <c r="A246" s="32"/>
       <c r="B246" s="26"/>
       <c r="C246" s="26"/>
@@ -22303,7 +22303,7 @@
       <c r="G246" s="43"/>
       <c r="H246" s="32"/>
     </row>
-    <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:9" ht="18.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
@@ -22313,7 +22313,7 @@
       <c r="G247" s="43"/>
       <c r="H247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:9" ht="18.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
@@ -22323,7 +22323,7 @@
       <c r="G248" s="43"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:9" ht="18.75" customHeight="1">
       <c r="A249" s="32"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -22333,7 +22333,7 @@
       <c r="G249" s="43"/>
       <c r="H249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:9" ht="18.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -22343,7 +22343,7 @@
       <c r="G250" s="43"/>
       <c r="H250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:9" ht="18.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
@@ -22353,7 +22353,7 @@
       <c r="G251" s="43"/>
       <c r="H251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:9" ht="18.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
@@ -22363,7 +22363,7 @@
       <c r="G252" s="43"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:9" ht="18.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
@@ -22373,7 +22373,7 @@
       <c r="G253" s="43"/>
       <c r="H253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:9" ht="18.75" customHeight="1">
       <c r="A254" s="32"/>
       <c r="B254" s="26"/>
       <c r="C254" s="26"/>
@@ -22383,7 +22383,7 @@
       <c r="G254" s="43"/>
       <c r="H254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:9" ht="18.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
@@ -22393,7 +22393,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:9" ht="18.75" customHeight="1">
       <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
@@ -22403,7 +22403,7 @@
       <c r="G256" s="43"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:8" ht="18.75" customHeight="1">
       <c r="A257" s="32"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -22413,7 +22413,7 @@
       <c r="G257" s="43"/>
       <c r="H257" s="32"/>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:8" ht="18.75" customHeight="1">
       <c r="A258" s="32"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -22423,7 +22423,7 @@
       <c r="G258" s="43"/>
       <c r="H258" s="32"/>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:8" ht="18.75" customHeight="1">
       <c r="A259" s="32"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -22433,7 +22433,7 @@
       <c r="G259" s="43"/>
       <c r="H259" s="32"/>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:8" ht="18.75" customHeight="1">
       <c r="A260" s="32"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -22443,7 +22443,7 @@
       <c r="G260" s="43"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:8" ht="18.75" customHeight="1">
       <c r="A261" s="32"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -22453,7 +22453,7 @@
       <c r="G261" s="43"/>
       <c r="H261" s="32"/>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:8" ht="18.75" customHeight="1">
       <c r="A262" s="32"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -22463,7 +22463,7 @@
       <c r="G262" s="43"/>
       <c r="H262" s="32"/>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:8" ht="18.75" customHeight="1">
       <c r="A263" s="32"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -22473,7 +22473,7 @@
       <c r="G263" s="43"/>
       <c r="H263" s="32"/>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:8" ht="18.75" customHeight="1">
       <c r="A264" s="32"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -22483,7 +22483,7 @@
       <c r="G264" s="43"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:8" ht="18.75" customHeight="1">
       <c r="A265" s="32"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -22493,7 +22493,7 @@
       <c r="G265" s="43"/>
       <c r="H265" s="32"/>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:8" ht="18.75" customHeight="1">
       <c r="A266" s="32"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -22503,7 +22503,7 @@
       <c r="G266" s="43"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:8" ht="18.75" customHeight="1">
       <c r="A267" s="32"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -22513,7 +22513,7 @@
       <c r="G267" s="43"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:8" ht="18.75" customHeight="1">
       <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -22523,7 +22523,7 @@
       <c r="G268" s="43"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:8" ht="18.75" customHeight="1">
       <c r="A269" s="32"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -22533,7 +22533,7 @@
       <c r="G269" s="43"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:8" ht="18.75" customHeight="1">
       <c r="A270" s="32"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -22543,7 +22543,7 @@
       <c r="G270" s="43"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:8" ht="18.75" customHeight="1">
       <c r="A271" s="32"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -22553,7 +22553,7 @@
       <c r="G271" s="43"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:8" ht="18.75" customHeight="1">
       <c r="A272" s="32"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -22563,7 +22563,7 @@
       <c r="G272" s="43"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:8" ht="18.75" customHeight="1">
       <c r="A273" s="32"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -22573,7 +22573,7 @@
       <c r="G273" s="43"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:8" ht="18.75" customHeight="1">
       <c r="A274" s="32"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -22583,7 +22583,7 @@
       <c r="G274" s="43"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:8" ht="18.75" customHeight="1">
       <c r="A275" s="32"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -22593,7 +22593,7 @@
       <c r="G275" s="43"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:8" ht="18.75" customHeight="1">
       <c r="A276" s="32"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -22603,7 +22603,7 @@
       <c r="G276" s="43"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:8" ht="18.75" customHeight="1">
       <c r="A277" s="32"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -22613,7 +22613,7 @@
       <c r="G277" s="43"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:8" ht="18.75" customHeight="1">
       <c r="A278" s="32"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -22623,7 +22623,7 @@
       <c r="G278" s="43"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:8" ht="18.75" customHeight="1">
       <c r="A279" s="32"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -22633,7 +22633,7 @@
       <c r="G279" s="43"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:8" ht="18.75" customHeight="1">
       <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -22643,7 +22643,7 @@
       <c r="G280" s="43"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:8" ht="18.75" customHeight="1">
       <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -22653,7 +22653,7 @@
       <c r="G281" s="43"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:8" ht="18.75" customHeight="1">
       <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -22663,7 +22663,7 @@
       <c r="G282" s="43"/>
       <c r="H282" s="32"/>
     </row>
-    <row r="283" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:8" ht="18.75" customHeight="1">
       <c r="A283" s="32"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -22673,7 +22673,7 @@
       <c r="G283" s="43"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:8" ht="18.75" customHeight="1">
       <c r="A284" s="32"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -22683,7 +22683,7 @@
       <c r="G284" s="43"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:8" ht="18.75" customHeight="1">
       <c r="A285" s="32"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -22693,7 +22693,7 @@
       <c r="G285" s="43"/>
       <c r="H285" s="32"/>
     </row>
-    <row r="286" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:8" ht="18.75" customHeight="1">
       <c r="A286" s="32"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -22721,7 +22721,7 @@
       <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -22730,7 +22730,7 @@
     <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>426</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>427</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>429</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>254</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>255</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>257</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>450</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>514</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>297</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>279</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>280</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>298</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>299</v>
       </c>
@@ -23652,7 +23652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>261</v>
       </c>
@@ -23680,7 +23680,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -23708,7 +23708,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>263</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>350</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>348</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>381</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>382</v>
       </c>
@@ -23876,7 +23876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>451</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>529</v>
       </c>
@@ -23932,7 +23932,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>452</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>453</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>521</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>446</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -24184,7 +24184,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>507</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="J60" s="69"/>
     </row>
-    <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="J61" s="69"/>
     </row>
-    <row r="62" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>166</v>
       </c>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>442</v>
       </c>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="J63" s="69"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>442</v>
       </c>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="J64" s="69"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="J65" s="69"/>
     </row>
-    <row r="66" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -24583,7 +24583,7 @@
       </c>
       <c r="J66" s="69"/>
     </row>
-    <row r="67" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>527</v>
       </c>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="J67" s="69"/>
     </row>
-    <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="B68" s="31" t="str">
         <f t="shared" si="2"/>
         <v>()</v>
@@ -24637,7 +24637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="B69" s="31" t="str">
         <f t="shared" si="2"/>
         <v>()</v>
@@ -24662,7 +24662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="B70" s="31" t="str">
         <f t="shared" si="2"/>
         <v>()</v>
@@ -24687,7 +24687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>383</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>384</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>400</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>401</v>
       </c>
@@ -24799,9 +24799,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B75" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24824,12 +24824,12 @@
         <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B76" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24852,12 +24852,12 @@
         <v>250</v>
       </c>
       <c r="H76" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B77" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24880,12 +24880,12 @@
         <v>450</v>
       </c>
       <c r="H77" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B78" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24908,12 +24908,12 @@
         <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B79" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24936,12 +24936,12 @@
         <v>225</v>
       </c>
       <c r="H79" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B80" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24964,12 +24964,12 @@
         <v>225</v>
       </c>
       <c r="H80" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B81" s="31" t="str">
         <f t="shared" si="2"/>
@@ -24992,12 +24992,12 @@
         <v>315</v>
       </c>
       <c r="H81" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B82" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25020,12 +25020,12 @@
         <v>200</v>
       </c>
       <c r="H82" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B83" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25048,12 +25048,12 @@
         <v>340</v>
       </c>
       <c r="H83" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B84" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25076,12 +25076,12 @@
         <v>185</v>
       </c>
       <c r="H84" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B85" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25104,12 +25104,12 @@
         <v>365</v>
       </c>
       <c r="H85" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B86" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25132,12 +25132,12 @@
         <v>425</v>
       </c>
       <c r="H86" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B87" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25160,12 +25160,12 @@
         <v>300</v>
       </c>
       <c r="H87" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B88" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25188,12 +25188,12 @@
         <v>300</v>
       </c>
       <c r="H88" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B89" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25216,12 +25216,12 @@
         <v>425</v>
       </c>
       <c r="H89" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B90" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25244,12 +25244,12 @@
         <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B91" s="31" t="str">
         <f t="shared" si="2"/>
@@ -25272,12 +25272,12 @@
         <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B92" s="31" t="str">
         <f>"("&amp;A92&amp;")"</f>
@@ -25300,7 +25300,7 @@
         <v>325</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -25320,7 +25320,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -25331,7 +25331,7 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>176</v>
       </c>
@@ -25428,7 +25428,7 @@
       <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -25437,7 +25437,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>178</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>179</v>
       </c>
@@ -25525,7 +25525,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -25534,7 +25534,7 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -25547,7 +25547,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A44">_xlfn.UNIQUE(_xlfn._xlws.SORT((HearingAids[haModel])))</f>
         <v>Beltone BTE Digital Boost Ultra 17 86DWHT</v>
@@ -25560,7 +25560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="str">
         <v>Beltone BTE Digital Boost Ultra 17 95DWT</v>
       </c>
@@ -25571,7 +25571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 86DWHT</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="str">
         <v>Beltone BTE Digital Boost Ultra 6 95DWT</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 86DWHT</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="str">
         <v>Beltone BTE Digital Boost Ultra 9 95DWT</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>HearUSA Competitive</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="str">
         <v>Beltone BTE Digital Rely 2 66DW</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>Humana</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="str">
         <v>Beltone BTE Digital Rely 2 76DW</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>Marketing Offer</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="str">
         <v>Beltone BTE Digital Rely 2 86DWH</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>Martins Point Competitive</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="str">
         <v>Beltone BTE Digital Rely 2 95DW</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>Nations Hearing Competitive</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="str">
         <v>Beltone BTE Digital Rely 3 66DW</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>Open House Special</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="str">
         <v>Beltone BTE Digital Rely 3 76DW</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>Regular</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="str">
         <v>Beltone BTE Digital Rely 3 86DWH</v>
       </c>
@@ -25668,7 +25668,7 @@
         <v>Tri-Care</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="str">
         <v>Beltone BTE Digital Rely 3 95DW</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>TruHearing Competitive</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <v>Beltone BTE Digital Rely 4 66DW</v>
       </c>
@@ -25684,7 +25684,7 @@
         <v>Veterans Discount</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <v>Beltone BTE Digital Rely 4 76DW</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>Volume Discount</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="str">
         <v>Beltone BTE Digital Rely 4 86DWH</v>
       </c>
@@ -25700,127 +25700,127 @@
         <v>WellCare Competitive</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="str">
         <v>Beltone BTE Digital Rely 4 95DW</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="str">
         <v>Beltone CIC Digital Rely 3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="str">
         <v>Beltone CIC Digital Rely 4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="str">
         <v>Beltone ITC Digital Rely 2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="str">
         <v>Beltone ITC Digital Rely 3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="str">
         <v>Beltone ITC Digital Rely 4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="str">
         <v>Beltone ITE Digital Rely 2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="str">
         <v>Beltone ITE Digital Rely 3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="str">
         <v>Beltone ITE Digital Rely 4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <v>Beltone RIE Digital Commence 2 63-DRW</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <v>Beltone RIE Digital Commence 3 62-DRWC</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <v>Beltone RIE Digital Envision 4 62S-DRWC</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <v>Beltone RIE Digital Envision 6 62S-DRWC</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <v>Beltone RIE Digital Envision 9 62S-DRWC</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <v>Beltone RIE Digital Rely 2 63DRW</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <v>Beltone RIE Digital Rely 2 64DRW</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <v>Beltone RIE Digital Rely 3 63DRW</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <v>Beltone RIE Digital Rely 3 63DRWC</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <v>Beltone RIE Digital Rely 3 64DRW</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <v>Beltone RIE Digital Rely 4 63DRWC</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <v>Beltone RIE Digital Rely 4 64DRW</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="str">
         <v>Beltone RIE Digital Serene 6 62SDRWC</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <v>Beltone RIE Digital Serene 9 62SDRWC</v>
       </c>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3329" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E28E249-1198-4716-A07B-ABF3E1E2CA87}"/>
+  <xr:revisionPtr revIDLastSave="3330" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D36C8321-2A5C-4656-B70D-56C8765CB93B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2656,6 +2656,37 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,37 +2734,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3892,7 +3892,7 @@
   <dimension ref="A4:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -3908,33 +3908,33 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12.75" thickBot="1"/>
     <row r="5" spans="1:20" ht="13.5" thickBot="1">
-      <c r="B5" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="113"/>
+      <c r="B5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="97"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="82" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="25">
-        <v>2</v>
-      </c>
-      <c r="E6" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="81" t="s">
         <v>640</v>
       </c>
@@ -3959,10 +3959,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="98"/>
       <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
@@ -3972,27 +3972,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="106" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Serene 17 62SDRWC</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -4005,31 +4005,31 @@
         <f>E11-F11</f>
         <v>4800</v>
       </c>
-      <c r="J11" s="95" t="str" cm="1">
+      <c r="J11" s="104" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>(REG-HI-SER17-62SDRWC)</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="106" t="str">
+      <c r="B12" s="115" t="str">
         <f>IF($D$6=1,"",B11)</f>
-        <v>Beltone RIE Digital Serene 17 62SDRWC</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="64" cm="1">
+        <v/>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="64" t="str" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
-        <v>5819</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13" cm="1">
         <f t="array" ref="F12">IF($B$6="","",IF($G$6="NO",(_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)),_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!I:I)+500))</f>
@@ -4037,27 +4037,27 @@
       </c>
       <c r="G12" s="13">
         <f>E12-F12</f>
-        <v>4800</v>
-      </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
+        <v>-1019</v>
+      </c>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="106" t="str" cm="1">
+      <c r="B13" s="115" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -4070,104 +4070,104 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="106" t="str" cm="1">
+      <c r="B14" s="115" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
-        <v>100% Discount</v>
+        <v/>
       </c>
       <c r="G14" s="13" cm="1">
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="106" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF($D$6=1,"",B14)</f>
-        <v>SureFit3 or M@RIE Receiver</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+        <v/>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
-        <v>100% Discount</v>
-      </c>
-      <c r="G15" s="13" cm="1">
+        <v/>
+      </c>
+      <c r="G15" s="13" t="str" cm="1">
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+        <v/>
+      </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
-        <v>9850</v>
-      </c>
-      <c r="J16" s="103" t="str" cm="1">
+        <v>4031</v>
+      </c>
+      <c r="J16" s="112" t="str" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>REG-HI-SER17-62SDRWC</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="105"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1">
-      <c r="B17" s="102" t="str" cm="1">
+      <c r="B17" s="111" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -4180,23 +4180,23 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
         <f>SUM(G16:G17)</f>
-        <v>10150</v>
+        <v>4331</v>
       </c>
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4208,12 +4208,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="95" t="e" cm="1" vm="1">
+      <c r="L20" s="104" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4227,9 +4227,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4247,9 +4247,9 @@
       <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4265,9 +4265,9 @@
       <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4286,9 +4286,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4296,9 +4296,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="G25" s="13">
         <f>IF(G21='Data Lists'!C3,0,IF(AND(G21='Data Lists'!C4,$E$6="Anthem BCBS"),'Price Calculator'!G24/2,IF(AND(G21='Data Lists'!C5,$E$6="Anthem BCBS"),'Price Calculator'!G24*20%,IF(AND(G21='Data Lists'!C6,$E$6="Anthem BCBS"),700,IF(AND(G21='Data Lists'!C7,$E$6="Anthem BCBS",G24&lt;5555),G24*10%,IF(AND(G21='Data Lists'!C7,$E$6="Anthem BCBS",G24&gt;5555),G24-5000,IF(G21='Data Lists'!C4,'Price Calculator'!G18*20%,IF(G21='Data Lists'!C5,'Price Calculator'!G18*20%,IF('Price Calculator'!G21='Data Lists'!C6,700,IF(AND('Price Calculator'!G21='Data Lists'!C7,G18&lt;5555),G18*10%,IF(AND('Price Calculator'!G21='Data Lists'!C7,G18&gt;5555),G18-5000,"")))))))))))</f>
-        <v>2030</v>
+        <v>866.2</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="18" customHeight="1" thickBot="1">
@@ -4319,17 +4319,12 @@
       </c>
       <c r="G26" s="15">
         <f>IF($E$6="Anthem BCBS",G24-G25,G18-G25)</f>
-        <v>8120</v>
+        <v>3464.8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4344,6 +4339,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
